--- a/can2tsn_history.xlsx
+++ b/can2tsn_history.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>2025-05-06 19:57:31</t>
+  </si>
+  <si>
+    <t>2025-05-06 20:37:32</t>
   </si>
 </sst>
 </file>
@@ -47743,6 +47746,98 @@
         <v>2.840687</v>
       </c>
     </row>
+    <row r="2050">
+      <c r="A2050" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2050">
+        <v>20</v>
+      </c>
+      <c r="D2050">
+        <v>121900</v>
+      </c>
+      <c r="E2050">
+        <v>1219</v>
+      </c>
+      <c r="F2050">
+        <v>0</v>
+      </c>
+      <c r="G2050">
+        <v>2.3064109999999998</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2051">
+        <v>20</v>
+      </c>
+      <c r="D2051">
+        <v>121900</v>
+      </c>
+      <c r="E2051">
+        <v>1219</v>
+      </c>
+      <c r="F2051">
+        <v>0</v>
+      </c>
+      <c r="G2051">
+        <v>2.215487</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2052">
+        <v>20</v>
+      </c>
+      <c r="D2052">
+        <v>386900</v>
+      </c>
+      <c r="E2052">
+        <v>3869</v>
+      </c>
+      <c r="F2052">
+        <v>0</v>
+      </c>
+      <c r="G2052">
+        <v>0.862917</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2053">
+        <v>20</v>
+      </c>
+      <c r="D2053">
+        <v>120000</v>
+      </c>
+      <c r="E2053">
+        <v>1200</v>
+      </c>
+      <c r="F2053">
+        <v>0</v>
+      </c>
+      <c r="G2053">
+        <v>2.32133</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/can2tsn_history.xlsx
+++ b/can2tsn_history.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -300,6 +300,180 @@
   </si>
   <si>
     <t>2025-05-06 20:37:32</t>
+  </si>
+  <si>
+    <t>2025-05-07 13:26:33</t>
+  </si>
+  <si>
+    <t>2025-05-07 13:42:48</t>
+  </si>
+  <si>
+    <t>2025-05-07 13:51:31</t>
+  </si>
+  <si>
+    <t>2025-05-07 13:53:23</t>
+  </si>
+  <si>
+    <t>2025-05-07 13:53:58</t>
+  </si>
+  <si>
+    <t>2025-05-07 13:58:07</t>
+  </si>
+  <si>
+    <t>2025-05-07 13:58:46</t>
+  </si>
+  <si>
+    <t>2025-05-07 13:59:05</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:00:29</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:01:09</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:05:25</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:06:20</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:08:02</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:13:14</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:14:40</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:16:21</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:35:49</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:36:38</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:41:58</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:42:06</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:43:22</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:52:32</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:57:57</t>
+  </si>
+  <si>
+    <t>2025-05-07 15:00:38</t>
+  </si>
+  <si>
+    <t>2025-05-07 15:26:52</t>
+  </si>
+  <si>
+    <t>2025-05-07 15:56:00</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:01:25</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:01:50</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:04:30</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:05:30</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:20:11</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:20:48</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:21:37</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:24:22</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:26:38</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:26:50</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:28:12</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:29:30</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:30:57</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:32:55</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:36:03</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:36:16</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:37:16</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:38:46</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:40:22</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:41:52</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:44:18</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:46:02</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:48:00</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:49:36</t>
+  </si>
+  <si>
+    <t>2025-05-07 16:52:14</t>
+  </si>
+  <si>
+    <t>2025-05-07 18:50:23</t>
+  </si>
+  <si>
+    <t>2025-05-07 18:50:41</t>
+  </si>
+  <si>
+    <t>2025-05-07 18:50:54</t>
+  </si>
+  <si>
+    <t>2025-05-07 18:51:16</t>
+  </si>
+  <si>
+    <t>2025-05-07 18:51:18</t>
+  </si>
+  <si>
+    <t>2025-05-07 18:51:21</t>
+  </si>
+  <si>
+    <t>2025-05-07 18:51:23</t>
   </si>
 </sst>
 </file>
@@ -47838,6 +48012,5342 @@
         <v>2.32133</v>
       </c>
     </row>
+    <row r="2054">
+      <c r="A2054" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2054">
+        <v>20</v>
+      </c>
+      <c r="D2054">
+        <v>101100</v>
+      </c>
+      <c r="E2054">
+        <v>1011</v>
+      </c>
+      <c r="F2054">
+        <v>0</v>
+      </c>
+      <c r="G2054">
+        <v>2.123285</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2055">
+        <v>20</v>
+      </c>
+      <c r="D2055">
+        <v>101100</v>
+      </c>
+      <c r="E2055">
+        <v>1011</v>
+      </c>
+      <c r="F2055">
+        <v>0</v>
+      </c>
+      <c r="G2055">
+        <v>3.214451</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2056">
+        <v>20</v>
+      </c>
+      <c r="D2056">
+        <v>393300</v>
+      </c>
+      <c r="E2056">
+        <v>3933</v>
+      </c>
+      <c r="F2056">
+        <v>0</v>
+      </c>
+      <c r="G2056">
+        <v>0.975127</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2057">
+        <v>20</v>
+      </c>
+      <c r="D2057">
+        <v>98600</v>
+      </c>
+      <c r="E2057">
+        <v>986</v>
+      </c>
+      <c r="F2057">
+        <v>0</v>
+      </c>
+      <c r="G2057">
+        <v>2.611145</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2058">
+        <v>20</v>
+      </c>
+      <c r="D2058">
+        <v>117100</v>
+      </c>
+      <c r="E2058">
+        <v>1171</v>
+      </c>
+      <c r="F2058">
+        <v>0</v>
+      </c>
+      <c r="G2058">
+        <v>2.2490040000000002</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2059">
+        <v>20</v>
+      </c>
+      <c r="D2059">
+        <v>117100</v>
+      </c>
+      <c r="E2059">
+        <v>1171</v>
+      </c>
+      <c r="F2059">
+        <v>0</v>
+      </c>
+      <c r="G2059">
+        <v>2.095583</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2060">
+        <v>20</v>
+      </c>
+      <c r="D2060">
+        <v>396400</v>
+      </c>
+      <c r="E2060">
+        <v>3964</v>
+      </c>
+      <c r="F2060">
+        <v>0</v>
+      </c>
+      <c r="G2060">
+        <v>0.9206559999999999</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2061">
+        <v>20</v>
+      </c>
+      <c r="D2061">
+        <v>114700</v>
+      </c>
+      <c r="E2061">
+        <v>1147</v>
+      </c>
+      <c r="F2061">
+        <v>0</v>
+      </c>
+      <c r="G2061">
+        <v>2.7016240000000002</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2062">
+        <v>20</v>
+      </c>
+      <c r="D2062">
+        <v>122300</v>
+      </c>
+      <c r="E2062">
+        <v>1223</v>
+      </c>
+      <c r="F2062">
+        <v>0</v>
+      </c>
+      <c r="G2062">
+        <v>2.408543</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2063">
+        <v>20</v>
+      </c>
+      <c r="D2063">
+        <v>122300</v>
+      </c>
+      <c r="E2063">
+        <v>1223</v>
+      </c>
+      <c r="F2063">
+        <v>0</v>
+      </c>
+      <c r="G2063">
+        <v>2.0129520000000003</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2064">
+        <v>20</v>
+      </c>
+      <c r="D2064">
+        <v>387000</v>
+      </c>
+      <c r="E2064">
+        <v>3870</v>
+      </c>
+      <c r="F2064">
+        <v>0</v>
+      </c>
+      <c r="G2064">
+        <v>0.829525</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2065">
+        <v>20</v>
+      </c>
+      <c r="D2065">
+        <v>120000</v>
+      </c>
+      <c r="E2065">
+        <v>1200</v>
+      </c>
+      <c r="F2065">
+        <v>0</v>
+      </c>
+      <c r="G2065">
+        <v>3.136915</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2066">
+        <v>20</v>
+      </c>
+      <c r="D2066">
+        <v>117000</v>
+      </c>
+      <c r="E2066">
+        <v>1170</v>
+      </c>
+      <c r="F2066">
+        <v>0</v>
+      </c>
+      <c r="G2066">
+        <v>2.263578</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2067">
+        <v>20</v>
+      </c>
+      <c r="D2067">
+        <v>117000</v>
+      </c>
+      <c r="E2067">
+        <v>1170</v>
+      </c>
+      <c r="F2067">
+        <v>0</v>
+      </c>
+      <c r="G2067">
+        <v>2.0974079999999997</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2068">
+        <v>20</v>
+      </c>
+      <c r="D2068">
+        <v>387400</v>
+      </c>
+      <c r="E2068">
+        <v>3874</v>
+      </c>
+      <c r="F2068">
+        <v>0</v>
+      </c>
+      <c r="G2068">
+        <v>0.859548</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2069">
+        <v>20</v>
+      </c>
+      <c r="D2069">
+        <v>114600</v>
+      </c>
+      <c r="E2069">
+        <v>1146</v>
+      </c>
+      <c r="F2069">
+        <v>0</v>
+      </c>
+      <c r="G2069">
+        <v>3.071682</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2070">
+        <v>20</v>
+      </c>
+      <c r="D2070">
+        <v>117000</v>
+      </c>
+      <c r="E2070">
+        <v>1170</v>
+      </c>
+      <c r="F2070">
+        <v>0</v>
+      </c>
+      <c r="G2070">
+        <v>3.119008</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2071">
+        <v>20</v>
+      </c>
+      <c r="D2071">
+        <v>117000</v>
+      </c>
+      <c r="E2071">
+        <v>1170</v>
+      </c>
+      <c r="F2071">
+        <v>0</v>
+      </c>
+      <c r="G2071">
+        <v>2.440617</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2072">
+        <v>20</v>
+      </c>
+      <c r="D2072">
+        <v>394400</v>
+      </c>
+      <c r="E2072">
+        <v>3944</v>
+      </c>
+      <c r="F2072">
+        <v>0</v>
+      </c>
+      <c r="G2072">
+        <v>0.96285</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2073">
+        <v>20</v>
+      </c>
+      <c r="D2073">
+        <v>114600</v>
+      </c>
+      <c r="E2073">
+        <v>1146</v>
+      </c>
+      <c r="F2073">
+        <v>0</v>
+      </c>
+      <c r="G2073">
+        <v>5.805401</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2074">
+        <v>20</v>
+      </c>
+      <c r="D2074">
+        <v>111600</v>
+      </c>
+      <c r="E2074">
+        <v>1116</v>
+      </c>
+      <c r="F2074">
+        <v>0</v>
+      </c>
+      <c r="G2074">
+        <v>2.213572</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2075">
+        <v>20</v>
+      </c>
+      <c r="D2075">
+        <v>111600</v>
+      </c>
+      <c r="E2075">
+        <v>1116</v>
+      </c>
+      <c r="F2075">
+        <v>0</v>
+      </c>
+      <c r="G2075">
+        <v>2.0676650000000003</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2076">
+        <v>20</v>
+      </c>
+      <c r="D2076">
+        <v>389800</v>
+      </c>
+      <c r="E2076">
+        <v>3898</v>
+      </c>
+      <c r="F2076">
+        <v>0</v>
+      </c>
+      <c r="G2076">
+        <v>0.8162109999999999</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2077">
+        <v>20</v>
+      </c>
+      <c r="D2077">
+        <v>109600</v>
+      </c>
+      <c r="E2077">
+        <v>1096</v>
+      </c>
+      <c r="F2077">
+        <v>0</v>
+      </c>
+      <c r="G2077">
+        <v>3.114557</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2078">
+        <v>20</v>
+      </c>
+      <c r="D2078">
+        <v>122300</v>
+      </c>
+      <c r="E2078">
+        <v>1223</v>
+      </c>
+      <c r="F2078">
+        <v>0</v>
+      </c>
+      <c r="G2078">
+        <v>2.290092</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2079">
+        <v>20</v>
+      </c>
+      <c r="D2079">
+        <v>122300</v>
+      </c>
+      <c r="E2079">
+        <v>1223</v>
+      </c>
+      <c r="F2079">
+        <v>0</v>
+      </c>
+      <c r="G2079">
+        <v>2.117045</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2080">
+        <v>20</v>
+      </c>
+      <c r="D2080">
+        <v>389500</v>
+      </c>
+      <c r="E2080">
+        <v>3895</v>
+      </c>
+      <c r="F2080">
+        <v>0</v>
+      </c>
+      <c r="G2080">
+        <v>0.804755</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2081">
+        <v>20</v>
+      </c>
+      <c r="D2081">
+        <v>120000</v>
+      </c>
+      <c r="E2081">
+        <v>1200</v>
+      </c>
+      <c r="F2081">
+        <v>0</v>
+      </c>
+      <c r="G2081">
+        <v>2.243785</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2082">
+        <v>20</v>
+      </c>
+      <c r="D2082">
+        <v>117500</v>
+      </c>
+      <c r="E2082">
+        <v>1175</v>
+      </c>
+      <c r="F2082">
+        <v>0</v>
+      </c>
+      <c r="G2082">
+        <v>2.221086</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2083">
+        <v>20</v>
+      </c>
+      <c r="D2083">
+        <v>117500</v>
+      </c>
+      <c r="E2083">
+        <v>1175</v>
+      </c>
+      <c r="F2083">
+        <v>0</v>
+      </c>
+      <c r="G2083">
+        <v>3.238808</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2084">
+        <v>20</v>
+      </c>
+      <c r="D2084">
+        <v>390700</v>
+      </c>
+      <c r="E2084">
+        <v>3907</v>
+      </c>
+      <c r="F2084">
+        <v>0</v>
+      </c>
+      <c r="G2084">
+        <v>0.986278</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2085">
+        <v>20</v>
+      </c>
+      <c r="D2085">
+        <v>114900</v>
+      </c>
+      <c r="E2085">
+        <v>1149</v>
+      </c>
+      <c r="F2085">
+        <v>0</v>
+      </c>
+      <c r="G2085">
+        <v>2.184133</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2086">
+        <v>20</v>
+      </c>
+      <c r="D2086">
+        <v>111800</v>
+      </c>
+      <c r="E2086">
+        <v>1118</v>
+      </c>
+      <c r="F2086">
+        <v>0</v>
+      </c>
+      <c r="G2086">
+        <v>3.153778</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2087">
+        <v>20</v>
+      </c>
+      <c r="D2087">
+        <v>111800</v>
+      </c>
+      <c r="E2087">
+        <v>1118</v>
+      </c>
+      <c r="F2087">
+        <v>0</v>
+      </c>
+      <c r="G2087">
+        <v>1.896681</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2088">
+        <v>20</v>
+      </c>
+      <c r="D2088">
+        <v>394200</v>
+      </c>
+      <c r="E2088">
+        <v>3942</v>
+      </c>
+      <c r="F2088">
+        <v>0</v>
+      </c>
+      <c r="G2088">
+        <v>0.971149</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2089">
+        <v>20</v>
+      </c>
+      <c r="D2089">
+        <v>109200</v>
+      </c>
+      <c r="E2089">
+        <v>1092</v>
+      </c>
+      <c r="F2089">
+        <v>0</v>
+      </c>
+      <c r="G2089">
+        <v>2.096969</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2090">
+        <v>20</v>
+      </c>
+      <c r="D2090">
+        <v>122200</v>
+      </c>
+      <c r="E2090">
+        <v>1222</v>
+      </c>
+      <c r="F2090">
+        <v>0</v>
+      </c>
+      <c r="G2090">
+        <v>3.19391</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2091">
+        <v>20</v>
+      </c>
+      <c r="D2091">
+        <v>122200</v>
+      </c>
+      <c r="E2091">
+        <v>1222</v>
+      </c>
+      <c r="F2091">
+        <v>0</v>
+      </c>
+      <c r="G2091">
+        <v>2.7185040000000003</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2092">
+        <v>20</v>
+      </c>
+      <c r="D2092">
+        <v>389900</v>
+      </c>
+      <c r="E2092">
+        <v>3899</v>
+      </c>
+      <c r="F2092">
+        <v>0</v>
+      </c>
+      <c r="G2092">
+        <v>0.883929</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2093">
+        <v>20</v>
+      </c>
+      <c r="D2093">
+        <v>120000</v>
+      </c>
+      <c r="E2093">
+        <v>1200</v>
+      </c>
+      <c r="F2093">
+        <v>0</v>
+      </c>
+      <c r="G2093">
+        <v>2.842461</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2094">
+        <v>20</v>
+      </c>
+      <c r="D2094">
+        <v>100300</v>
+      </c>
+      <c r="E2094">
+        <v>1003</v>
+      </c>
+      <c r="F2094">
+        <v>0</v>
+      </c>
+      <c r="G2094">
+        <v>3.564734</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2095">
+        <v>20</v>
+      </c>
+      <c r="D2095">
+        <v>100300</v>
+      </c>
+      <c r="E2095">
+        <v>1003</v>
+      </c>
+      <c r="F2095">
+        <v>0</v>
+      </c>
+      <c r="G2095">
+        <v>1.9304050000000001</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2096">
+        <v>20</v>
+      </c>
+      <c r="D2096">
+        <v>386500</v>
+      </c>
+      <c r="E2096">
+        <v>3865</v>
+      </c>
+      <c r="F2096">
+        <v>0</v>
+      </c>
+      <c r="G2096">
+        <v>0.9620460000000001</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2097">
+        <v>20</v>
+      </c>
+      <c r="D2097">
+        <v>98400</v>
+      </c>
+      <c r="E2097">
+        <v>984</v>
+      </c>
+      <c r="F2097">
+        <v>0</v>
+      </c>
+      <c r="G2097">
+        <v>2.06409</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2098">
+        <v>20</v>
+      </c>
+      <c r="D2098">
+        <v>111300</v>
+      </c>
+      <c r="E2098">
+        <v>1113</v>
+      </c>
+      <c r="F2098">
+        <v>0</v>
+      </c>
+      <c r="G2098">
+        <v>2.233933</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2099">
+        <v>20</v>
+      </c>
+      <c r="D2099">
+        <v>111300</v>
+      </c>
+      <c r="E2099">
+        <v>1113</v>
+      </c>
+      <c r="F2099">
+        <v>0</v>
+      </c>
+      <c r="G2099">
+        <v>2.080582</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2100">
+        <v>20</v>
+      </c>
+      <c r="D2100">
+        <v>394700</v>
+      </c>
+      <c r="E2100">
+        <v>3947</v>
+      </c>
+      <c r="F2100">
+        <v>0</v>
+      </c>
+      <c r="G2100">
+        <v>0.830808</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2101">
+        <v>20</v>
+      </c>
+      <c r="D2101">
+        <v>109300</v>
+      </c>
+      <c r="E2101">
+        <v>1093</v>
+      </c>
+      <c r="F2101">
+        <v>0</v>
+      </c>
+      <c r="G2101">
+        <v>2.018793</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2102">
+        <v>20</v>
+      </c>
+      <c r="D2102">
+        <v>122200</v>
+      </c>
+      <c r="E2102">
+        <v>1222</v>
+      </c>
+      <c r="F2102">
+        <v>0</v>
+      </c>
+      <c r="G2102">
+        <v>2.129758</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2103">
+        <v>20</v>
+      </c>
+      <c r="D2103">
+        <v>122200</v>
+      </c>
+      <c r="E2103">
+        <v>1222</v>
+      </c>
+      <c r="F2103">
+        <v>0</v>
+      </c>
+      <c r="G2103">
+        <v>2.83527</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2104">
+        <v>20</v>
+      </c>
+      <c r="D2104">
+        <v>393500</v>
+      </c>
+      <c r="E2104">
+        <v>3935</v>
+      </c>
+      <c r="F2104">
+        <v>0</v>
+      </c>
+      <c r="G2104">
+        <v>1.143851</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2105">
+        <v>20</v>
+      </c>
+      <c r="D2105">
+        <v>120000</v>
+      </c>
+      <c r="E2105">
+        <v>1200</v>
+      </c>
+      <c r="F2105">
+        <v>0</v>
+      </c>
+      <c r="G2105">
+        <v>3.350718</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2106">
+        <v>20</v>
+      </c>
+      <c r="D2106">
+        <v>122500</v>
+      </c>
+      <c r="E2106">
+        <v>1225</v>
+      </c>
+      <c r="F2106">
+        <v>0</v>
+      </c>
+      <c r="G2106">
+        <v>2.152106</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2107">
+        <v>20</v>
+      </c>
+      <c r="D2107">
+        <v>122500</v>
+      </c>
+      <c r="E2107">
+        <v>1225</v>
+      </c>
+      <c r="F2107">
+        <v>0</v>
+      </c>
+      <c r="G2107">
+        <v>2.997568</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2108">
+        <v>20</v>
+      </c>
+      <c r="D2108">
+        <v>391600</v>
+      </c>
+      <c r="E2108">
+        <v>3916</v>
+      </c>
+      <c r="F2108">
+        <v>0</v>
+      </c>
+      <c r="G2108">
+        <v>0.923474</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2109">
+        <v>20</v>
+      </c>
+      <c r="D2109">
+        <v>120000</v>
+      </c>
+      <c r="E2109">
+        <v>1200</v>
+      </c>
+      <c r="F2109">
+        <v>0</v>
+      </c>
+      <c r="G2109">
+        <v>2.737031</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2110">
+        <v>20</v>
+      </c>
+      <c r="D2110">
+        <v>106100</v>
+      </c>
+      <c r="E2110">
+        <v>1061</v>
+      </c>
+      <c r="F2110">
+        <v>0</v>
+      </c>
+      <c r="G2110">
+        <v>2.454933</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2111">
+        <v>20</v>
+      </c>
+      <c r="D2111">
+        <v>106100</v>
+      </c>
+      <c r="E2111">
+        <v>1061</v>
+      </c>
+      <c r="F2111">
+        <v>0</v>
+      </c>
+      <c r="G2111">
+        <v>2.083609</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2112">
+        <v>20</v>
+      </c>
+      <c r="D2112">
+        <v>385800</v>
+      </c>
+      <c r="E2112">
+        <v>3858</v>
+      </c>
+      <c r="F2112">
+        <v>0</v>
+      </c>
+      <c r="G2112">
+        <v>1.005717</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2113">
+        <v>20</v>
+      </c>
+      <c r="D2113">
+        <v>103800</v>
+      </c>
+      <c r="E2113">
+        <v>1038</v>
+      </c>
+      <c r="F2113">
+        <v>0</v>
+      </c>
+      <c r="G2113">
+        <v>2.210182</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2114">
+        <v>20</v>
+      </c>
+      <c r="D2114">
+        <v>122800</v>
+      </c>
+      <c r="E2114">
+        <v>1228</v>
+      </c>
+      <c r="F2114">
+        <v>0</v>
+      </c>
+      <c r="G2114">
+        <v>2.305097</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2115">
+        <v>20</v>
+      </c>
+      <c r="D2115">
+        <v>122800</v>
+      </c>
+      <c r="E2115">
+        <v>1228</v>
+      </c>
+      <c r="F2115">
+        <v>0</v>
+      </c>
+      <c r="G2115">
+        <v>2.049559</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2116">
+        <v>20</v>
+      </c>
+      <c r="D2116">
+        <v>392600</v>
+      </c>
+      <c r="E2116">
+        <v>3926</v>
+      </c>
+      <c r="F2116">
+        <v>0</v>
+      </c>
+      <c r="G2116">
+        <v>0.933858</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2117">
+        <v>20</v>
+      </c>
+      <c r="D2117">
+        <v>120000</v>
+      </c>
+      <c r="E2117">
+        <v>1200</v>
+      </c>
+      <c r="F2117">
+        <v>0</v>
+      </c>
+      <c r="G2117">
+        <v>2.2289499999999998</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2118">
+        <v>20</v>
+      </c>
+      <c r="D2118">
+        <v>117200</v>
+      </c>
+      <c r="E2118">
+        <v>1172</v>
+      </c>
+      <c r="F2118">
+        <v>0</v>
+      </c>
+      <c r="G2118">
+        <v>2.527526</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2119">
+        <v>20</v>
+      </c>
+      <c r="D2119">
+        <v>117200</v>
+      </c>
+      <c r="E2119">
+        <v>1172</v>
+      </c>
+      <c r="F2119">
+        <v>0</v>
+      </c>
+      <c r="G2119">
+        <v>2.12031</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2120">
+        <v>20</v>
+      </c>
+      <c r="D2120">
+        <v>394500</v>
+      </c>
+      <c r="E2120">
+        <v>3945</v>
+      </c>
+      <c r="F2120">
+        <v>0</v>
+      </c>
+      <c r="G2120">
+        <v>0.942192</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2121">
+        <v>20</v>
+      </c>
+      <c r="D2121">
+        <v>114600</v>
+      </c>
+      <c r="E2121">
+        <v>1146</v>
+      </c>
+      <c r="F2121">
+        <v>0</v>
+      </c>
+      <c r="G2121">
+        <v>2.1587720000000004</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2122">
+        <v>20</v>
+      </c>
+      <c r="D2122">
+        <v>111600</v>
+      </c>
+      <c r="E2122">
+        <v>1116</v>
+      </c>
+      <c r="F2122">
+        <v>0</v>
+      </c>
+      <c r="G2122">
+        <v>2.2273050000000003</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2123">
+        <v>20</v>
+      </c>
+      <c r="D2123">
+        <v>111600</v>
+      </c>
+      <c r="E2123">
+        <v>1116</v>
+      </c>
+      <c r="F2123">
+        <v>0</v>
+      </c>
+      <c r="G2123">
+        <v>2.1873449999999997</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2124">
+        <v>20</v>
+      </c>
+      <c r="D2124">
+        <v>389800</v>
+      </c>
+      <c r="E2124">
+        <v>3898</v>
+      </c>
+      <c r="F2124">
+        <v>0</v>
+      </c>
+      <c r="G2124">
+        <v>0.870144</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2125">
+        <v>20</v>
+      </c>
+      <c r="D2125">
+        <v>109600</v>
+      </c>
+      <c r="E2125">
+        <v>1096</v>
+      </c>
+      <c r="F2125">
+        <v>0</v>
+      </c>
+      <c r="G2125">
+        <v>2.298969</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2126">
+        <v>20</v>
+      </c>
+      <c r="D2126">
+        <v>106200</v>
+      </c>
+      <c r="E2126">
+        <v>1062</v>
+      </c>
+      <c r="F2126">
+        <v>0</v>
+      </c>
+      <c r="G2126">
+        <v>2.219885</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2127">
+        <v>20</v>
+      </c>
+      <c r="D2127">
+        <v>106200</v>
+      </c>
+      <c r="E2127">
+        <v>1062</v>
+      </c>
+      <c r="F2127">
+        <v>0</v>
+      </c>
+      <c r="G2127">
+        <v>2.090897</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2128">
+        <v>20</v>
+      </c>
+      <c r="D2128">
+        <v>392800</v>
+      </c>
+      <c r="E2128">
+        <v>3928</v>
+      </c>
+      <c r="F2128">
+        <v>0</v>
+      </c>
+      <c r="G2128">
+        <v>0.901378</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2129">
+        <v>20</v>
+      </c>
+      <c r="D2129">
+        <v>103900</v>
+      </c>
+      <c r="E2129">
+        <v>1039</v>
+      </c>
+      <c r="F2129">
+        <v>0</v>
+      </c>
+      <c r="G2129">
+        <v>2.809477</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2130">
+        <v>20</v>
+      </c>
+      <c r="D2130">
+        <v>111800</v>
+      </c>
+      <c r="E2130">
+        <v>1118</v>
+      </c>
+      <c r="F2130">
+        <v>0</v>
+      </c>
+      <c r="G2130">
+        <v>3.3737519999999996</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2131">
+        <v>20</v>
+      </c>
+      <c r="D2131">
+        <v>111800</v>
+      </c>
+      <c r="E2131">
+        <v>1118</v>
+      </c>
+      <c r="F2131">
+        <v>0</v>
+      </c>
+      <c r="G2131">
+        <v>1.97503</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2132">
+        <v>20</v>
+      </c>
+      <c r="D2132">
+        <v>389900</v>
+      </c>
+      <c r="E2132">
+        <v>3899</v>
+      </c>
+      <c r="F2132">
+        <v>0</v>
+      </c>
+      <c r="G2132">
+        <v>1.1129550000000001</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2133">
+        <v>20</v>
+      </c>
+      <c r="D2133">
+        <v>109600</v>
+      </c>
+      <c r="E2133">
+        <v>1096</v>
+      </c>
+      <c r="F2133">
+        <v>0</v>
+      </c>
+      <c r="G2133">
+        <v>2.1494079999999998</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2134">
+        <v>20</v>
+      </c>
+      <c r="D2134">
+        <v>111500</v>
+      </c>
+      <c r="E2134">
+        <v>1115</v>
+      </c>
+      <c r="F2134">
+        <v>0</v>
+      </c>
+      <c r="G2134">
+        <v>2.270733</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2135">
+        <v>20</v>
+      </c>
+      <c r="D2135">
+        <v>111500</v>
+      </c>
+      <c r="E2135">
+        <v>1115</v>
+      </c>
+      <c r="F2135">
+        <v>0</v>
+      </c>
+      <c r="G2135">
+        <v>2.562286</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2136">
+        <v>20</v>
+      </c>
+      <c r="D2136">
+        <v>390300</v>
+      </c>
+      <c r="E2136">
+        <v>3903</v>
+      </c>
+      <c r="F2136">
+        <v>0</v>
+      </c>
+      <c r="G2136">
+        <v>2.300293</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2137">
+        <v>20</v>
+      </c>
+      <c r="D2137">
+        <v>109300</v>
+      </c>
+      <c r="E2137">
+        <v>1093</v>
+      </c>
+      <c r="F2137">
+        <v>0</v>
+      </c>
+      <c r="G2137">
+        <v>3.253372</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2138">
+        <v>20</v>
+      </c>
+      <c r="D2138">
+        <v>111900</v>
+      </c>
+      <c r="E2138">
+        <v>1119</v>
+      </c>
+      <c r="F2138">
+        <v>0</v>
+      </c>
+      <c r="G2138">
+        <v>2.5112759999999996</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2139">
+        <v>20</v>
+      </c>
+      <c r="D2139">
+        <v>111900</v>
+      </c>
+      <c r="E2139">
+        <v>1119</v>
+      </c>
+      <c r="F2139">
+        <v>0</v>
+      </c>
+      <c r="G2139">
+        <v>2.015413</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2140">
+        <v>20</v>
+      </c>
+      <c r="D2140">
+        <v>392300</v>
+      </c>
+      <c r="E2140">
+        <v>3923</v>
+      </c>
+      <c r="F2140">
+        <v>0</v>
+      </c>
+      <c r="G2140">
+        <v>0.836632</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2141">
+        <v>20</v>
+      </c>
+      <c r="D2141">
+        <v>109300</v>
+      </c>
+      <c r="E2141">
+        <v>1093</v>
+      </c>
+      <c r="F2141">
+        <v>0</v>
+      </c>
+      <c r="G2141">
+        <v>2.2548239999999997</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2142">
+        <v>20</v>
+      </c>
+      <c r="D2142">
+        <v>117200</v>
+      </c>
+      <c r="E2142">
+        <v>1172</v>
+      </c>
+      <c r="F2142">
+        <v>0</v>
+      </c>
+      <c r="G2142">
+        <v>2.4028259999999997</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2143">
+        <v>20</v>
+      </c>
+      <c r="D2143">
+        <v>117200</v>
+      </c>
+      <c r="E2143">
+        <v>1172</v>
+      </c>
+      <c r="F2143">
+        <v>0</v>
+      </c>
+      <c r="G2143">
+        <v>2.105858</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2144">
+        <v>20</v>
+      </c>
+      <c r="D2144">
+        <v>394300</v>
+      </c>
+      <c r="E2144">
+        <v>3943</v>
+      </c>
+      <c r="F2144">
+        <v>0</v>
+      </c>
+      <c r="G2144">
+        <v>0.8886299999999999</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2145">
+        <v>20</v>
+      </c>
+      <c r="D2145">
+        <v>114700</v>
+      </c>
+      <c r="E2145">
+        <v>1147</v>
+      </c>
+      <c r="F2145">
+        <v>0</v>
+      </c>
+      <c r="G2145">
+        <v>2.267293</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2146">
+        <v>20</v>
+      </c>
+      <c r="D2146">
+        <v>111900</v>
+      </c>
+      <c r="E2146">
+        <v>1119</v>
+      </c>
+      <c r="F2146">
+        <v>0</v>
+      </c>
+      <c r="G2146">
+        <v>3.3527639999999996</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2147">
+        <v>20</v>
+      </c>
+      <c r="D2147">
+        <v>111900</v>
+      </c>
+      <c r="E2147">
+        <v>1119</v>
+      </c>
+      <c r="F2147">
+        <v>0</v>
+      </c>
+      <c r="G2147">
+        <v>1.853558</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2148">
+        <v>20</v>
+      </c>
+      <c r="D2148">
+        <v>392700</v>
+      </c>
+      <c r="E2148">
+        <v>3927</v>
+      </c>
+      <c r="F2148">
+        <v>0</v>
+      </c>
+      <c r="G2148">
+        <v>0.8127030000000001</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2149">
+        <v>20</v>
+      </c>
+      <c r="D2149">
+        <v>109400</v>
+      </c>
+      <c r="E2149">
+        <v>1094</v>
+      </c>
+      <c r="F2149">
+        <v>0</v>
+      </c>
+      <c r="G2149">
+        <v>1.967347</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2150">
+        <v>20</v>
+      </c>
+      <c r="D2150">
+        <v>117700</v>
+      </c>
+      <c r="E2150">
+        <v>1177</v>
+      </c>
+      <c r="F2150">
+        <v>0</v>
+      </c>
+      <c r="G2150">
+        <v>2.9236269999999998</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2151">
+        <v>20</v>
+      </c>
+      <c r="D2151">
+        <v>117700</v>
+      </c>
+      <c r="E2151">
+        <v>1177</v>
+      </c>
+      <c r="F2151">
+        <v>0</v>
+      </c>
+      <c r="G2151">
+        <v>2.44443</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2152">
+        <v>20</v>
+      </c>
+      <c r="D2152">
+        <v>387900</v>
+      </c>
+      <c r="E2152">
+        <v>3879</v>
+      </c>
+      <c r="F2152">
+        <v>0</v>
+      </c>
+      <c r="G2152">
+        <v>1.030867</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2153">
+        <v>20</v>
+      </c>
+      <c r="D2153">
+        <v>114800</v>
+      </c>
+      <c r="E2153">
+        <v>1148</v>
+      </c>
+      <c r="F2153">
+        <v>0</v>
+      </c>
+      <c r="G2153">
+        <v>2.8973459999999998</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2154">
+        <v>20</v>
+      </c>
+      <c r="D2154">
+        <v>116600</v>
+      </c>
+      <c r="E2154">
+        <v>1166</v>
+      </c>
+      <c r="F2154">
+        <v>0</v>
+      </c>
+      <c r="G2154">
+        <v>2.2449060000000003</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2155">
+        <v>20</v>
+      </c>
+      <c r="D2155">
+        <v>116600</v>
+      </c>
+      <c r="E2155">
+        <v>1166</v>
+      </c>
+      <c r="F2155">
+        <v>0</v>
+      </c>
+      <c r="G2155">
+        <v>2.1203279999999998</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2156">
+        <v>20</v>
+      </c>
+      <c r="D2156">
+        <v>387000</v>
+      </c>
+      <c r="E2156">
+        <v>3870</v>
+      </c>
+      <c r="F2156">
+        <v>0</v>
+      </c>
+      <c r="G2156">
+        <v>0.779793</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2157">
+        <v>20</v>
+      </c>
+      <c r="D2157">
+        <v>114600</v>
+      </c>
+      <c r="E2157">
+        <v>1146</v>
+      </c>
+      <c r="F2157">
+        <v>0</v>
+      </c>
+      <c r="G2157">
+        <v>1.93416</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2158">
+        <v>20</v>
+      </c>
+      <c r="D2158">
+        <v>122800</v>
+      </c>
+      <c r="E2158">
+        <v>1228</v>
+      </c>
+      <c r="F2158">
+        <v>0</v>
+      </c>
+      <c r="G2158">
+        <v>3.003793</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2159">
+        <v>20</v>
+      </c>
+      <c r="D2159">
+        <v>122800</v>
+      </c>
+      <c r="E2159">
+        <v>1228</v>
+      </c>
+      <c r="F2159">
+        <v>0</v>
+      </c>
+      <c r="G2159">
+        <v>3.625653</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2160">
+        <v>20</v>
+      </c>
+      <c r="D2160">
+        <v>392700</v>
+      </c>
+      <c r="E2160">
+        <v>3927</v>
+      </c>
+      <c r="F2160">
+        <v>0</v>
+      </c>
+      <c r="G2160">
+        <v>1.197731</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2161">
+        <v>20</v>
+      </c>
+      <c r="D2161">
+        <v>120000</v>
+      </c>
+      <c r="E2161">
+        <v>1200</v>
+      </c>
+      <c r="F2161">
+        <v>0</v>
+      </c>
+      <c r="G2161">
+        <v>3.1298950000000003</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2162">
+        <v>20</v>
+      </c>
+      <c r="D2162">
+        <v>106300</v>
+      </c>
+      <c r="E2162">
+        <v>1063</v>
+      </c>
+      <c r="F2162">
+        <v>0</v>
+      </c>
+      <c r="G2162">
+        <v>3.134232</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2163">
+        <v>20</v>
+      </c>
+      <c r="D2163">
+        <v>106300</v>
+      </c>
+      <c r="E2163">
+        <v>1063</v>
+      </c>
+      <c r="F2163">
+        <v>0</v>
+      </c>
+      <c r="G2163">
+        <v>2.2045950000000003</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2164">
+        <v>20</v>
+      </c>
+      <c r="D2164">
+        <v>391200</v>
+      </c>
+      <c r="E2164">
+        <v>3912</v>
+      </c>
+      <c r="F2164">
+        <v>0</v>
+      </c>
+      <c r="G2164">
+        <v>1.138795</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2165">
+        <v>20</v>
+      </c>
+      <c r="D2165">
+        <v>103800</v>
+      </c>
+      <c r="E2165">
+        <v>1038</v>
+      </c>
+      <c r="F2165">
+        <v>0</v>
+      </c>
+      <c r="G2165">
+        <v>2.221361</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2166">
+        <v>20</v>
+      </c>
+      <c r="D2166">
+        <v>106400</v>
+      </c>
+      <c r="E2166">
+        <v>1064</v>
+      </c>
+      <c r="F2166">
+        <v>0</v>
+      </c>
+      <c r="G2166">
+        <v>2.244448</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2167">
+        <v>20</v>
+      </c>
+      <c r="D2167">
+        <v>106400</v>
+      </c>
+      <c r="E2167">
+        <v>1064</v>
+      </c>
+      <c r="F2167">
+        <v>0</v>
+      </c>
+      <c r="G2167">
+        <v>2.193404</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2168">
+        <v>20</v>
+      </c>
+      <c r="D2168">
+        <v>394000</v>
+      </c>
+      <c r="E2168">
+        <v>3940</v>
+      </c>
+      <c r="F2168">
+        <v>0</v>
+      </c>
+      <c r="G2168">
+        <v>1.7102860000000002</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2169">
+        <v>20</v>
+      </c>
+      <c r="D2169">
+        <v>104000</v>
+      </c>
+      <c r="E2169">
+        <v>1040</v>
+      </c>
+      <c r="F2169">
+        <v>0</v>
+      </c>
+      <c r="G2169">
+        <v>2.298709</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2170">
+        <v>20</v>
+      </c>
+      <c r="D2170">
+        <v>123000</v>
+      </c>
+      <c r="E2170">
+        <v>1230</v>
+      </c>
+      <c r="F2170">
+        <v>0</v>
+      </c>
+      <c r="G2170">
+        <v>2.3963080000000003</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2171">
+        <v>20</v>
+      </c>
+      <c r="D2171">
+        <v>123000</v>
+      </c>
+      <c r="E2171">
+        <v>1230</v>
+      </c>
+      <c r="F2171">
+        <v>0</v>
+      </c>
+      <c r="G2171">
+        <v>2.1051249999999997</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2172">
+        <v>20</v>
+      </c>
+      <c r="D2172">
+        <v>391000</v>
+      </c>
+      <c r="E2172">
+        <v>3910</v>
+      </c>
+      <c r="F2172">
+        <v>0</v>
+      </c>
+      <c r="G2172">
+        <v>1.0972460000000002</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2173">
+        <v>20</v>
+      </c>
+      <c r="D2173">
+        <v>120000</v>
+      </c>
+      <c r="E2173">
+        <v>1200</v>
+      </c>
+      <c r="F2173">
+        <v>0</v>
+      </c>
+      <c r="G2173">
+        <v>2.094045</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2174">
+        <v>20</v>
+      </c>
+      <c r="D2174">
+        <v>122900</v>
+      </c>
+      <c r="E2174">
+        <v>1229</v>
+      </c>
+      <c r="F2174">
+        <v>0</v>
+      </c>
+      <c r="G2174">
+        <v>2.4793290000000003</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2175">
+        <v>20</v>
+      </c>
+      <c r="D2175">
+        <v>122900</v>
+      </c>
+      <c r="E2175">
+        <v>1229</v>
+      </c>
+      <c r="F2175">
+        <v>0</v>
+      </c>
+      <c r="G2175">
+        <v>2.092923</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2176">
+        <v>20</v>
+      </c>
+      <c r="D2176">
+        <v>394000</v>
+      </c>
+      <c r="E2176">
+        <v>3940</v>
+      </c>
+      <c r="F2176">
+        <v>0</v>
+      </c>
+      <c r="G2176">
+        <v>1.078512</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2177">
+        <v>20</v>
+      </c>
+      <c r="D2177">
+        <v>120000</v>
+      </c>
+      <c r="E2177">
+        <v>1200</v>
+      </c>
+      <c r="F2177">
+        <v>0</v>
+      </c>
+      <c r="G2177">
+        <v>2.1914379999999998</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2178">
+        <v>20</v>
+      </c>
+      <c r="D2178">
+        <v>117300</v>
+      </c>
+      <c r="E2178">
+        <v>1173</v>
+      </c>
+      <c r="F2178">
+        <v>0</v>
+      </c>
+      <c r="G2178">
+        <v>2.5015150000000004</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2179">
+        <v>20</v>
+      </c>
+      <c r="D2179">
+        <v>117300</v>
+      </c>
+      <c r="E2179">
+        <v>1173</v>
+      </c>
+      <c r="F2179">
+        <v>0</v>
+      </c>
+      <c r="G2179">
+        <v>2.188872</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2180">
+        <v>20</v>
+      </c>
+      <c r="D2180">
+        <v>392800</v>
+      </c>
+      <c r="E2180">
+        <v>3928</v>
+      </c>
+      <c r="F2180">
+        <v>0</v>
+      </c>
+      <c r="G2180">
+        <v>0.999932</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2181">
+        <v>20</v>
+      </c>
+      <c r="D2181">
+        <v>114600</v>
+      </c>
+      <c r="E2181">
+        <v>1146</v>
+      </c>
+      <c r="F2181">
+        <v>0</v>
+      </c>
+      <c r="G2181">
+        <v>2.108118</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2182">
+        <v>20</v>
+      </c>
+      <c r="D2182">
+        <v>111600</v>
+      </c>
+      <c r="E2182">
+        <v>1116</v>
+      </c>
+      <c r="F2182">
+        <v>0</v>
+      </c>
+      <c r="G2182">
+        <v>2.220369</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2183">
+        <v>20</v>
+      </c>
+      <c r="D2183">
+        <v>111600</v>
+      </c>
+      <c r="E2183">
+        <v>1116</v>
+      </c>
+      <c r="F2183">
+        <v>0</v>
+      </c>
+      <c r="G2183">
+        <v>2.3680559999999997</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2184">
+        <v>20</v>
+      </c>
+      <c r="D2184">
+        <v>398800</v>
+      </c>
+      <c r="E2184">
+        <v>3988</v>
+      </c>
+      <c r="F2184">
+        <v>0</v>
+      </c>
+      <c r="G2184">
+        <v>0.8091459999999999</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2185">
+        <v>20</v>
+      </c>
+      <c r="D2185">
+        <v>109500</v>
+      </c>
+      <c r="E2185">
+        <v>1095</v>
+      </c>
+      <c r="F2185">
+        <v>0</v>
+      </c>
+      <c r="G2185">
+        <v>2.394443</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2186">
+        <v>20</v>
+      </c>
+      <c r="D2186">
+        <v>122400</v>
+      </c>
+      <c r="E2186">
+        <v>1224</v>
+      </c>
+      <c r="F2186">
+        <v>0</v>
+      </c>
+      <c r="G2186">
+        <v>3.488881</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2187">
+        <v>20</v>
+      </c>
+      <c r="D2187">
+        <v>122400</v>
+      </c>
+      <c r="E2187">
+        <v>1224</v>
+      </c>
+      <c r="F2187">
+        <v>0</v>
+      </c>
+      <c r="G2187">
+        <v>2.659253</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2188">
+        <v>20</v>
+      </c>
+      <c r="D2188">
+        <v>392500</v>
+      </c>
+      <c r="E2188">
+        <v>3925</v>
+      </c>
+      <c r="F2188">
+        <v>0</v>
+      </c>
+      <c r="G2188">
+        <v>1.050765</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2189">
+        <v>20</v>
+      </c>
+      <c r="D2189">
+        <v>120000</v>
+      </c>
+      <c r="E2189">
+        <v>1200</v>
+      </c>
+      <c r="F2189">
+        <v>0</v>
+      </c>
+      <c r="G2189">
+        <v>2.55622</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2190">
+        <v>20</v>
+      </c>
+      <c r="D2190">
+        <v>117200</v>
+      </c>
+      <c r="E2190">
+        <v>1172</v>
+      </c>
+      <c r="F2190">
+        <v>0</v>
+      </c>
+      <c r="G2190">
+        <v>3.82736</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2191">
+        <v>20</v>
+      </c>
+      <c r="D2191">
+        <v>117200</v>
+      </c>
+      <c r="E2191">
+        <v>1172</v>
+      </c>
+      <c r="F2191">
+        <v>0</v>
+      </c>
+      <c r="G2191">
+        <v>5.4096020000000005</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2192">
+        <v>20</v>
+      </c>
+      <c r="D2192">
+        <v>390300</v>
+      </c>
+      <c r="E2192">
+        <v>3903</v>
+      </c>
+      <c r="F2192">
+        <v>0</v>
+      </c>
+      <c r="G2192">
+        <v>1.4321080000000002</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2193">
+        <v>20</v>
+      </c>
+      <c r="D2193">
+        <v>114700</v>
+      </c>
+      <c r="E2193">
+        <v>1147</v>
+      </c>
+      <c r="F2193">
+        <v>0</v>
+      </c>
+      <c r="G2193">
+        <v>4.443478</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2194">
+        <v>20</v>
+      </c>
+      <c r="D2194">
+        <v>122500</v>
+      </c>
+      <c r="E2194">
+        <v>1225</v>
+      </c>
+      <c r="F2194">
+        <v>0</v>
+      </c>
+      <c r="G2194">
+        <v>2.265101</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2195">
+        <v>20</v>
+      </c>
+      <c r="D2195">
+        <v>122500</v>
+      </c>
+      <c r="E2195">
+        <v>1225</v>
+      </c>
+      <c r="F2195">
+        <v>0</v>
+      </c>
+      <c r="G2195">
+        <v>2.19699</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2196">
+        <v>20</v>
+      </c>
+      <c r="D2196">
+        <v>393600</v>
+      </c>
+      <c r="E2196">
+        <v>3936</v>
+      </c>
+      <c r="F2196">
+        <v>0</v>
+      </c>
+      <c r="G2196">
+        <v>0.9975660000000001</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2197">
+        <v>20</v>
+      </c>
+      <c r="D2197">
+        <v>120000</v>
+      </c>
+      <c r="E2197">
+        <v>1200</v>
+      </c>
+      <c r="F2197">
+        <v>0</v>
+      </c>
+      <c r="G2197">
+        <v>2.410751</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2198">
+        <v>20</v>
+      </c>
+      <c r="D2198">
+        <v>122800</v>
+      </c>
+      <c r="E2198">
+        <v>1228</v>
+      </c>
+      <c r="F2198">
+        <v>0</v>
+      </c>
+      <c r="G2198">
+        <v>3.3733449999999996</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2199">
+        <v>20</v>
+      </c>
+      <c r="D2199">
+        <v>122800</v>
+      </c>
+      <c r="E2199">
+        <v>1228</v>
+      </c>
+      <c r="F2199">
+        <v>0</v>
+      </c>
+      <c r="G2199">
+        <v>2.696605</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2200">
+        <v>20</v>
+      </c>
+      <c r="D2200">
+        <v>389400</v>
+      </c>
+      <c r="E2200">
+        <v>3894</v>
+      </c>
+      <c r="F2200">
+        <v>0</v>
+      </c>
+      <c r="G2200">
+        <v>1.004299</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2201">
+        <v>20</v>
+      </c>
+      <c r="D2201">
+        <v>120000</v>
+      </c>
+      <c r="E2201">
+        <v>1200</v>
+      </c>
+      <c r="F2201">
+        <v>0</v>
+      </c>
+      <c r="G2201">
+        <v>2.3448879999999996</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2202">
+        <v>20</v>
+      </c>
+      <c r="D2202">
+        <v>106100</v>
+      </c>
+      <c r="E2202">
+        <v>1061</v>
+      </c>
+      <c r="F2202">
+        <v>0</v>
+      </c>
+      <c r="G2202">
+        <v>2.449976</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2203">
+        <v>20</v>
+      </c>
+      <c r="D2203">
+        <v>106100</v>
+      </c>
+      <c r="E2203">
+        <v>1061</v>
+      </c>
+      <c r="F2203">
+        <v>0</v>
+      </c>
+      <c r="G2203">
+        <v>2.342159</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2204">
+        <v>20</v>
+      </c>
+      <c r="D2204">
+        <v>389400</v>
+      </c>
+      <c r="E2204">
+        <v>3894</v>
+      </c>
+      <c r="F2204">
+        <v>0</v>
+      </c>
+      <c r="G2204">
+        <v>1.128722</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2205">
+        <v>20</v>
+      </c>
+      <c r="D2205">
+        <v>104100</v>
+      </c>
+      <c r="E2205">
+        <v>1041</v>
+      </c>
+      <c r="F2205">
+        <v>0</v>
+      </c>
+      <c r="G2205">
+        <v>2.232277</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2206">
+        <v>20</v>
+      </c>
+      <c r="D2206">
+        <v>111300</v>
+      </c>
+      <c r="E2206">
+        <v>1113</v>
+      </c>
+      <c r="F2206">
+        <v>0</v>
+      </c>
+      <c r="G2206">
+        <v>2.172688</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2207">
+        <v>20</v>
+      </c>
+      <c r="D2207">
+        <v>111300</v>
+      </c>
+      <c r="E2207">
+        <v>1113</v>
+      </c>
+      <c r="F2207">
+        <v>0</v>
+      </c>
+      <c r="G2207">
+        <v>2.113602</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2208">
+        <v>20</v>
+      </c>
+      <c r="D2208">
+        <v>386900</v>
+      </c>
+      <c r="E2208">
+        <v>3869</v>
+      </c>
+      <c r="F2208">
+        <v>0</v>
+      </c>
+      <c r="G2208">
+        <v>0.8786080000000001</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2209">
+        <v>20</v>
+      </c>
+      <c r="D2209">
+        <v>109200</v>
+      </c>
+      <c r="E2209">
+        <v>1092</v>
+      </c>
+      <c r="F2209">
+        <v>0</v>
+      </c>
+      <c r="G2209">
+        <v>2.936252</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2210">
+        <v>20</v>
+      </c>
+      <c r="D2210">
+        <v>117200</v>
+      </c>
+      <c r="E2210">
+        <v>1172</v>
+      </c>
+      <c r="F2210">
+        <v>0</v>
+      </c>
+      <c r="G2210">
+        <v>2.511189</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2211">
+        <v>20</v>
+      </c>
+      <c r="D2211">
+        <v>117200</v>
+      </c>
+      <c r="E2211">
+        <v>1172</v>
+      </c>
+      <c r="F2211">
+        <v>0</v>
+      </c>
+      <c r="G2211">
+        <v>2.081335</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2212">
+        <v>20</v>
+      </c>
+      <c r="D2212">
+        <v>390800</v>
+      </c>
+      <c r="E2212">
+        <v>3908</v>
+      </c>
+      <c r="F2212">
+        <v>0</v>
+      </c>
+      <c r="G2212">
+        <v>0.812565</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2213">
+        <v>20</v>
+      </c>
+      <c r="D2213">
+        <v>114600</v>
+      </c>
+      <c r="E2213">
+        <v>1146</v>
+      </c>
+      <c r="F2213">
+        <v>0</v>
+      </c>
+      <c r="G2213">
+        <v>2.5636970000000003</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2214">
+        <v>20</v>
+      </c>
+      <c r="D2214">
+        <v>106300</v>
+      </c>
+      <c r="E2214">
+        <v>1063</v>
+      </c>
+      <c r="F2214">
+        <v>0</v>
+      </c>
+      <c r="G2214">
+        <v>2.175107</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2215">
+        <v>20</v>
+      </c>
+      <c r="D2215">
+        <v>106300</v>
+      </c>
+      <c r="E2215">
+        <v>1063</v>
+      </c>
+      <c r="F2215">
+        <v>0</v>
+      </c>
+      <c r="G2215">
+        <v>2.1067270000000002</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2216">
+        <v>20</v>
+      </c>
+      <c r="D2216">
+        <v>389400</v>
+      </c>
+      <c r="E2216">
+        <v>3894</v>
+      </c>
+      <c r="F2216">
+        <v>0</v>
+      </c>
+      <c r="G2216">
+        <v>0.873476</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2217">
+        <v>20</v>
+      </c>
+      <c r="D2217">
+        <v>104000</v>
+      </c>
+      <c r="E2217">
+        <v>1040</v>
+      </c>
+      <c r="F2217">
+        <v>0</v>
+      </c>
+      <c r="G2217">
+        <v>4.204252</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2218">
+        <v>20</v>
+      </c>
+      <c r="D2218">
+        <v>117000</v>
+      </c>
+      <c r="E2218">
+        <v>1170</v>
+      </c>
+      <c r="F2218">
+        <v>0</v>
+      </c>
+      <c r="G2218">
+        <v>2.234057</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2219">
+        <v>20</v>
+      </c>
+      <c r="D2219">
+        <v>117000</v>
+      </c>
+      <c r="E2219">
+        <v>1170</v>
+      </c>
+      <c r="F2219">
+        <v>0</v>
+      </c>
+      <c r="G2219">
+        <v>2.154566</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2220">
+        <v>20</v>
+      </c>
+      <c r="D2220">
+        <v>393200</v>
+      </c>
+      <c r="E2220">
+        <v>3932</v>
+      </c>
+      <c r="F2220">
+        <v>0</v>
+      </c>
+      <c r="G2220">
+        <v>0.9800209999999999</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2221">
+        <v>20</v>
+      </c>
+      <c r="D2221">
+        <v>114600</v>
+      </c>
+      <c r="E2221">
+        <v>1146</v>
+      </c>
+      <c r="F2221">
+        <v>0</v>
+      </c>
+      <c r="G2221">
+        <v>2.755033</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2222">
+        <v>20</v>
+      </c>
+      <c r="D2222">
+        <v>111700</v>
+      </c>
+      <c r="E2222">
+        <v>1117</v>
+      </c>
+      <c r="F2222">
+        <v>0</v>
+      </c>
+      <c r="G2222">
+        <v>2.2059919999999997</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2223">
+        <v>20</v>
+      </c>
+      <c r="D2223">
+        <v>111700</v>
+      </c>
+      <c r="E2223">
+        <v>1117</v>
+      </c>
+      <c r="F2223">
+        <v>0</v>
+      </c>
+      <c r="G2223">
+        <v>2.0654250000000003</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2224">
+        <v>20</v>
+      </c>
+      <c r="D2224">
+        <v>390200</v>
+      </c>
+      <c r="E2224">
+        <v>3902</v>
+      </c>
+      <c r="F2224">
+        <v>0</v>
+      </c>
+      <c r="G2224">
+        <v>1.067796</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2225">
+        <v>20</v>
+      </c>
+      <c r="D2225">
+        <v>109400</v>
+      </c>
+      <c r="E2225">
+        <v>1094</v>
+      </c>
+      <c r="F2225">
+        <v>0</v>
+      </c>
+      <c r="G2225">
+        <v>2.132579</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2226">
+        <v>20</v>
+      </c>
+      <c r="D2226">
+        <v>362700</v>
+      </c>
+      <c r="E2226">
+        <v>3627</v>
+      </c>
+      <c r="F2226">
+        <v>0</v>
+      </c>
+      <c r="G2226">
+        <v>17.784211000000003</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2227">
+        <v>20</v>
+      </c>
+      <c r="D2227">
+        <v>362700</v>
+      </c>
+      <c r="E2227">
+        <v>3627</v>
+      </c>
+      <c r="F2227">
+        <v>0</v>
+      </c>
+      <c r="G2227">
+        <v>18.106317</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2228">
+        <v>20</v>
+      </c>
+      <c r="D2228">
+        <v>3904600</v>
+      </c>
+      <c r="E2228">
+        <v>39046</v>
+      </c>
+      <c r="F2228">
+        <v>0</v>
+      </c>
+      <c r="G2228">
+        <v>9.056595000000002</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2229">
+        <v>20</v>
+      </c>
+      <c r="D2229">
+        <v>364000</v>
+      </c>
+      <c r="E2229">
+        <v>3640</v>
+      </c>
+      <c r="F2229">
+        <v>0</v>
+      </c>
+      <c r="G2229">
+        <v>22.738802999999997</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2230">
+        <v>20</v>
+      </c>
+      <c r="D2230">
+        <v>364400</v>
+      </c>
+      <c r="E2230">
+        <v>3644</v>
+      </c>
+      <c r="F2230">
+        <v>0</v>
+      </c>
+      <c r="G2230">
+        <v>21.66282</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2231">
+        <v>20</v>
+      </c>
+      <c r="D2231">
+        <v>364400</v>
+      </c>
+      <c r="E2231">
+        <v>3644</v>
+      </c>
+      <c r="F2231">
+        <v>0</v>
+      </c>
+      <c r="G2231">
+        <v>17.608782</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2232">
+        <v>20</v>
+      </c>
+      <c r="D2232">
+        <v>3925900</v>
+      </c>
+      <c r="E2232">
+        <v>39259</v>
+      </c>
+      <c r="F2232">
+        <v>0</v>
+      </c>
+      <c r="G2232">
+        <v>15.467974</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2233">
+        <v>20</v>
+      </c>
+      <c r="D2233">
+        <v>366100</v>
+      </c>
+      <c r="E2233">
+        <v>3661</v>
+      </c>
+      <c r="F2233">
+        <v>0</v>
+      </c>
+      <c r="G2233">
+        <v>20.518674</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2234">
+        <v>20</v>
+      </c>
+      <c r="D2234">
+        <v>348400</v>
+      </c>
+      <c r="E2234">
+        <v>3484</v>
+      </c>
+      <c r="F2234">
+        <v>0</v>
+      </c>
+      <c r="G2234">
+        <v>20.958031</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2235">
+        <v>20</v>
+      </c>
+      <c r="D2235">
+        <v>348400</v>
+      </c>
+      <c r="E2235">
+        <v>3484</v>
+      </c>
+      <c r="F2235">
+        <v>0</v>
+      </c>
+      <c r="G2235">
+        <v>18.592693</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2236">
+        <v>20</v>
+      </c>
+      <c r="D2236">
+        <v>3927400</v>
+      </c>
+      <c r="E2236">
+        <v>39274</v>
+      </c>
+      <c r="F2236">
+        <v>0</v>
+      </c>
+      <c r="G2236">
+        <v>9.442505</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2237">
+        <v>20</v>
+      </c>
+      <c r="D2237">
+        <v>370200</v>
+      </c>
+      <c r="E2237">
+        <v>3702</v>
+      </c>
+      <c r="F2237">
+        <v>0</v>
+      </c>
+      <c r="G2237">
+        <v>19.247145</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2238">
+        <v>20</v>
+      </c>
+      <c r="D2238">
+        <v>341800</v>
+      </c>
+      <c r="E2238">
+        <v>3418</v>
+      </c>
+      <c r="F2238">
+        <v>0</v>
+      </c>
+      <c r="G2238">
+        <v>18.186434000000002</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2239">
+        <v>20</v>
+      </c>
+      <c r="D2239">
+        <v>341800</v>
+      </c>
+      <c r="E2239">
+        <v>3418</v>
+      </c>
+      <c r="F2239">
+        <v>0</v>
+      </c>
+      <c r="G2239">
+        <v>17.658542999999998</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2240">
+        <v>20</v>
+      </c>
+      <c r="D2240">
+        <v>3918200</v>
+      </c>
+      <c r="E2240">
+        <v>39182</v>
+      </c>
+      <c r="F2240">
+        <v>0</v>
+      </c>
+      <c r="G2240">
+        <v>12.448333</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2241">
+        <v>20</v>
+      </c>
+      <c r="D2241">
+        <v>362100</v>
+      </c>
+      <c r="E2241">
+        <v>3621</v>
+      </c>
+      <c r="F2241">
+        <v>0</v>
+      </c>
+      <c r="G2241">
+        <v>18.362335</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2242">
+        <v>20</v>
+      </c>
+      <c r="D2242">
+        <v>357800</v>
+      </c>
+      <c r="E2242">
+        <v>3578</v>
+      </c>
+      <c r="F2242">
+        <v>0</v>
+      </c>
+      <c r="G2242">
+        <v>18.320784</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2243">
+        <v>20</v>
+      </c>
+      <c r="D2243">
+        <v>357800</v>
+      </c>
+      <c r="E2243">
+        <v>3578</v>
+      </c>
+      <c r="F2243">
+        <v>0</v>
+      </c>
+      <c r="G2243">
+        <v>25.450926</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2244">
+        <v>20</v>
+      </c>
+      <c r="D2244">
+        <v>3919200</v>
+      </c>
+      <c r="E2244">
+        <v>39192</v>
+      </c>
+      <c r="F2244">
+        <v>0</v>
+      </c>
+      <c r="G2244">
+        <v>15.538179</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2245">
+        <v>20</v>
+      </c>
+      <c r="D2245">
+        <v>365500</v>
+      </c>
+      <c r="E2245">
+        <v>3655</v>
+      </c>
+      <c r="F2245">
+        <v>0</v>
+      </c>
+      <c r="G2245">
+        <v>18.405701</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2246">
+        <v>20</v>
+      </c>
+      <c r="D2246">
+        <v>364500</v>
+      </c>
+      <c r="E2246">
+        <v>3645</v>
+      </c>
+      <c r="F2246">
+        <v>0</v>
+      </c>
+      <c r="G2246">
+        <v>17.912306</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2247">
+        <v>20</v>
+      </c>
+      <c r="D2247">
+        <v>364500</v>
+      </c>
+      <c r="E2247">
+        <v>3645</v>
+      </c>
+      <c r="F2247">
+        <v>0</v>
+      </c>
+      <c r="G2247">
+        <v>17.448166</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2248">
+        <v>20</v>
+      </c>
+      <c r="D2248">
+        <v>3927700</v>
+      </c>
+      <c r="E2248">
+        <v>39277</v>
+      </c>
+      <c r="F2248">
+        <v>0</v>
+      </c>
+      <c r="G2248">
+        <v>8.643006</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2249">
+        <v>20</v>
+      </c>
+      <c r="D2249">
+        <v>366700</v>
+      </c>
+      <c r="E2249">
+        <v>3667</v>
+      </c>
+      <c r="F2249">
+        <v>0</v>
+      </c>
+      <c r="G2249">
+        <v>18.151079</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2250">
+        <v>20</v>
+      </c>
+      <c r="D2250">
+        <v>364100</v>
+      </c>
+      <c r="E2250">
+        <v>3641</v>
+      </c>
+      <c r="F2250">
+        <v>0</v>
+      </c>
+      <c r="G2250">
+        <v>18.382978</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2251">
+        <v>20</v>
+      </c>
+      <c r="D2251">
+        <v>364100</v>
+      </c>
+      <c r="E2251">
+        <v>3641</v>
+      </c>
+      <c r="F2251">
+        <v>0</v>
+      </c>
+      <c r="G2251">
+        <v>17.342794</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2252">
+        <v>20</v>
+      </c>
+      <c r="D2252">
+        <v>3924600</v>
+      </c>
+      <c r="E2252">
+        <v>39246</v>
+      </c>
+      <c r="F2252">
+        <v>0</v>
+      </c>
+      <c r="G2252">
+        <v>13.549636</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2253">
+        <v>20</v>
+      </c>
+      <c r="D2253">
+        <v>362600</v>
+      </c>
+      <c r="E2253">
+        <v>3626</v>
+      </c>
+      <c r="F2253">
+        <v>0</v>
+      </c>
+      <c r="G2253">
+        <v>18.706678</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2254">
+        <v>20</v>
+      </c>
+      <c r="D2254">
+        <v>359000</v>
+      </c>
+      <c r="E2254">
+        <v>3590</v>
+      </c>
+      <c r="F2254">
+        <v>0</v>
+      </c>
+      <c r="G2254">
+        <v>18.63688</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2255">
+        <v>20</v>
+      </c>
+      <c r="D2255">
+        <v>359000</v>
+      </c>
+      <c r="E2255">
+        <v>3590</v>
+      </c>
+      <c r="F2255">
+        <v>0</v>
+      </c>
+      <c r="G2255">
+        <v>17.898695999999997</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2256">
+        <v>20</v>
+      </c>
+      <c r="D2256">
+        <v>3920800</v>
+      </c>
+      <c r="E2256">
+        <v>39208</v>
+      </c>
+      <c r="F2256">
+        <v>0</v>
+      </c>
+      <c r="G2256">
+        <v>9.743988</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2257">
+        <v>20</v>
+      </c>
+      <c r="D2257">
+        <v>365300</v>
+      </c>
+      <c r="E2257">
+        <v>3653</v>
+      </c>
+      <c r="F2257">
+        <v>0</v>
+      </c>
+      <c r="G2257">
+        <v>20.646074</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2258">
+        <v>20</v>
+      </c>
+      <c r="D2258">
+        <v>369600</v>
+      </c>
+      <c r="E2258">
+        <v>3696</v>
+      </c>
+      <c r="F2258">
+        <v>0</v>
+      </c>
+      <c r="G2258">
+        <v>20.023043</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2259">
+        <v>20</v>
+      </c>
+      <c r="D2259">
+        <v>369600</v>
+      </c>
+      <c r="E2259">
+        <v>3696</v>
+      </c>
+      <c r="F2259">
+        <v>0</v>
+      </c>
+      <c r="G2259">
+        <v>19.343808</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2260">
+        <v>20</v>
+      </c>
+      <c r="D2260">
+        <v>3919700</v>
+      </c>
+      <c r="E2260">
+        <v>39197</v>
+      </c>
+      <c r="F2260">
+        <v>0</v>
+      </c>
+      <c r="G2260">
+        <v>23.567225</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2261">
+        <v>20</v>
+      </c>
+      <c r="D2261">
+        <v>366000</v>
+      </c>
+      <c r="E2261">
+        <v>3660</v>
+      </c>
+      <c r="F2261">
+        <v>0</v>
+      </c>
+      <c r="G2261">
+        <v>20.864411999999998</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2262">
+        <v>20</v>
+      </c>
+      <c r="D2262">
+        <v>352300</v>
+      </c>
+      <c r="E2262">
+        <v>3523</v>
+      </c>
+      <c r="F2262">
+        <v>0</v>
+      </c>
+      <c r="G2262">
+        <v>16.328692</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2263">
+        <v>20</v>
+      </c>
+      <c r="D2263">
+        <v>352300</v>
+      </c>
+      <c r="E2263">
+        <v>3523</v>
+      </c>
+      <c r="F2263">
+        <v>0</v>
+      </c>
+      <c r="G2263">
+        <v>17.063934</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2264">
+        <v>20</v>
+      </c>
+      <c r="D2264">
+        <v>3909900</v>
+      </c>
+      <c r="E2264">
+        <v>39099</v>
+      </c>
+      <c r="F2264">
+        <v>0</v>
+      </c>
+      <c r="G2264">
+        <v>17.797055</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2265">
+        <v>20</v>
+      </c>
+      <c r="D2265">
+        <v>364900</v>
+      </c>
+      <c r="E2265">
+        <v>3649</v>
+      </c>
+      <c r="F2265">
+        <v>0</v>
+      </c>
+      <c r="G2265">
+        <v>17.711021</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2266">
+        <v>20</v>
+      </c>
+      <c r="D2266">
+        <v>365300</v>
+      </c>
+      <c r="E2266">
+        <v>3653</v>
+      </c>
+      <c r="F2266">
+        <v>0</v>
+      </c>
+      <c r="G2266">
+        <v>17.075628</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2267">
+        <v>20</v>
+      </c>
+      <c r="D2267">
+        <v>365300</v>
+      </c>
+      <c r="E2267">
+        <v>3653</v>
+      </c>
+      <c r="F2267">
+        <v>0</v>
+      </c>
+      <c r="G2267">
+        <v>21.866862</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2268">
+        <v>20</v>
+      </c>
+      <c r="D2268">
+        <v>3928500</v>
+      </c>
+      <c r="E2268">
+        <v>39285</v>
+      </c>
+      <c r="F2268">
+        <v>0</v>
+      </c>
+      <c r="G2268">
+        <v>14.855811</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2269">
+        <v>20</v>
+      </c>
+      <c r="D2269">
+        <v>369900</v>
+      </c>
+      <c r="E2269">
+        <v>3699</v>
+      </c>
+      <c r="F2269">
+        <v>0</v>
+      </c>
+      <c r="G2269">
+        <v>18.230051</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2270">
+        <v>20</v>
+      </c>
+      <c r="D2270">
+        <v>352700</v>
+      </c>
+      <c r="E2270">
+        <v>3527</v>
+      </c>
+      <c r="F2270">
+        <v>0</v>
+      </c>
+      <c r="G2270">
+        <v>15.866841999999998</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2271">
+        <v>20</v>
+      </c>
+      <c r="D2271">
+        <v>352700</v>
+      </c>
+      <c r="E2271">
+        <v>3527</v>
+      </c>
+      <c r="F2271">
+        <v>0</v>
+      </c>
+      <c r="G2271">
+        <v>17.048865</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2272">
+        <v>20</v>
+      </c>
+      <c r="D2272">
+        <v>3916400</v>
+      </c>
+      <c r="E2272">
+        <v>39164</v>
+      </c>
+      <c r="F2272">
+        <v>0</v>
+      </c>
+      <c r="G2272">
+        <v>8.393479000000001</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2273">
+        <v>20</v>
+      </c>
+      <c r="D2273">
+        <v>358000</v>
+      </c>
+      <c r="E2273">
+        <v>3580</v>
+      </c>
+      <c r="F2273">
+        <v>0</v>
+      </c>
+      <c r="G2273">
+        <v>18.29662</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2274">
+        <v>20</v>
+      </c>
+      <c r="D2274">
+        <v>352000</v>
+      </c>
+      <c r="E2274">
+        <v>3520</v>
+      </c>
+      <c r="F2274">
+        <v>0</v>
+      </c>
+      <c r="G2274">
+        <v>17.881933</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2275">
+        <v>20</v>
+      </c>
+      <c r="D2275">
+        <v>352000</v>
+      </c>
+      <c r="E2275">
+        <v>3520</v>
+      </c>
+      <c r="F2275">
+        <v>0</v>
+      </c>
+      <c r="G2275">
+        <v>16.66005</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2276">
+        <v>20</v>
+      </c>
+      <c r="D2276">
+        <v>3909000</v>
+      </c>
+      <c r="E2276">
+        <v>39090</v>
+      </c>
+      <c r="F2276">
+        <v>0</v>
+      </c>
+      <c r="G2276">
+        <v>12.679885</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2277">
+        <v>20</v>
+      </c>
+      <c r="D2277">
+        <v>365100</v>
+      </c>
+      <c r="E2277">
+        <v>3651</v>
+      </c>
+      <c r="F2277">
+        <v>0</v>
+      </c>
+      <c r="G2277">
+        <v>18.370946999999997</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2278">
+        <v>20</v>
+      </c>
+      <c r="D2278">
+        <v>353100</v>
+      </c>
+      <c r="E2278">
+        <v>3531</v>
+      </c>
+      <c r="F2278">
+        <v>0</v>
+      </c>
+      <c r="G2278">
+        <v>16.922049</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2279">
+        <v>20</v>
+      </c>
+      <c r="D2279">
+        <v>353100</v>
+      </c>
+      <c r="E2279">
+        <v>3531</v>
+      </c>
+      <c r="F2279">
+        <v>0</v>
+      </c>
+      <c r="G2279">
+        <v>16.029801</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2280">
+        <v>20</v>
+      </c>
+      <c r="D2280">
+        <v>3921800</v>
+      </c>
+      <c r="E2280">
+        <v>39218</v>
+      </c>
+      <c r="F2280">
+        <v>0</v>
+      </c>
+      <c r="G2280">
+        <v>8.542791</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2281">
+        <v>20</v>
+      </c>
+      <c r="D2281">
+        <v>373100</v>
+      </c>
+      <c r="E2281">
+        <v>3731</v>
+      </c>
+      <c r="F2281">
+        <v>0</v>
+      </c>
+      <c r="G2281">
+        <v>19.095157</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2282">
+        <v>20</v>
+      </c>
+      <c r="D2282">
+        <v>354200</v>
+      </c>
+      <c r="E2282">
+        <v>3542</v>
+      </c>
+      <c r="F2282">
+        <v>0</v>
+      </c>
+      <c r="G2282">
+        <v>18.518446</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2283">
+        <v>20</v>
+      </c>
+      <c r="D2283">
+        <v>354200</v>
+      </c>
+      <c r="E2283">
+        <v>3542</v>
+      </c>
+      <c r="F2283">
+        <v>0</v>
+      </c>
+      <c r="G2283">
+        <v>18.199033</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2284">
+        <v>20</v>
+      </c>
+      <c r="D2284">
+        <v>3923200</v>
+      </c>
+      <c r="E2284">
+        <v>39232</v>
+      </c>
+      <c r="F2284">
+        <v>0</v>
+      </c>
+      <c r="G2284">
+        <v>8.423492</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2285">
+        <v>20</v>
+      </c>
+      <c r="D2285">
+        <v>365900</v>
+      </c>
+      <c r="E2285">
+        <v>3659</v>
+      </c>
+      <c r="F2285">
+        <v>0</v>
+      </c>
+      <c r="G2285">
+        <v>19.542618</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/can2tsn_history.xlsx
+++ b/can2tsn_history.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -475,6 +475,69 @@
   <si>
     <t>2025-05-07 18:51:23</t>
   </si>
+  <si>
+    <t>2025-05-07 23:01:59</t>
+  </si>
+  <si>
+    <t>2025-05-07 23:19:53</t>
+  </si>
+  <si>
+    <t>2025-05-07 23:22:09</t>
+  </si>
+  <si>
+    <t>2025-05-07 23:23:59</t>
+  </si>
+  <si>
+    <t>2025-05-07 23:25:48</t>
+  </si>
+  <si>
+    <t>2025-05-07 23:31:37</t>
+  </si>
+  <si>
+    <t>2025-05-07 23:32:01</t>
+  </si>
+  <si>
+    <t>2025-05-07 23:32:34</t>
+  </si>
+  <si>
+    <t>2025-05-07 23:32:37</t>
+  </si>
+  <si>
+    <t>2025-05-07 23:32:42</t>
+  </si>
+  <si>
+    <t>2025-05-08 00:11:18</t>
+  </si>
+  <si>
+    <t>2025-05-08 00:13:19</t>
+  </si>
+  <si>
+    <t>2025-05-08 00:18:27</t>
+  </si>
+  <si>
+    <t>2025-05-08 00:20:24</t>
+  </si>
+  <si>
+    <t>2025-05-08 00:24:44</t>
+  </si>
+  <si>
+    <t>2025-05-08 00:32:02</t>
+  </si>
+  <si>
+    <t>2025-05-08 00:43:24</t>
+  </si>
+  <si>
+    <t>2025-05-08 00:47:18</t>
+  </si>
+  <si>
+    <t>2025-05-08 00:48:52</t>
+  </si>
+  <si>
+    <t>2025-05-08 00:54:24</t>
+  </si>
+  <si>
+    <t>2025-05-08 01:07:44</t>
+  </si>
 </sst>
 </file>
 
@@ -53348,6 +53411,1938 @@
         <v>19.542618</v>
       </c>
     </row>
+    <row r="2286">
+      <c r="A2286" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2286">
+        <v>20</v>
+      </c>
+      <c r="D2286">
+        <v>352800</v>
+      </c>
+      <c r="E2286">
+        <v>3528</v>
+      </c>
+      <c r="F2286">
+        <v>0</v>
+      </c>
+      <c r="G2286">
+        <v>18.093534000000002</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2287">
+        <v>20</v>
+      </c>
+      <c r="D2287">
+        <v>352800</v>
+      </c>
+      <c r="E2287">
+        <v>3528</v>
+      </c>
+      <c r="F2287">
+        <v>0</v>
+      </c>
+      <c r="G2287">
+        <v>24.8769</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2288">
+        <v>20</v>
+      </c>
+      <c r="D2288">
+        <v>3917700</v>
+      </c>
+      <c r="E2288">
+        <v>39177</v>
+      </c>
+      <c r="F2288">
+        <v>0</v>
+      </c>
+      <c r="G2288">
+        <v>8.869434</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2289">
+        <v>20</v>
+      </c>
+      <c r="D2289">
+        <v>365400</v>
+      </c>
+      <c r="E2289">
+        <v>3654</v>
+      </c>
+      <c r="F2289">
+        <v>0</v>
+      </c>
+      <c r="G2289">
+        <v>26.107228</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2290">
+        <v>20</v>
+      </c>
+      <c r="D2290">
+        <v>358900</v>
+      </c>
+      <c r="E2290">
+        <v>3589</v>
+      </c>
+      <c r="F2290">
+        <v>0</v>
+      </c>
+      <c r="G2290">
+        <v>27.383210000000002</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2291">
+        <v>20</v>
+      </c>
+      <c r="D2291">
+        <v>358900</v>
+      </c>
+      <c r="E2291">
+        <v>3589</v>
+      </c>
+      <c r="F2291">
+        <v>0</v>
+      </c>
+      <c r="G2291">
+        <v>18.736511</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2292">
+        <v>20</v>
+      </c>
+      <c r="D2292">
+        <v>3921600</v>
+      </c>
+      <c r="E2292">
+        <v>39216</v>
+      </c>
+      <c r="F2292">
+        <v>0</v>
+      </c>
+      <c r="G2292">
+        <v>8.774213</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2293">
+        <v>20</v>
+      </c>
+      <c r="D2293">
+        <v>358600</v>
+      </c>
+      <c r="E2293">
+        <v>3586</v>
+      </c>
+      <c r="F2293">
+        <v>0</v>
+      </c>
+      <c r="G2293">
+        <v>26.026087999999998</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2294">
+        <v>20</v>
+      </c>
+      <c r="D2294">
+        <v>348100</v>
+      </c>
+      <c r="E2294">
+        <v>3481</v>
+      </c>
+      <c r="F2294">
+        <v>0</v>
+      </c>
+      <c r="G2294">
+        <v>18.036017</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2295">
+        <v>20</v>
+      </c>
+      <c r="D2295">
+        <v>348100</v>
+      </c>
+      <c r="E2295">
+        <v>3481</v>
+      </c>
+      <c r="F2295">
+        <v>0</v>
+      </c>
+      <c r="G2295">
+        <v>17.448104</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2296">
+        <v>20</v>
+      </c>
+      <c r="D2296">
+        <v>3928700</v>
+      </c>
+      <c r="E2296">
+        <v>39287</v>
+      </c>
+      <c r="F2296">
+        <v>0</v>
+      </c>
+      <c r="G2296">
+        <v>13.932836</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2297">
+        <v>20</v>
+      </c>
+      <c r="D2297">
+        <v>359400</v>
+      </c>
+      <c r="E2297">
+        <v>3594</v>
+      </c>
+      <c r="F2297">
+        <v>0</v>
+      </c>
+      <c r="G2297">
+        <v>17.736439999999998</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2298">
+        <v>20</v>
+      </c>
+      <c r="D2298">
+        <v>358300</v>
+      </c>
+      <c r="E2298">
+        <v>3583</v>
+      </c>
+      <c r="F2298">
+        <v>0</v>
+      </c>
+      <c r="G2298">
+        <v>18.20977</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2299">
+        <v>20</v>
+      </c>
+      <c r="D2299">
+        <v>358300</v>
+      </c>
+      <c r="E2299">
+        <v>3583</v>
+      </c>
+      <c r="F2299">
+        <v>0</v>
+      </c>
+      <c r="G2299">
+        <v>18.834871</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2300">
+        <v>20</v>
+      </c>
+      <c r="D2300">
+        <v>3912500</v>
+      </c>
+      <c r="E2300">
+        <v>39125</v>
+      </c>
+      <c r="F2300">
+        <v>0</v>
+      </c>
+      <c r="G2300">
+        <v>13.949145</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2301">
+        <v>20</v>
+      </c>
+      <c r="D2301">
+        <v>364300</v>
+      </c>
+      <c r="E2301">
+        <v>3643</v>
+      </c>
+      <c r="F2301">
+        <v>0</v>
+      </c>
+      <c r="G2301">
+        <v>17.993869</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2302">
+        <v>20</v>
+      </c>
+      <c r="D2302">
+        <v>358100</v>
+      </c>
+      <c r="E2302">
+        <v>3581</v>
+      </c>
+      <c r="F2302">
+        <v>0</v>
+      </c>
+      <c r="G2302">
+        <v>18.249032</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2303">
+        <v>20</v>
+      </c>
+      <c r="D2303">
+        <v>358100</v>
+      </c>
+      <c r="E2303">
+        <v>3581</v>
+      </c>
+      <c r="F2303">
+        <v>0</v>
+      </c>
+      <c r="G2303">
+        <v>20.229951</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2304">
+        <v>20</v>
+      </c>
+      <c r="D2304">
+        <v>3921600</v>
+      </c>
+      <c r="E2304">
+        <v>39216</v>
+      </c>
+      <c r="F2304">
+        <v>0</v>
+      </c>
+      <c r="G2304">
+        <v>10.240308</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2305">
+        <v>20</v>
+      </c>
+      <c r="D2305">
+        <v>370100</v>
+      </c>
+      <c r="E2305">
+        <v>3701</v>
+      </c>
+      <c r="F2305">
+        <v>0</v>
+      </c>
+      <c r="G2305">
+        <v>17.842702</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2306">
+        <v>20</v>
+      </c>
+      <c r="D2306">
+        <v>348600</v>
+      </c>
+      <c r="E2306">
+        <v>3486</v>
+      </c>
+      <c r="F2306">
+        <v>0</v>
+      </c>
+      <c r="G2306">
+        <v>17.891322000000002</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2307">
+        <v>20</v>
+      </c>
+      <c r="D2307">
+        <v>348600</v>
+      </c>
+      <c r="E2307">
+        <v>3486</v>
+      </c>
+      <c r="F2307">
+        <v>0</v>
+      </c>
+      <c r="G2307">
+        <v>17.288326</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2308">
+        <v>20</v>
+      </c>
+      <c r="D2308">
+        <v>3921900</v>
+      </c>
+      <c r="E2308">
+        <v>39219</v>
+      </c>
+      <c r="F2308">
+        <v>0</v>
+      </c>
+      <c r="G2308">
+        <v>8.259482</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2309">
+        <v>20</v>
+      </c>
+      <c r="D2309">
+        <v>355300</v>
+      </c>
+      <c r="E2309">
+        <v>3553</v>
+      </c>
+      <c r="F2309">
+        <v>0</v>
+      </c>
+      <c r="G2309">
+        <v>17.674128</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2310">
+        <v>20</v>
+      </c>
+      <c r="D2310">
+        <v>364200</v>
+      </c>
+      <c r="E2310">
+        <v>3642</v>
+      </c>
+      <c r="F2310">
+        <v>0</v>
+      </c>
+      <c r="G2310">
+        <v>16.124123</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2311">
+        <v>20</v>
+      </c>
+      <c r="D2311">
+        <v>364200</v>
+      </c>
+      <c r="E2311">
+        <v>3642</v>
+      </c>
+      <c r="F2311">
+        <v>0</v>
+      </c>
+      <c r="G2311">
+        <v>17.402873</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2312">
+        <v>20</v>
+      </c>
+      <c r="D2312">
+        <v>3920200</v>
+      </c>
+      <c r="E2312">
+        <v>39202</v>
+      </c>
+      <c r="F2312">
+        <v>0</v>
+      </c>
+      <c r="G2312">
+        <v>8.663473</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2313">
+        <v>20</v>
+      </c>
+      <c r="D2313">
+        <v>366300</v>
+      </c>
+      <c r="E2313">
+        <v>3663</v>
+      </c>
+      <c r="F2313">
+        <v>0</v>
+      </c>
+      <c r="G2313">
+        <v>17.960467</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2314">
+        <v>20</v>
+      </c>
+      <c r="D2314">
+        <v>347700</v>
+      </c>
+      <c r="E2314">
+        <v>3477</v>
+      </c>
+      <c r="F2314">
+        <v>0</v>
+      </c>
+      <c r="G2314">
+        <v>33.308232</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2315">
+        <v>20</v>
+      </c>
+      <c r="D2315">
+        <v>347700</v>
+      </c>
+      <c r="E2315">
+        <v>3477</v>
+      </c>
+      <c r="F2315">
+        <v>0</v>
+      </c>
+      <c r="G2315">
+        <v>18.825509</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2316">
+        <v>20</v>
+      </c>
+      <c r="D2316">
+        <v>3920600</v>
+      </c>
+      <c r="E2316">
+        <v>39206</v>
+      </c>
+      <c r="F2316">
+        <v>0</v>
+      </c>
+      <c r="G2316">
+        <v>14.057887</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2317">
+        <v>20</v>
+      </c>
+      <c r="D2317">
+        <v>369200</v>
+      </c>
+      <c r="E2317">
+        <v>3692</v>
+      </c>
+      <c r="F2317">
+        <v>0</v>
+      </c>
+      <c r="G2317">
+        <v>17.806999</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2318">
+        <v>20</v>
+      </c>
+      <c r="D2318">
+        <v>358700</v>
+      </c>
+      <c r="E2318">
+        <v>3587</v>
+      </c>
+      <c r="F2318">
+        <v>0</v>
+      </c>
+      <c r="G2318">
+        <v>18.790347999999998</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2319">
+        <v>20</v>
+      </c>
+      <c r="D2319">
+        <v>358700</v>
+      </c>
+      <c r="E2319">
+        <v>3587</v>
+      </c>
+      <c r="F2319">
+        <v>0</v>
+      </c>
+      <c r="G2319">
+        <v>16.032423</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2320">
+        <v>20</v>
+      </c>
+      <c r="D2320">
+        <v>3912300</v>
+      </c>
+      <c r="E2320">
+        <v>39123</v>
+      </c>
+      <c r="F2320">
+        <v>0</v>
+      </c>
+      <c r="G2320">
+        <v>11.839075</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2321">
+        <v>20</v>
+      </c>
+      <c r="D2321">
+        <v>372100</v>
+      </c>
+      <c r="E2321">
+        <v>3721</v>
+      </c>
+      <c r="F2321">
+        <v>0</v>
+      </c>
+      <c r="G2321">
+        <v>17.531457</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2322">
+        <v>20</v>
+      </c>
+      <c r="D2322">
+        <v>346000</v>
+      </c>
+      <c r="E2322">
+        <v>3460</v>
+      </c>
+      <c r="F2322">
+        <v>0</v>
+      </c>
+      <c r="G2322">
+        <v>17.389843</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2323">
+        <v>20</v>
+      </c>
+      <c r="D2323">
+        <v>346000</v>
+      </c>
+      <c r="E2323">
+        <v>3460</v>
+      </c>
+      <c r="F2323">
+        <v>0</v>
+      </c>
+      <c r="G2323">
+        <v>16.546481</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2324">
+        <v>20</v>
+      </c>
+      <c r="D2324">
+        <v>3905100</v>
+      </c>
+      <c r="E2324">
+        <v>39051</v>
+      </c>
+      <c r="F2324">
+        <v>0</v>
+      </c>
+      <c r="G2324">
+        <v>8.026043</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2325">
+        <v>20</v>
+      </c>
+      <c r="D2325">
+        <v>360700</v>
+      </c>
+      <c r="E2325">
+        <v>3607</v>
+      </c>
+      <c r="F2325">
+        <v>0</v>
+      </c>
+      <c r="G2325">
+        <v>19.986885</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2326">
+        <v>20</v>
+      </c>
+      <c r="D2326">
+        <v>359200</v>
+      </c>
+      <c r="E2326">
+        <v>3592</v>
+      </c>
+      <c r="F2326">
+        <v>0</v>
+      </c>
+      <c r="G2326">
+        <v>22.36556</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2327">
+        <v>20</v>
+      </c>
+      <c r="D2327">
+        <v>359200</v>
+      </c>
+      <c r="E2327">
+        <v>3592</v>
+      </c>
+      <c r="F2327">
+        <v>0</v>
+      </c>
+      <c r="G2327">
+        <v>16.670517</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2328">
+        <v>20</v>
+      </c>
+      <c r="D2328">
+        <v>3926200</v>
+      </c>
+      <c r="E2328">
+        <v>39262</v>
+      </c>
+      <c r="F2328">
+        <v>0</v>
+      </c>
+      <c r="G2328">
+        <v>9.015629</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2329">
+        <v>20</v>
+      </c>
+      <c r="D2329">
+        <v>365700</v>
+      </c>
+      <c r="E2329">
+        <v>3657</v>
+      </c>
+      <c r="F2329">
+        <v>0</v>
+      </c>
+      <c r="G2329">
+        <v>18.597001</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2330">
+        <v>20</v>
+      </c>
+      <c r="D2330">
+        <v>347100</v>
+      </c>
+      <c r="E2330">
+        <v>3471</v>
+      </c>
+      <c r="F2330">
+        <v>0</v>
+      </c>
+      <c r="G2330">
+        <v>17.735994</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2331">
+        <v>20</v>
+      </c>
+      <c r="D2331">
+        <v>347100</v>
+      </c>
+      <c r="E2331">
+        <v>3471</v>
+      </c>
+      <c r="F2331">
+        <v>0</v>
+      </c>
+      <c r="G2331">
+        <v>17.082812999999998</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2332">
+        <v>20</v>
+      </c>
+      <c r="D2332">
+        <v>3912800</v>
+      </c>
+      <c r="E2332">
+        <v>39128</v>
+      </c>
+      <c r="F2332">
+        <v>0</v>
+      </c>
+      <c r="G2332">
+        <v>13.078733999999999</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2333">
+        <v>20</v>
+      </c>
+      <c r="D2333">
+        <v>358300</v>
+      </c>
+      <c r="E2333">
+        <v>3583</v>
+      </c>
+      <c r="F2333">
+        <v>0</v>
+      </c>
+      <c r="G2333">
+        <v>19.867618</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2334">
+        <v>20</v>
+      </c>
+      <c r="D2334">
+        <v>363000</v>
+      </c>
+      <c r="E2334">
+        <v>3630</v>
+      </c>
+      <c r="F2334">
+        <v>0</v>
+      </c>
+      <c r="G2334">
+        <v>19.374249</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2335">
+        <v>20</v>
+      </c>
+      <c r="D2335">
+        <v>363000</v>
+      </c>
+      <c r="E2335">
+        <v>3630</v>
+      </c>
+      <c r="F2335">
+        <v>0</v>
+      </c>
+      <c r="G2335">
+        <v>18.275904</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2336">
+        <v>20</v>
+      </c>
+      <c r="D2336">
+        <v>3910800</v>
+      </c>
+      <c r="E2336">
+        <v>39108</v>
+      </c>
+      <c r="F2336">
+        <v>0</v>
+      </c>
+      <c r="G2336">
+        <v>13.036376</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2337">
+        <v>20</v>
+      </c>
+      <c r="D2337">
+        <v>361400</v>
+      </c>
+      <c r="E2337">
+        <v>3614</v>
+      </c>
+      <c r="F2337">
+        <v>0</v>
+      </c>
+      <c r="G2337">
+        <v>17.404803</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2338">
+        <v>20</v>
+      </c>
+      <c r="D2338">
+        <v>358000</v>
+      </c>
+      <c r="E2338">
+        <v>3580</v>
+      </c>
+      <c r="F2338">
+        <v>0</v>
+      </c>
+      <c r="G2338">
+        <v>16.915663000000002</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2339">
+        <v>20</v>
+      </c>
+      <c r="D2339">
+        <v>358000</v>
+      </c>
+      <c r="E2339">
+        <v>3580</v>
+      </c>
+      <c r="F2339">
+        <v>0</v>
+      </c>
+      <c r="G2339">
+        <v>16.77681</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2340">
+        <v>20</v>
+      </c>
+      <c r="D2340">
+        <v>3913300</v>
+      </c>
+      <c r="E2340">
+        <v>39133</v>
+      </c>
+      <c r="F2340">
+        <v>0</v>
+      </c>
+      <c r="G2340">
+        <v>8.20735</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2341">
+        <v>20</v>
+      </c>
+      <c r="D2341">
+        <v>354100</v>
+      </c>
+      <c r="E2341">
+        <v>3541</v>
+      </c>
+      <c r="F2341">
+        <v>0</v>
+      </c>
+      <c r="G2341">
+        <v>20.920281</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2342">
+        <v>20</v>
+      </c>
+      <c r="D2342">
+        <v>347300</v>
+      </c>
+      <c r="E2342">
+        <v>3473</v>
+      </c>
+      <c r="F2342">
+        <v>0</v>
+      </c>
+      <c r="G2342">
+        <v>17.291456</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2343">
+        <v>20</v>
+      </c>
+      <c r="D2343">
+        <v>347300</v>
+      </c>
+      <c r="E2343">
+        <v>3473</v>
+      </c>
+      <c r="F2343">
+        <v>0</v>
+      </c>
+      <c r="G2343">
+        <v>16.58285</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2344">
+        <v>20</v>
+      </c>
+      <c r="D2344">
+        <v>3915400</v>
+      </c>
+      <c r="E2344">
+        <v>39154</v>
+      </c>
+      <c r="F2344">
+        <v>0</v>
+      </c>
+      <c r="G2344">
+        <v>8.400668</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2345">
+        <v>20</v>
+      </c>
+      <c r="D2345">
+        <v>366700</v>
+      </c>
+      <c r="E2345">
+        <v>3667</v>
+      </c>
+      <c r="F2345">
+        <v>0</v>
+      </c>
+      <c r="G2345">
+        <v>17.999447</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2346">
+        <v>20</v>
+      </c>
+      <c r="D2346">
+        <v>351700</v>
+      </c>
+      <c r="E2346">
+        <v>3517</v>
+      </c>
+      <c r="F2346">
+        <v>0</v>
+      </c>
+      <c r="G2346">
+        <v>18.961723</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2347">
+        <v>20</v>
+      </c>
+      <c r="D2347">
+        <v>351700</v>
+      </c>
+      <c r="E2347">
+        <v>3517</v>
+      </c>
+      <c r="F2347">
+        <v>0</v>
+      </c>
+      <c r="G2347">
+        <v>18.428392</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2348">
+        <v>20</v>
+      </c>
+      <c r="D2348">
+        <v>3904800</v>
+      </c>
+      <c r="E2348">
+        <v>39048</v>
+      </c>
+      <c r="F2348">
+        <v>0</v>
+      </c>
+      <c r="G2348">
+        <v>8.363092</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2349">
+        <v>20</v>
+      </c>
+      <c r="D2349">
+        <v>364700</v>
+      </c>
+      <c r="E2349">
+        <v>3647</v>
+      </c>
+      <c r="F2349">
+        <v>0</v>
+      </c>
+      <c r="G2349">
+        <v>17.138016999999998</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2350">
+        <v>20</v>
+      </c>
+      <c r="D2350">
+        <v>356600</v>
+      </c>
+      <c r="E2350">
+        <v>3566</v>
+      </c>
+      <c r="F2350">
+        <v>0</v>
+      </c>
+      <c r="G2350">
+        <v>16.921093000000003</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2351">
+        <v>20</v>
+      </c>
+      <c r="D2351">
+        <v>356600</v>
+      </c>
+      <c r="E2351">
+        <v>3566</v>
+      </c>
+      <c r="F2351">
+        <v>0</v>
+      </c>
+      <c r="G2351">
+        <v>16.68826</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2352">
+        <v>20</v>
+      </c>
+      <c r="D2352">
+        <v>3895100</v>
+      </c>
+      <c r="E2352">
+        <v>38951</v>
+      </c>
+      <c r="F2352">
+        <v>0</v>
+      </c>
+      <c r="G2352">
+        <v>11.266261</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2353">
+        <v>20</v>
+      </c>
+      <c r="D2353">
+        <v>367000</v>
+      </c>
+      <c r="E2353">
+        <v>3670</v>
+      </c>
+      <c r="F2353">
+        <v>0</v>
+      </c>
+      <c r="G2353">
+        <v>18.543405999999997</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2354">
+        <v>20</v>
+      </c>
+      <c r="D2354">
+        <v>351500</v>
+      </c>
+      <c r="E2354">
+        <v>3515</v>
+      </c>
+      <c r="F2354">
+        <v>0</v>
+      </c>
+      <c r="G2354">
+        <v>18.594427</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2355">
+        <v>20</v>
+      </c>
+      <c r="D2355">
+        <v>351500</v>
+      </c>
+      <c r="E2355">
+        <v>3515</v>
+      </c>
+      <c r="F2355">
+        <v>0</v>
+      </c>
+      <c r="G2355">
+        <v>22.703657</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2356">
+        <v>20</v>
+      </c>
+      <c r="D2356">
+        <v>3898600</v>
+      </c>
+      <c r="E2356">
+        <v>38986</v>
+      </c>
+      <c r="F2356">
+        <v>0</v>
+      </c>
+      <c r="G2356">
+        <v>9.320326999999999</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2357">
+        <v>20</v>
+      </c>
+      <c r="D2357">
+        <v>356800</v>
+      </c>
+      <c r="E2357">
+        <v>3568</v>
+      </c>
+      <c r="F2357">
+        <v>0</v>
+      </c>
+      <c r="G2357">
+        <v>21.100257</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2358">
+        <v>20</v>
+      </c>
+      <c r="D2358">
+        <v>362400</v>
+      </c>
+      <c r="E2358">
+        <v>3624</v>
+      </c>
+      <c r="F2358">
+        <v>0</v>
+      </c>
+      <c r="G2358">
+        <v>17.107082</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2359">
+        <v>20</v>
+      </c>
+      <c r="D2359">
+        <v>362400</v>
+      </c>
+      <c r="E2359">
+        <v>3624</v>
+      </c>
+      <c r="F2359">
+        <v>0</v>
+      </c>
+      <c r="G2359">
+        <v>16.492008</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2360">
+        <v>20</v>
+      </c>
+      <c r="D2360">
+        <v>3900300</v>
+      </c>
+      <c r="E2360">
+        <v>39003</v>
+      </c>
+      <c r="F2360">
+        <v>0</v>
+      </c>
+      <c r="G2360">
+        <v>8.289658</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2361">
+        <v>20</v>
+      </c>
+      <c r="D2361">
+        <v>360000</v>
+      </c>
+      <c r="E2361">
+        <v>3600</v>
+      </c>
+      <c r="F2361">
+        <v>0</v>
+      </c>
+      <c r="G2361">
+        <v>18.170807</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2362">
+        <v>20</v>
+      </c>
+      <c r="D2362">
+        <v>348100</v>
+      </c>
+      <c r="E2362">
+        <v>3481</v>
+      </c>
+      <c r="F2362">
+        <v>0</v>
+      </c>
+      <c r="G2362">
+        <v>16.616447</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2363">
+        <v>20</v>
+      </c>
+      <c r="D2363">
+        <v>348100</v>
+      </c>
+      <c r="E2363">
+        <v>3481</v>
+      </c>
+      <c r="F2363">
+        <v>0</v>
+      </c>
+      <c r="G2363">
+        <v>16.43134</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2364">
+        <v>20</v>
+      </c>
+      <c r="D2364">
+        <v>3925100</v>
+      </c>
+      <c r="E2364">
+        <v>39251</v>
+      </c>
+      <c r="F2364">
+        <v>0</v>
+      </c>
+      <c r="G2364">
+        <v>8.166009</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2365">
+        <v>20</v>
+      </c>
+      <c r="D2365">
+        <v>363000</v>
+      </c>
+      <c r="E2365">
+        <v>3630</v>
+      </c>
+      <c r="F2365">
+        <v>0</v>
+      </c>
+      <c r="G2365">
+        <v>18.976712</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2366">
+        <v>20</v>
+      </c>
+      <c r="D2366">
+        <v>348700</v>
+      </c>
+      <c r="E2366">
+        <v>3487</v>
+      </c>
+      <c r="F2366">
+        <v>0</v>
+      </c>
+      <c r="G2366">
+        <v>17.471583</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2367">
+        <v>20</v>
+      </c>
+      <c r="D2367">
+        <v>348700</v>
+      </c>
+      <c r="E2367">
+        <v>3487</v>
+      </c>
+      <c r="F2367">
+        <v>0</v>
+      </c>
+      <c r="G2367">
+        <v>20.240238</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2368">
+        <v>20</v>
+      </c>
+      <c r="D2368">
+        <v>3924800</v>
+      </c>
+      <c r="E2368">
+        <v>39248</v>
+      </c>
+      <c r="F2368">
+        <v>0</v>
+      </c>
+      <c r="G2368">
+        <v>9.509299</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2369">
+        <v>20</v>
+      </c>
+      <c r="D2369">
+        <v>358700</v>
+      </c>
+      <c r="E2369">
+        <v>3587</v>
+      </c>
+      <c r="F2369">
+        <v>0</v>
+      </c>
+      <c r="G2369">
+        <v>17.687103</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/can2tsn_history.xlsx
+++ b/can2tsn_history.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -538,6 +538,108 @@
   <si>
     <t>2025-05-08 01:07:44</t>
   </si>
+  <si>
+    <t>2025-05-08 14:03:27</t>
+  </si>
+  <si>
+    <t>2025-05-08 14:06:28</t>
+  </si>
+  <si>
+    <t>2025-05-08 14:07:19</t>
+  </si>
+  <si>
+    <t>2025-05-08 14:11:18</t>
+  </si>
+  <si>
+    <t>2025-05-08 14:19:07</t>
+  </si>
+  <si>
+    <t>2025-05-08 14:19:54</t>
+  </si>
+  <si>
+    <t>2025-05-08 14:22:12</t>
+  </si>
+  <si>
+    <t>2025-05-08 15:02:14</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:04:29</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:12:30</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:13:23</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:13:55</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:16:48</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:18:30</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:19:36</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:20:29</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:21:33</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:22:11</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:22:28</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:24:28</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:42:12</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:43:00</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:44:55</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:47:06</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:49:23</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:55:11</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:55:33</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:55:51</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:55:58</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:56:22</t>
+  </si>
+  <si>
+    <t>2025-05-08 16:56:29</t>
+  </si>
+  <si>
+    <t>2025-05-08 17:04:23</t>
+  </si>
+  <si>
+    <t>2025-05-08 17:04:38</t>
+  </si>
+  <si>
+    <t>2025-05-08 18:43:59</t>
+  </si>
 </sst>
 </file>
 
@@ -55343,6 +55445,3134 @@
         <v>17.687103</v>
       </c>
     </row>
+    <row r="2370">
+      <c r="A2370" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2370">
+        <v>20</v>
+      </c>
+      <c r="D2370">
+        <v>359200</v>
+      </c>
+      <c r="E2370">
+        <v>3592</v>
+      </c>
+      <c r="F2370">
+        <v>0</v>
+      </c>
+      <c r="G2370">
+        <v>44.995407</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2371">
+        <v>20</v>
+      </c>
+      <c r="D2371">
+        <v>359200</v>
+      </c>
+      <c r="E2371">
+        <v>3592</v>
+      </c>
+      <c r="F2371">
+        <v>0</v>
+      </c>
+      <c r="G2371">
+        <v>93.019925</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2372">
+        <v>20</v>
+      </c>
+      <c r="D2372">
+        <v>3922100</v>
+      </c>
+      <c r="E2372">
+        <v>39221</v>
+      </c>
+      <c r="F2372">
+        <v>0</v>
+      </c>
+      <c r="G2372">
+        <v>30.339113</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2373">
+        <v>20</v>
+      </c>
+      <c r="D2373">
+        <v>362300</v>
+      </c>
+      <c r="E2373">
+        <v>3623</v>
+      </c>
+      <c r="F2373">
+        <v>0</v>
+      </c>
+      <c r="G2373">
+        <v>80.559259</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2374">
+        <v>20</v>
+      </c>
+      <c r="D2374">
+        <v>340600</v>
+      </c>
+      <c r="E2374">
+        <v>3406</v>
+      </c>
+      <c r="F2374">
+        <v>0</v>
+      </c>
+      <c r="G2374">
+        <v>30.721573</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2375">
+        <v>20</v>
+      </c>
+      <c r="D2375">
+        <v>340600</v>
+      </c>
+      <c r="E2375">
+        <v>3406</v>
+      </c>
+      <c r="F2375">
+        <v>0</v>
+      </c>
+      <c r="G2375">
+        <v>50.41462</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2376">
+        <v>20</v>
+      </c>
+      <c r="D2376">
+        <v>3897300</v>
+      </c>
+      <c r="E2376">
+        <v>38973</v>
+      </c>
+      <c r="F2376">
+        <v>0</v>
+      </c>
+      <c r="G2376">
+        <v>22.797991</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2377">
+        <v>20</v>
+      </c>
+      <c r="D2377">
+        <v>360800</v>
+      </c>
+      <c r="E2377">
+        <v>3608</v>
+      </c>
+      <c r="F2377">
+        <v>0</v>
+      </c>
+      <c r="G2377">
+        <v>73.122447</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2378">
+        <v>20</v>
+      </c>
+      <c r="D2378">
+        <v>353100</v>
+      </c>
+      <c r="E2378">
+        <v>3531</v>
+      </c>
+      <c r="F2378">
+        <v>0</v>
+      </c>
+      <c r="G2378">
+        <v>31.242744</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2379">
+        <v>20</v>
+      </c>
+      <c r="D2379">
+        <v>353100</v>
+      </c>
+      <c r="E2379">
+        <v>3531</v>
+      </c>
+      <c r="F2379">
+        <v>0</v>
+      </c>
+      <c r="G2379">
+        <v>42.620874</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2380">
+        <v>20</v>
+      </c>
+      <c r="D2380">
+        <v>3915000</v>
+      </c>
+      <c r="E2380">
+        <v>39150</v>
+      </c>
+      <c r="F2380">
+        <v>0</v>
+      </c>
+      <c r="G2380">
+        <v>24.871264</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2381">
+        <v>20</v>
+      </c>
+      <c r="D2381">
+        <v>361400</v>
+      </c>
+      <c r="E2381">
+        <v>3614</v>
+      </c>
+      <c r="F2381">
+        <v>0</v>
+      </c>
+      <c r="G2381">
+        <v>34.879577000000005</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2382">
+        <v>20</v>
+      </c>
+      <c r="D2382">
+        <v>367800</v>
+      </c>
+      <c r="E2382">
+        <v>3678</v>
+      </c>
+      <c r="F2382">
+        <v>0</v>
+      </c>
+      <c r="G2382">
+        <v>52.47663</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2383">
+        <v>20</v>
+      </c>
+      <c r="D2383">
+        <v>367800</v>
+      </c>
+      <c r="E2383">
+        <v>3678</v>
+      </c>
+      <c r="F2383">
+        <v>0</v>
+      </c>
+      <c r="G2383">
+        <v>48.018988</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2384">
+        <v>20</v>
+      </c>
+      <c r="D2384">
+        <v>3907100</v>
+      </c>
+      <c r="E2384">
+        <v>39071</v>
+      </c>
+      <c r="F2384">
+        <v>0</v>
+      </c>
+      <c r="G2384">
+        <v>28.409103</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2385">
+        <v>20</v>
+      </c>
+      <c r="D2385">
+        <v>367900</v>
+      </c>
+      <c r="E2385">
+        <v>3679</v>
+      </c>
+      <c r="F2385">
+        <v>0</v>
+      </c>
+      <c r="G2385">
+        <v>53.046363</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2386">
+        <v>20</v>
+      </c>
+      <c r="D2386">
+        <v>358000</v>
+      </c>
+      <c r="E2386">
+        <v>3580</v>
+      </c>
+      <c r="F2386">
+        <v>0</v>
+      </c>
+      <c r="G2386">
+        <v>32.78964</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2387">
+        <v>20</v>
+      </c>
+      <c r="D2387">
+        <v>358000</v>
+      </c>
+      <c r="E2387">
+        <v>3580</v>
+      </c>
+      <c r="F2387">
+        <v>0</v>
+      </c>
+      <c r="G2387">
+        <v>29.91233</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2388">
+        <v>20</v>
+      </c>
+      <c r="D2388">
+        <v>3922700</v>
+      </c>
+      <c r="E2388">
+        <v>39227</v>
+      </c>
+      <c r="F2388">
+        <v>0</v>
+      </c>
+      <c r="G2388">
+        <v>18.319732</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2389">
+        <v>20</v>
+      </c>
+      <c r="D2389">
+        <v>370400</v>
+      </c>
+      <c r="E2389">
+        <v>3704</v>
+      </c>
+      <c r="F2389">
+        <v>0</v>
+      </c>
+      <c r="G2389">
+        <v>49.357130999999995</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2390">
+        <v>20</v>
+      </c>
+      <c r="D2390">
+        <v>348100</v>
+      </c>
+      <c r="E2390">
+        <v>3481</v>
+      </c>
+      <c r="F2390">
+        <v>0</v>
+      </c>
+      <c r="G2390">
+        <v>35.275647</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2391">
+        <v>20</v>
+      </c>
+      <c r="D2391">
+        <v>348100</v>
+      </c>
+      <c r="E2391">
+        <v>3481</v>
+      </c>
+      <c r="F2391">
+        <v>0</v>
+      </c>
+      <c r="G2391">
+        <v>29.702987</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2392">
+        <v>20</v>
+      </c>
+      <c r="D2392">
+        <v>3914500</v>
+      </c>
+      <c r="E2392">
+        <v>39145</v>
+      </c>
+      <c r="F2392">
+        <v>0</v>
+      </c>
+      <c r="G2392">
+        <v>15.498371</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2393">
+        <v>20</v>
+      </c>
+      <c r="D2393">
+        <v>362200</v>
+      </c>
+      <c r="E2393">
+        <v>3622</v>
+      </c>
+      <c r="F2393">
+        <v>0</v>
+      </c>
+      <c r="G2393">
+        <v>30.494064</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2394">
+        <v>20</v>
+      </c>
+      <c r="D2394">
+        <v>359400</v>
+      </c>
+      <c r="E2394">
+        <v>3594</v>
+      </c>
+      <c r="F2394">
+        <v>0</v>
+      </c>
+      <c r="G2394">
+        <v>28.502736000000002</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2395">
+        <v>20</v>
+      </c>
+      <c r="D2395">
+        <v>359400</v>
+      </c>
+      <c r="E2395">
+        <v>3594</v>
+      </c>
+      <c r="F2395">
+        <v>0</v>
+      </c>
+      <c r="G2395">
+        <v>30.721789</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2396">
+        <v>20</v>
+      </c>
+      <c r="D2396">
+        <v>3935000</v>
+      </c>
+      <c r="E2396">
+        <v>39350</v>
+      </c>
+      <c r="F2396">
+        <v>0</v>
+      </c>
+      <c r="G2396">
+        <v>15.060289</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2397">
+        <v>20</v>
+      </c>
+      <c r="D2397">
+        <v>360300</v>
+      </c>
+      <c r="E2397">
+        <v>3603</v>
+      </c>
+      <c r="F2397">
+        <v>0</v>
+      </c>
+      <c r="G2397">
+        <v>40.686814</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2398">
+        <v>20</v>
+      </c>
+      <c r="D2398">
+        <v>357600</v>
+      </c>
+      <c r="E2398">
+        <v>3576</v>
+      </c>
+      <c r="F2398">
+        <v>0</v>
+      </c>
+      <c r="G2398">
+        <v>37.249206</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2399">
+        <v>20</v>
+      </c>
+      <c r="D2399">
+        <v>357600</v>
+      </c>
+      <c r="E2399">
+        <v>3576</v>
+      </c>
+      <c r="F2399">
+        <v>0</v>
+      </c>
+      <c r="G2399">
+        <v>39.441466</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2400">
+        <v>20</v>
+      </c>
+      <c r="D2400">
+        <v>3916500</v>
+      </c>
+      <c r="E2400">
+        <v>39165</v>
+      </c>
+      <c r="F2400">
+        <v>0</v>
+      </c>
+      <c r="G2400">
+        <v>28.571517</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2401">
+        <v>20</v>
+      </c>
+      <c r="D2401">
+        <v>358200</v>
+      </c>
+      <c r="E2401">
+        <v>3582</v>
+      </c>
+      <c r="F2401">
+        <v>0</v>
+      </c>
+      <c r="G2401">
+        <v>37.873787</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2402">
+        <v>20</v>
+      </c>
+      <c r="D2402">
+        <v>357900</v>
+      </c>
+      <c r="E2402">
+        <v>3579</v>
+      </c>
+      <c r="F2402">
+        <v>0</v>
+      </c>
+      <c r="G2402">
+        <v>35.197355</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2403">
+        <v>20</v>
+      </c>
+      <c r="D2403">
+        <v>357900</v>
+      </c>
+      <c r="E2403">
+        <v>3579</v>
+      </c>
+      <c r="F2403">
+        <v>0</v>
+      </c>
+      <c r="G2403">
+        <v>38.745917999999996</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2404">
+        <v>20</v>
+      </c>
+      <c r="D2404">
+        <v>3914900</v>
+      </c>
+      <c r="E2404">
+        <v>39149</v>
+      </c>
+      <c r="F2404">
+        <v>0</v>
+      </c>
+      <c r="G2404">
+        <v>18.148212</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2405">
+        <v>20</v>
+      </c>
+      <c r="D2405">
+        <v>362000</v>
+      </c>
+      <c r="E2405">
+        <v>3620</v>
+      </c>
+      <c r="F2405">
+        <v>0</v>
+      </c>
+      <c r="G2405">
+        <v>43.829653</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2406">
+        <v>20</v>
+      </c>
+      <c r="D2406">
+        <v>347600</v>
+      </c>
+      <c r="E2406">
+        <v>3476</v>
+      </c>
+      <c r="F2406">
+        <v>0</v>
+      </c>
+      <c r="G2406">
+        <v>46.771987</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2407">
+        <v>20</v>
+      </c>
+      <c r="D2407">
+        <v>347600</v>
+      </c>
+      <c r="E2407">
+        <v>3476</v>
+      </c>
+      <c r="F2407">
+        <v>0</v>
+      </c>
+      <c r="G2407">
+        <v>39.993570999999996</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2408">
+        <v>20</v>
+      </c>
+      <c r="D2408">
+        <v>3924900</v>
+      </c>
+      <c r="E2408">
+        <v>39249</v>
+      </c>
+      <c r="F2408">
+        <v>0</v>
+      </c>
+      <c r="G2408">
+        <v>15.53557</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2409">
+        <v>20</v>
+      </c>
+      <c r="D2409">
+        <v>362100</v>
+      </c>
+      <c r="E2409">
+        <v>3621</v>
+      </c>
+      <c r="F2409">
+        <v>0</v>
+      </c>
+      <c r="G2409">
+        <v>54.758703</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2410">
+        <v>20</v>
+      </c>
+      <c r="D2410">
+        <v>352400</v>
+      </c>
+      <c r="E2410">
+        <v>3524</v>
+      </c>
+      <c r="F2410">
+        <v>0</v>
+      </c>
+      <c r="G2410">
+        <v>55.789936999999995</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2411">
+        <v>20</v>
+      </c>
+      <c r="D2411">
+        <v>352400</v>
+      </c>
+      <c r="E2411">
+        <v>3524</v>
+      </c>
+      <c r="F2411">
+        <v>0</v>
+      </c>
+      <c r="G2411">
+        <v>57.656628000000005</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2412">
+        <v>20</v>
+      </c>
+      <c r="D2412">
+        <v>3914600</v>
+      </c>
+      <c r="E2412">
+        <v>39146</v>
+      </c>
+      <c r="F2412">
+        <v>0</v>
+      </c>
+      <c r="G2412">
+        <v>25.931158999999997</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2413">
+        <v>20</v>
+      </c>
+      <c r="D2413">
+        <v>358200</v>
+      </c>
+      <c r="E2413">
+        <v>3582</v>
+      </c>
+      <c r="F2413">
+        <v>0</v>
+      </c>
+      <c r="G2413">
+        <v>74.068149</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2414">
+        <v>20</v>
+      </c>
+      <c r="D2414">
+        <v>357400</v>
+      </c>
+      <c r="E2414">
+        <v>3574</v>
+      </c>
+      <c r="F2414">
+        <v>0</v>
+      </c>
+      <c r="G2414">
+        <v>64.52179500000001</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2415">
+        <v>20</v>
+      </c>
+      <c r="D2415">
+        <v>357400</v>
+      </c>
+      <c r="E2415">
+        <v>3574</v>
+      </c>
+      <c r="F2415">
+        <v>0</v>
+      </c>
+      <c r="G2415">
+        <v>34.788720000000005</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2416">
+        <v>20</v>
+      </c>
+      <c r="D2416">
+        <v>3915200</v>
+      </c>
+      <c r="E2416">
+        <v>39152</v>
+      </c>
+      <c r="F2416">
+        <v>0</v>
+      </c>
+      <c r="G2416">
+        <v>21.221825</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2417">
+        <v>20</v>
+      </c>
+      <c r="D2417">
+        <v>373400</v>
+      </c>
+      <c r="E2417">
+        <v>3734</v>
+      </c>
+      <c r="F2417">
+        <v>0</v>
+      </c>
+      <c r="G2417">
+        <v>49.672056</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2418">
+        <v>20</v>
+      </c>
+      <c r="D2418">
+        <v>363500</v>
+      </c>
+      <c r="E2418">
+        <v>3635</v>
+      </c>
+      <c r="F2418">
+        <v>0</v>
+      </c>
+      <c r="G2418">
+        <v>37.720223</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2419">
+        <v>20</v>
+      </c>
+      <c r="D2419">
+        <v>363500</v>
+      </c>
+      <c r="E2419">
+        <v>3635</v>
+      </c>
+      <c r="F2419">
+        <v>0</v>
+      </c>
+      <c r="G2419">
+        <v>35.234028</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2420">
+        <v>20</v>
+      </c>
+      <c r="D2420">
+        <v>3915700</v>
+      </c>
+      <c r="E2420">
+        <v>39157</v>
+      </c>
+      <c r="F2420">
+        <v>0</v>
+      </c>
+      <c r="G2420">
+        <v>19.546852</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2421">
+        <v>20</v>
+      </c>
+      <c r="D2421">
+        <v>365100</v>
+      </c>
+      <c r="E2421">
+        <v>3651</v>
+      </c>
+      <c r="F2421">
+        <v>0</v>
+      </c>
+      <c r="G2421">
+        <v>34.121326</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2422">
+        <v>20</v>
+      </c>
+      <c r="D2422">
+        <v>363700</v>
+      </c>
+      <c r="E2422">
+        <v>3637</v>
+      </c>
+      <c r="F2422">
+        <v>0</v>
+      </c>
+      <c r="G2422">
+        <v>32.277088</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2423">
+        <v>20</v>
+      </c>
+      <c r="D2423">
+        <v>363700</v>
+      </c>
+      <c r="E2423">
+        <v>3637</v>
+      </c>
+      <c r="F2423">
+        <v>0</v>
+      </c>
+      <c r="G2423">
+        <v>30.875638000000002</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2424">
+        <v>20</v>
+      </c>
+      <c r="D2424">
+        <v>3916000</v>
+      </c>
+      <c r="E2424">
+        <v>39160</v>
+      </c>
+      <c r="F2424">
+        <v>0</v>
+      </c>
+      <c r="G2424">
+        <v>19.170112</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2425">
+        <v>20</v>
+      </c>
+      <c r="D2425">
+        <v>368300</v>
+      </c>
+      <c r="E2425">
+        <v>3683</v>
+      </c>
+      <c r="F2425">
+        <v>0</v>
+      </c>
+      <c r="G2425">
+        <v>29.886849</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2426">
+        <v>20</v>
+      </c>
+      <c r="D2426">
+        <v>347200</v>
+      </c>
+      <c r="E2426">
+        <v>3472</v>
+      </c>
+      <c r="F2426">
+        <v>0</v>
+      </c>
+      <c r="G2426">
+        <v>59.342104</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2427">
+        <v>20</v>
+      </c>
+      <c r="D2427">
+        <v>347200</v>
+      </c>
+      <c r="E2427">
+        <v>3472</v>
+      </c>
+      <c r="F2427">
+        <v>0</v>
+      </c>
+      <c r="G2427">
+        <v>72.74179699999999</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2428">
+        <v>20</v>
+      </c>
+      <c r="D2428">
+        <v>3917000</v>
+      </c>
+      <c r="E2428">
+        <v>39170</v>
+      </c>
+      <c r="F2428">
+        <v>0</v>
+      </c>
+      <c r="G2428">
+        <v>20.8003</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2429">
+        <v>20</v>
+      </c>
+      <c r="D2429">
+        <v>362000</v>
+      </c>
+      <c r="E2429">
+        <v>3620</v>
+      </c>
+      <c r="F2429">
+        <v>0</v>
+      </c>
+      <c r="G2429">
+        <v>30.974776</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2430">
+        <v>20</v>
+      </c>
+      <c r="D2430">
+        <v>352800</v>
+      </c>
+      <c r="E2430">
+        <v>3528</v>
+      </c>
+      <c r="F2430">
+        <v>0</v>
+      </c>
+      <c r="G2430">
+        <v>31.233773</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2431">
+        <v>20</v>
+      </c>
+      <c r="D2431">
+        <v>352800</v>
+      </c>
+      <c r="E2431">
+        <v>3528</v>
+      </c>
+      <c r="F2431">
+        <v>0</v>
+      </c>
+      <c r="G2431">
+        <v>32.086547</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2432">
+        <v>20</v>
+      </c>
+      <c r="D2432">
+        <v>3922300</v>
+      </c>
+      <c r="E2432">
+        <v>39223</v>
+      </c>
+      <c r="F2432">
+        <v>0</v>
+      </c>
+      <c r="G2432">
+        <v>32.110196</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2433">
+        <v>20</v>
+      </c>
+      <c r="D2433">
+        <v>366300</v>
+      </c>
+      <c r="E2433">
+        <v>3663</v>
+      </c>
+      <c r="F2433">
+        <v>0</v>
+      </c>
+      <c r="G2433">
+        <v>40.156374</v>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2434">
+        <v>20</v>
+      </c>
+      <c r="D2434">
+        <v>353200</v>
+      </c>
+      <c r="E2434">
+        <v>3532</v>
+      </c>
+      <c r="F2434">
+        <v>0</v>
+      </c>
+      <c r="G2434">
+        <v>18.208783</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2435">
+        <v>20</v>
+      </c>
+      <c r="D2435">
+        <v>353200</v>
+      </c>
+      <c r="E2435">
+        <v>3532</v>
+      </c>
+      <c r="F2435">
+        <v>0</v>
+      </c>
+      <c r="G2435">
+        <v>17.277662999999997</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2436">
+        <v>20</v>
+      </c>
+      <c r="D2436">
+        <v>3924000</v>
+      </c>
+      <c r="E2436">
+        <v>39240</v>
+      </c>
+      <c r="F2436">
+        <v>0</v>
+      </c>
+      <c r="G2436">
+        <v>13.526582000000001</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2437">
+        <v>20</v>
+      </c>
+      <c r="D2437">
+        <v>373500</v>
+      </c>
+      <c r="E2437">
+        <v>3735</v>
+      </c>
+      <c r="F2437">
+        <v>0</v>
+      </c>
+      <c r="G2437">
+        <v>22.255252</v>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2438">
+        <v>20</v>
+      </c>
+      <c r="D2438">
+        <v>357700</v>
+      </c>
+      <c r="E2438">
+        <v>3577</v>
+      </c>
+      <c r="F2438">
+        <v>0</v>
+      </c>
+      <c r="G2438">
+        <v>19.71939</v>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2439">
+        <v>20</v>
+      </c>
+      <c r="D2439">
+        <v>357700</v>
+      </c>
+      <c r="E2439">
+        <v>3577</v>
+      </c>
+      <c r="F2439">
+        <v>0</v>
+      </c>
+      <c r="G2439">
+        <v>16.923638</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2440">
+        <v>20</v>
+      </c>
+      <c r="D2440">
+        <v>3917200</v>
+      </c>
+      <c r="E2440">
+        <v>39172</v>
+      </c>
+      <c r="F2440">
+        <v>0</v>
+      </c>
+      <c r="G2440">
+        <v>13.011191</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2441">
+        <v>20</v>
+      </c>
+      <c r="D2441">
+        <v>362100</v>
+      </c>
+      <c r="E2441">
+        <v>3621</v>
+      </c>
+      <c r="F2441">
+        <v>0</v>
+      </c>
+      <c r="G2441">
+        <v>17.886217</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2442">
+        <v>20</v>
+      </c>
+      <c r="D2442">
+        <v>364100</v>
+      </c>
+      <c r="E2442">
+        <v>3641</v>
+      </c>
+      <c r="F2442">
+        <v>0</v>
+      </c>
+      <c r="G2442">
+        <v>18.404993</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2443">
+        <v>20</v>
+      </c>
+      <c r="D2443">
+        <v>364100</v>
+      </c>
+      <c r="E2443">
+        <v>3641</v>
+      </c>
+      <c r="F2443">
+        <v>0</v>
+      </c>
+      <c r="G2443">
+        <v>19.393065</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2444">
+        <v>20</v>
+      </c>
+      <c r="D2444">
+        <v>3916800</v>
+      </c>
+      <c r="E2444">
+        <v>39168</v>
+      </c>
+      <c r="F2444">
+        <v>0</v>
+      </c>
+      <c r="G2444">
+        <v>8.449319000000001</v>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2445">
+        <v>20</v>
+      </c>
+      <c r="D2445">
+        <v>365100</v>
+      </c>
+      <c r="E2445">
+        <v>3651</v>
+      </c>
+      <c r="F2445">
+        <v>0</v>
+      </c>
+      <c r="G2445">
+        <v>21.195634000000002</v>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2446">
+        <v>20</v>
+      </c>
+      <c r="D2446">
+        <v>352500</v>
+      </c>
+      <c r="E2446">
+        <v>3525</v>
+      </c>
+      <c r="F2446">
+        <v>0</v>
+      </c>
+      <c r="G2446">
+        <v>19.09346</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2447">
+        <v>20</v>
+      </c>
+      <c r="D2447">
+        <v>352500</v>
+      </c>
+      <c r="E2447">
+        <v>3525</v>
+      </c>
+      <c r="F2447">
+        <v>0</v>
+      </c>
+      <c r="G2447">
+        <v>19.648030000000002</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2448">
+        <v>20</v>
+      </c>
+      <c r="D2448">
+        <v>3914900</v>
+      </c>
+      <c r="E2448">
+        <v>39149</v>
+      </c>
+      <c r="F2448">
+        <v>0</v>
+      </c>
+      <c r="G2448">
+        <v>8.459856</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2449">
+        <v>20</v>
+      </c>
+      <c r="D2449">
+        <v>365100</v>
+      </c>
+      <c r="E2449">
+        <v>3651</v>
+      </c>
+      <c r="F2449">
+        <v>0</v>
+      </c>
+      <c r="G2449">
+        <v>17.561826999999997</v>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2450">
+        <v>20</v>
+      </c>
+      <c r="D2450">
+        <v>354400</v>
+      </c>
+      <c r="E2450">
+        <v>3544</v>
+      </c>
+      <c r="F2450">
+        <v>0</v>
+      </c>
+      <c r="G2450">
+        <v>18.836022</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2451">
+        <v>20</v>
+      </c>
+      <c r="D2451">
+        <v>354400</v>
+      </c>
+      <c r="E2451">
+        <v>3544</v>
+      </c>
+      <c r="F2451">
+        <v>0</v>
+      </c>
+      <c r="G2451">
+        <v>16.500722</v>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2452">
+        <v>20</v>
+      </c>
+      <c r="D2452">
+        <v>3931000</v>
+      </c>
+      <c r="E2452">
+        <v>39310</v>
+      </c>
+      <c r="F2452">
+        <v>0</v>
+      </c>
+      <c r="G2452">
+        <v>12.662085</v>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2453">
+        <v>20</v>
+      </c>
+      <c r="D2453">
+        <v>363900</v>
+      </c>
+      <c r="E2453">
+        <v>3639</v>
+      </c>
+      <c r="F2453">
+        <v>0</v>
+      </c>
+      <c r="G2453">
+        <v>21.848692</v>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2454">
+        <v>20</v>
+      </c>
+      <c r="D2454">
+        <v>357600</v>
+      </c>
+      <c r="E2454">
+        <v>3576</v>
+      </c>
+      <c r="F2454">
+        <v>0</v>
+      </c>
+      <c r="G2454">
+        <v>19.66107</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2455">
+        <v>20</v>
+      </c>
+      <c r="D2455">
+        <v>357600</v>
+      </c>
+      <c r="E2455">
+        <v>3576</v>
+      </c>
+      <c r="F2455">
+        <v>0</v>
+      </c>
+      <c r="G2455">
+        <v>16.235735000000002</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2456">
+        <v>20</v>
+      </c>
+      <c r="D2456">
+        <v>3909300</v>
+      </c>
+      <c r="E2456">
+        <v>39093</v>
+      </c>
+      <c r="F2456">
+        <v>0</v>
+      </c>
+      <c r="G2456">
+        <v>10.239284</v>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2457">
+        <v>20</v>
+      </c>
+      <c r="D2457">
+        <v>372300</v>
+      </c>
+      <c r="E2457">
+        <v>3723</v>
+      </c>
+      <c r="F2457">
+        <v>0</v>
+      </c>
+      <c r="G2457">
+        <v>18.624599</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2458">
+        <v>20</v>
+      </c>
+      <c r="D2458">
+        <v>353000</v>
+      </c>
+      <c r="E2458">
+        <v>3530</v>
+      </c>
+      <c r="F2458">
+        <v>0</v>
+      </c>
+      <c r="G2458">
+        <v>18.023297</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2459">
+        <v>20</v>
+      </c>
+      <c r="D2459">
+        <v>353000</v>
+      </c>
+      <c r="E2459">
+        <v>3530</v>
+      </c>
+      <c r="F2459">
+        <v>0</v>
+      </c>
+      <c r="G2459">
+        <v>15.93611</v>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2460">
+        <v>20</v>
+      </c>
+      <c r="D2460">
+        <v>3918900</v>
+      </c>
+      <c r="E2460">
+        <v>39189</v>
+      </c>
+      <c r="F2460">
+        <v>0</v>
+      </c>
+      <c r="G2460">
+        <v>10.235631</v>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2461">
+        <v>20</v>
+      </c>
+      <c r="D2461">
+        <v>369400</v>
+      </c>
+      <c r="E2461">
+        <v>3694</v>
+      </c>
+      <c r="F2461">
+        <v>0</v>
+      </c>
+      <c r="G2461">
+        <v>17.257642</v>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2462">
+        <v>20</v>
+      </c>
+      <c r="D2462">
+        <v>362800</v>
+      </c>
+      <c r="E2462">
+        <v>3628</v>
+      </c>
+      <c r="F2462">
+        <v>0</v>
+      </c>
+      <c r="G2462">
+        <v>18.927987</v>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2463">
+        <v>20</v>
+      </c>
+      <c r="D2463">
+        <v>362800</v>
+      </c>
+      <c r="E2463">
+        <v>3628</v>
+      </c>
+      <c r="F2463">
+        <v>0</v>
+      </c>
+      <c r="G2463">
+        <v>15.889629</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2464">
+        <v>20</v>
+      </c>
+      <c r="D2464">
+        <v>3910700</v>
+      </c>
+      <c r="E2464">
+        <v>39107</v>
+      </c>
+      <c r="F2464">
+        <v>0</v>
+      </c>
+      <c r="G2464">
+        <v>7.980924</v>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2465">
+        <v>20</v>
+      </c>
+      <c r="D2465">
+        <v>357800</v>
+      </c>
+      <c r="E2465">
+        <v>3578</v>
+      </c>
+      <c r="F2465">
+        <v>0</v>
+      </c>
+      <c r="G2465">
+        <v>19.658082</v>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2466">
+        <v>20</v>
+      </c>
+      <c r="D2466">
+        <v>358700</v>
+      </c>
+      <c r="E2466">
+        <v>3587</v>
+      </c>
+      <c r="F2466">
+        <v>0</v>
+      </c>
+      <c r="G2466">
+        <v>18.67603</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2467">
+        <v>20</v>
+      </c>
+      <c r="D2467">
+        <v>358700</v>
+      </c>
+      <c r="E2467">
+        <v>3587</v>
+      </c>
+      <c r="F2467">
+        <v>0</v>
+      </c>
+      <c r="G2467">
+        <v>16.235253</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2468">
+        <v>20</v>
+      </c>
+      <c r="D2468">
+        <v>3920100</v>
+      </c>
+      <c r="E2468">
+        <v>39201</v>
+      </c>
+      <c r="F2468">
+        <v>0</v>
+      </c>
+      <c r="G2468">
+        <v>8.42128</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2469">
+        <v>20</v>
+      </c>
+      <c r="D2469">
+        <v>369100</v>
+      </c>
+      <c r="E2469">
+        <v>3691</v>
+      </c>
+      <c r="F2469">
+        <v>0</v>
+      </c>
+      <c r="G2469">
+        <v>18.220086</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2470">
+        <v>20</v>
+      </c>
+      <c r="D2470">
+        <v>358200</v>
+      </c>
+      <c r="E2470">
+        <v>3582</v>
+      </c>
+      <c r="F2470">
+        <v>0</v>
+      </c>
+      <c r="G2470">
+        <v>16.617663</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2471">
+        <v>20</v>
+      </c>
+      <c r="D2471">
+        <v>358200</v>
+      </c>
+      <c r="E2471">
+        <v>3582</v>
+      </c>
+      <c r="F2471">
+        <v>0</v>
+      </c>
+      <c r="G2471">
+        <v>15.800227</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2472">
+        <v>20</v>
+      </c>
+      <c r="D2472">
+        <v>3926500</v>
+      </c>
+      <c r="E2472">
+        <v>39265</v>
+      </c>
+      <c r="F2472">
+        <v>0</v>
+      </c>
+      <c r="G2472">
+        <v>12.16613</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2473">
+        <v>20</v>
+      </c>
+      <c r="D2473">
+        <v>370200</v>
+      </c>
+      <c r="E2473">
+        <v>3702</v>
+      </c>
+      <c r="F2473">
+        <v>0</v>
+      </c>
+      <c r="G2473">
+        <v>17.499793</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2474">
+        <v>20</v>
+      </c>
+      <c r="D2474">
+        <v>348100</v>
+      </c>
+      <c r="E2474">
+        <v>3481</v>
+      </c>
+      <c r="F2474">
+        <v>0</v>
+      </c>
+      <c r="G2474">
+        <v>28.324266</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2475">
+        <v>20</v>
+      </c>
+      <c r="D2475">
+        <v>348100</v>
+      </c>
+      <c r="E2475">
+        <v>3481</v>
+      </c>
+      <c r="F2475">
+        <v>0</v>
+      </c>
+      <c r="G2475">
+        <v>18.707496</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2476">
+        <v>20</v>
+      </c>
+      <c r="D2476">
+        <v>3921300</v>
+      </c>
+      <c r="E2476">
+        <v>39213</v>
+      </c>
+      <c r="F2476">
+        <v>0</v>
+      </c>
+      <c r="G2476">
+        <v>11.395172</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2477">
+        <v>20</v>
+      </c>
+      <c r="D2477">
+        <v>358400</v>
+      </c>
+      <c r="E2477">
+        <v>3584</v>
+      </c>
+      <c r="F2477">
+        <v>0</v>
+      </c>
+      <c r="G2477">
+        <v>20.414544</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2478">
+        <v>20</v>
+      </c>
+      <c r="D2478">
+        <v>353700</v>
+      </c>
+      <c r="E2478">
+        <v>3537</v>
+      </c>
+      <c r="F2478">
+        <v>0</v>
+      </c>
+      <c r="G2478">
+        <v>22.004416999999997</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2479">
+        <v>20</v>
+      </c>
+      <c r="D2479">
+        <v>353700</v>
+      </c>
+      <c r="E2479">
+        <v>3537</v>
+      </c>
+      <c r="F2479">
+        <v>0</v>
+      </c>
+      <c r="G2479">
+        <v>16.349905</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2480">
+        <v>20</v>
+      </c>
+      <c r="D2480">
+        <v>3919600</v>
+      </c>
+      <c r="E2480">
+        <v>39196</v>
+      </c>
+      <c r="F2480">
+        <v>0</v>
+      </c>
+      <c r="G2480">
+        <v>10.051616</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2481">
+        <v>20</v>
+      </c>
+      <c r="D2481">
+        <v>362800</v>
+      </c>
+      <c r="E2481">
+        <v>3628</v>
+      </c>
+      <c r="F2481">
+        <v>0</v>
+      </c>
+      <c r="G2481">
+        <v>18.548396</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2482">
+        <v>20</v>
+      </c>
+      <c r="D2482">
+        <v>363200</v>
+      </c>
+      <c r="E2482">
+        <v>3632</v>
+      </c>
+      <c r="F2482">
+        <v>0</v>
+      </c>
+      <c r="G2482">
+        <v>17.696503</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2483">
+        <v>20</v>
+      </c>
+      <c r="D2483">
+        <v>363200</v>
+      </c>
+      <c r="E2483">
+        <v>3632</v>
+      </c>
+      <c r="F2483">
+        <v>0</v>
+      </c>
+      <c r="G2483">
+        <v>18.31318</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2484">
+        <v>20</v>
+      </c>
+      <c r="D2484">
+        <v>3908200</v>
+      </c>
+      <c r="E2484">
+        <v>39082</v>
+      </c>
+      <c r="F2484">
+        <v>0</v>
+      </c>
+      <c r="G2484">
+        <v>11.609543</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2485">
+        <v>20</v>
+      </c>
+      <c r="D2485">
+        <v>372600</v>
+      </c>
+      <c r="E2485">
+        <v>3726</v>
+      </c>
+      <c r="F2485">
+        <v>0</v>
+      </c>
+      <c r="G2485">
+        <v>17.876768000000002</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2486">
+        <v>20</v>
+      </c>
+      <c r="D2486">
+        <v>358800</v>
+      </c>
+      <c r="E2486">
+        <v>3588</v>
+      </c>
+      <c r="F2486">
+        <v>0</v>
+      </c>
+      <c r="G2486">
+        <v>17.159711</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2487">
+        <v>20</v>
+      </c>
+      <c r="D2487">
+        <v>358800</v>
+      </c>
+      <c r="E2487">
+        <v>3588</v>
+      </c>
+      <c r="F2487">
+        <v>0</v>
+      </c>
+      <c r="G2487">
+        <v>16.060863</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2488">
+        <v>20</v>
+      </c>
+      <c r="D2488">
+        <v>3919600</v>
+      </c>
+      <c r="E2488">
+        <v>39196</v>
+      </c>
+      <c r="F2488">
+        <v>0</v>
+      </c>
+      <c r="G2488">
+        <v>8.177936</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2489">
+        <v>20</v>
+      </c>
+      <c r="D2489">
+        <v>373200</v>
+      </c>
+      <c r="E2489">
+        <v>3732</v>
+      </c>
+      <c r="F2489">
+        <v>0</v>
+      </c>
+      <c r="G2489">
+        <v>18.10939</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2490">
+        <v>20</v>
+      </c>
+      <c r="D2490">
+        <v>352500</v>
+      </c>
+      <c r="E2490">
+        <v>3525</v>
+      </c>
+      <c r="F2490">
+        <v>0</v>
+      </c>
+      <c r="G2490">
+        <v>16.211462</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2491">
+        <v>20</v>
+      </c>
+      <c r="D2491">
+        <v>352500</v>
+      </c>
+      <c r="E2491">
+        <v>3525</v>
+      </c>
+      <c r="F2491">
+        <v>0</v>
+      </c>
+      <c r="G2491">
+        <v>16.921356</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2492">
+        <v>20</v>
+      </c>
+      <c r="D2492">
+        <v>3911300</v>
+      </c>
+      <c r="E2492">
+        <v>39113</v>
+      </c>
+      <c r="F2492">
+        <v>0</v>
+      </c>
+      <c r="G2492">
+        <v>10.574318</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2493">
+        <v>20</v>
+      </c>
+      <c r="D2493">
+        <v>356700</v>
+      </c>
+      <c r="E2493">
+        <v>3567</v>
+      </c>
+      <c r="F2493">
+        <v>0</v>
+      </c>
+      <c r="G2493">
+        <v>17.111545</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2494">
+        <v>20</v>
+      </c>
+      <c r="D2494">
+        <v>358000</v>
+      </c>
+      <c r="E2494">
+        <v>3580</v>
+      </c>
+      <c r="F2494">
+        <v>0</v>
+      </c>
+      <c r="G2494">
+        <v>17.821333000000003</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2495">
+        <v>20</v>
+      </c>
+      <c r="D2495">
+        <v>358000</v>
+      </c>
+      <c r="E2495">
+        <v>3580</v>
+      </c>
+      <c r="F2495">
+        <v>0</v>
+      </c>
+      <c r="G2495">
+        <v>16.228067999999997</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2496">
+        <v>20</v>
+      </c>
+      <c r="D2496">
+        <v>3916600</v>
+      </c>
+      <c r="E2496">
+        <v>39166</v>
+      </c>
+      <c r="F2496">
+        <v>0</v>
+      </c>
+      <c r="G2496">
+        <v>10.816881</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2497">
+        <v>20</v>
+      </c>
+      <c r="D2497">
+        <v>369000</v>
+      </c>
+      <c r="E2497">
+        <v>3690</v>
+      </c>
+      <c r="F2497">
+        <v>0</v>
+      </c>
+      <c r="G2497">
+        <v>19.318406</v>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2498">
+        <v>20</v>
+      </c>
+      <c r="D2498">
+        <v>353700</v>
+      </c>
+      <c r="E2498">
+        <v>3537</v>
+      </c>
+      <c r="F2498">
+        <v>0</v>
+      </c>
+      <c r="G2498">
+        <v>18.495069</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2499">
+        <v>20</v>
+      </c>
+      <c r="D2499">
+        <v>353700</v>
+      </c>
+      <c r="E2499">
+        <v>3537</v>
+      </c>
+      <c r="F2499">
+        <v>0</v>
+      </c>
+      <c r="G2499">
+        <v>16.97912</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2500">
+        <v>20</v>
+      </c>
+      <c r="D2500">
+        <v>3921500</v>
+      </c>
+      <c r="E2500">
+        <v>39215</v>
+      </c>
+      <c r="F2500">
+        <v>0</v>
+      </c>
+      <c r="G2500">
+        <v>9.326813999999999</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2501">
+        <v>20</v>
+      </c>
+      <c r="D2501">
+        <v>365500</v>
+      </c>
+      <c r="E2501">
+        <v>3655</v>
+      </c>
+      <c r="F2501">
+        <v>0</v>
+      </c>
+      <c r="G2501">
+        <v>21.024317</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2502">
+        <v>20</v>
+      </c>
+      <c r="D2502">
+        <v>358900</v>
+      </c>
+      <c r="E2502">
+        <v>3589</v>
+      </c>
+      <c r="F2502">
+        <v>0</v>
+      </c>
+      <c r="G2502">
+        <v>19.662426</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2503">
+        <v>20</v>
+      </c>
+      <c r="D2503">
+        <v>358900</v>
+      </c>
+      <c r="E2503">
+        <v>3589</v>
+      </c>
+      <c r="F2503">
+        <v>0</v>
+      </c>
+      <c r="G2503">
+        <v>18.327148</v>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2504">
+        <v>20</v>
+      </c>
+      <c r="D2504">
+        <v>3922700</v>
+      </c>
+      <c r="E2504">
+        <v>39227</v>
+      </c>
+      <c r="F2504">
+        <v>0</v>
+      </c>
+      <c r="G2504">
+        <v>8.631972</v>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2505">
+        <v>20</v>
+      </c>
+      <c r="D2505">
+        <v>362100</v>
+      </c>
+      <c r="E2505">
+        <v>3621</v>
+      </c>
+      <c r="F2505">
+        <v>0</v>
+      </c>
+      <c r="G2505">
+        <v>17.659838</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/can2tsn_history.xlsx
+++ b/can2tsn_history.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -640,6 +640,237 @@
   <si>
     <t>2025-05-08 18:43:59</t>
   </si>
+  <si>
+    <t>2025-05-11 01:42:16</t>
+  </si>
+  <si>
+    <t>2025-05-11 01:48:16</t>
+  </si>
+  <si>
+    <t>2025-05-11 01:52:19</t>
+  </si>
+  <si>
+    <t>2025-05-11 01:54:09</t>
+  </si>
+  <si>
+    <t>2025-05-11 01:55:25</t>
+  </si>
+  <si>
+    <t>2025-05-11 01:56:27</t>
+  </si>
+  <si>
+    <t>2025-05-11 01:56:57</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:06:50</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:12:45</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:17:03</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:17:20</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:18:08</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:23:55</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:27:45</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:30:31</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:32:27</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:32:43</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:34:12</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:36:47</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:37:20</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:48:37</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:52:06</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:53:12</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:54:14</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:54:23</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:55:53</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:56:58</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:57:47</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:58:36</t>
+  </si>
+  <si>
+    <t>2025-05-11 02:59:04</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:01:04</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:02:54</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:03:52</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:04:17</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:06:20</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:06:29</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:07:21</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:08:30</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:11:19</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:11:33</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:16:01</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:18:43</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:20:22</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:23:08</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:24:18</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:24:44</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:37:24</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:39:50</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:44:07</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:45:45</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:47:14</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:48:19</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:48:28</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:49:43</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:50:27</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:51:13</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:51:55</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:52:17</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:52:42</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:52:50</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:53:07</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:55:25</t>
+  </si>
+  <si>
+    <t>2025-05-11 03:56:06</t>
+  </si>
+  <si>
+    <t>2025-05-11 04:04:35</t>
+  </si>
+  <si>
+    <t>2025-05-11 04:05:13</t>
+  </si>
+  <si>
+    <t>2025-05-11 04:21:41</t>
+  </si>
+  <si>
+    <t>2025-05-11 04:23:10</t>
+  </si>
+  <si>
+    <t>2025-05-11 04:32:03</t>
+  </si>
+  <si>
+    <t>2025-05-11 04:37:23</t>
+  </si>
+  <si>
+    <t>2025-05-11 04:44:15</t>
+  </si>
+  <si>
+    <t>2025-05-11 05:07:49</t>
+  </si>
+  <si>
+    <t>2025-05-11 05:18:51</t>
+  </si>
+  <si>
+    <t>2025-05-11 05:18:58</t>
+  </si>
+  <si>
+    <t>2025-05-11 05:32:29</t>
+  </si>
+  <si>
+    <t>2025-05-11 05:33:21</t>
+  </si>
+  <si>
+    <t>2025-05-11 05:34:50</t>
+  </si>
+  <si>
+    <t>2025-05-11 05:38:50</t>
+  </si>
 </sst>
 </file>
 
@@ -58573,6 +58804,7090 @@
         <v>17.659838</v>
       </c>
     </row>
+    <row r="2506">
+      <c r="A2506" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2506">
+        <v>20</v>
+      </c>
+      <c r="D2506">
+        <v>362900</v>
+      </c>
+      <c r="E2506">
+        <v>3629</v>
+      </c>
+      <c r="F2506">
+        <v>0</v>
+      </c>
+      <c r="G2506">
+        <v>17.647761000000003</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2507">
+        <v>20</v>
+      </c>
+      <c r="D2507">
+        <v>362900</v>
+      </c>
+      <c r="E2507">
+        <v>3629</v>
+      </c>
+      <c r="F2507">
+        <v>0</v>
+      </c>
+      <c r="G2507">
+        <v>15.816885999999998</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2508">
+        <v>20</v>
+      </c>
+      <c r="D2508">
+        <v>3912000</v>
+      </c>
+      <c r="E2508">
+        <v>39120</v>
+      </c>
+      <c r="F2508">
+        <v>0</v>
+      </c>
+      <c r="G2508">
+        <v>13.346675000000001</v>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2509">
+        <v>20</v>
+      </c>
+      <c r="D2509">
+        <v>364900</v>
+      </c>
+      <c r="E2509">
+        <v>3649</v>
+      </c>
+      <c r="F2509">
+        <v>0</v>
+      </c>
+      <c r="G2509">
+        <v>17.473114000000002</v>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2510">
+        <v>20</v>
+      </c>
+      <c r="D2510">
+        <v>362800</v>
+      </c>
+      <c r="E2510">
+        <v>3628</v>
+      </c>
+      <c r="F2510">
+        <v>0</v>
+      </c>
+      <c r="G2510">
+        <v>18.062006</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2511">
+        <v>20</v>
+      </c>
+      <c r="D2511">
+        <v>362800</v>
+      </c>
+      <c r="E2511">
+        <v>3628</v>
+      </c>
+      <c r="F2511">
+        <v>0</v>
+      </c>
+      <c r="G2511">
+        <v>16.387281</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2512">
+        <v>20</v>
+      </c>
+      <c r="D2512">
+        <v>3908300</v>
+      </c>
+      <c r="E2512">
+        <v>39083</v>
+      </c>
+      <c r="F2512">
+        <v>0</v>
+      </c>
+      <c r="G2512">
+        <v>8.107679</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2513">
+        <v>20</v>
+      </c>
+      <c r="D2513">
+        <v>368100</v>
+      </c>
+      <c r="E2513">
+        <v>3681</v>
+      </c>
+      <c r="F2513">
+        <v>0</v>
+      </c>
+      <c r="G2513">
+        <v>17.18515</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2514">
+        <v>20</v>
+      </c>
+      <c r="D2514">
+        <v>345500</v>
+      </c>
+      <c r="E2514">
+        <v>3455</v>
+      </c>
+      <c r="F2514">
+        <v>0</v>
+      </c>
+      <c r="G2514">
+        <v>18.553406000000003</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2515">
+        <v>20</v>
+      </c>
+      <c r="D2515">
+        <v>345500</v>
+      </c>
+      <c r="E2515">
+        <v>3455</v>
+      </c>
+      <c r="F2515">
+        <v>0</v>
+      </c>
+      <c r="G2515">
+        <v>16.529129</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2516">
+        <v>20</v>
+      </c>
+      <c r="D2516">
+        <v>3899600</v>
+      </c>
+      <c r="E2516">
+        <v>38996</v>
+      </c>
+      <c r="F2516">
+        <v>0</v>
+      </c>
+      <c r="G2516">
+        <v>9.911346</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2517">
+        <v>20</v>
+      </c>
+      <c r="D2517">
+        <v>360900</v>
+      </c>
+      <c r="E2517">
+        <v>3609</v>
+      </c>
+      <c r="F2517">
+        <v>0</v>
+      </c>
+      <c r="G2517">
+        <v>17.551009</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2518">
+        <v>20</v>
+      </c>
+      <c r="D2518">
+        <v>359800</v>
+      </c>
+      <c r="E2518">
+        <v>3598</v>
+      </c>
+      <c r="F2518">
+        <v>0</v>
+      </c>
+      <c r="G2518">
+        <v>18.459691</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2519">
+        <v>20</v>
+      </c>
+      <c r="D2519">
+        <v>359800</v>
+      </c>
+      <c r="E2519">
+        <v>3598</v>
+      </c>
+      <c r="F2519">
+        <v>0</v>
+      </c>
+      <c r="G2519">
+        <v>17.339131000000002</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2520">
+        <v>20</v>
+      </c>
+      <c r="D2520">
+        <v>3931100</v>
+      </c>
+      <c r="E2520">
+        <v>39311</v>
+      </c>
+      <c r="F2520">
+        <v>0</v>
+      </c>
+      <c r="G2520">
+        <v>14.014396999999999</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2521">
+        <v>20</v>
+      </c>
+      <c r="D2521">
+        <v>366600</v>
+      </c>
+      <c r="E2521">
+        <v>3666</v>
+      </c>
+      <c r="F2521">
+        <v>0</v>
+      </c>
+      <c r="G2521">
+        <v>19.225908999999998</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2522">
+        <v>20</v>
+      </c>
+      <c r="D2522">
+        <v>374900</v>
+      </c>
+      <c r="E2522">
+        <v>3749</v>
+      </c>
+      <c r="F2522">
+        <v>0</v>
+      </c>
+      <c r="G2522">
+        <v>18.341809</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2523">
+        <v>20</v>
+      </c>
+      <c r="D2523">
+        <v>374900</v>
+      </c>
+      <c r="E2523">
+        <v>3749</v>
+      </c>
+      <c r="F2523">
+        <v>0</v>
+      </c>
+      <c r="G2523">
+        <v>16.94163</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2524">
+        <v>20</v>
+      </c>
+      <c r="D2524">
+        <v>3922100</v>
+      </c>
+      <c r="E2524">
+        <v>39221</v>
+      </c>
+      <c r="F2524">
+        <v>0</v>
+      </c>
+      <c r="G2524">
+        <v>11.480450999999999</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2525">
+        <v>20</v>
+      </c>
+      <c r="D2525">
+        <v>369800</v>
+      </c>
+      <c r="E2525">
+        <v>3698</v>
+      </c>
+      <c r="F2525">
+        <v>0</v>
+      </c>
+      <c r="G2525">
+        <v>18.524074000000002</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2526">
+        <v>20</v>
+      </c>
+      <c r="D2526">
+        <v>363400</v>
+      </c>
+      <c r="E2526">
+        <v>3634</v>
+      </c>
+      <c r="F2526">
+        <v>0</v>
+      </c>
+      <c r="G2526">
+        <v>19.353026999999997</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2527">
+        <v>20</v>
+      </c>
+      <c r="D2527">
+        <v>363400</v>
+      </c>
+      <c r="E2527">
+        <v>3634</v>
+      </c>
+      <c r="F2527">
+        <v>0</v>
+      </c>
+      <c r="G2527">
+        <v>22.512863</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2528">
+        <v>20</v>
+      </c>
+      <c r="D2528">
+        <v>3905100</v>
+      </c>
+      <c r="E2528">
+        <v>39051</v>
+      </c>
+      <c r="F2528">
+        <v>0</v>
+      </c>
+      <c r="G2528">
+        <v>10.685484</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2529">
+        <v>20</v>
+      </c>
+      <c r="D2529">
+        <v>364300</v>
+      </c>
+      <c r="E2529">
+        <v>3643</v>
+      </c>
+      <c r="F2529">
+        <v>0</v>
+      </c>
+      <c r="G2529">
+        <v>19.246869</v>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2530">
+        <v>20</v>
+      </c>
+      <c r="D2530">
+        <v>363200</v>
+      </c>
+      <c r="E2530">
+        <v>3632</v>
+      </c>
+      <c r="F2530">
+        <v>0</v>
+      </c>
+      <c r="G2530">
+        <v>17.484121</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2531">
+        <v>20</v>
+      </c>
+      <c r="D2531">
+        <v>363200</v>
+      </c>
+      <c r="E2531">
+        <v>3632</v>
+      </c>
+      <c r="F2531">
+        <v>0</v>
+      </c>
+      <c r="G2531">
+        <v>18.791939</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2532">
+        <v>20</v>
+      </c>
+      <c r="D2532">
+        <v>3911100</v>
+      </c>
+      <c r="E2532">
+        <v>39111</v>
+      </c>
+      <c r="F2532">
+        <v>0</v>
+      </c>
+      <c r="G2532">
+        <v>9.044401</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2533">
+        <v>20</v>
+      </c>
+      <c r="D2533">
+        <v>368700</v>
+      </c>
+      <c r="E2533">
+        <v>3687</v>
+      </c>
+      <c r="F2533">
+        <v>0</v>
+      </c>
+      <c r="G2533">
+        <v>19.141756</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2534">
+        <v>20</v>
+      </c>
+      <c r="D2534">
+        <v>353400</v>
+      </c>
+      <c r="E2534">
+        <v>3534</v>
+      </c>
+      <c r="F2534">
+        <v>0</v>
+      </c>
+      <c r="G2534">
+        <v>17.66316</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2535">
+        <v>20</v>
+      </c>
+      <c r="D2535">
+        <v>353400</v>
+      </c>
+      <c r="E2535">
+        <v>3534</v>
+      </c>
+      <c r="F2535">
+        <v>0</v>
+      </c>
+      <c r="G2535">
+        <v>18.167876</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2536">
+        <v>20</v>
+      </c>
+      <c r="D2536">
+        <v>3921500</v>
+      </c>
+      <c r="E2536">
+        <v>39215</v>
+      </c>
+      <c r="F2536">
+        <v>0</v>
+      </c>
+      <c r="G2536">
+        <v>15.27289</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2537" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2537">
+        <v>20</v>
+      </c>
+      <c r="D2537">
+        <v>358600</v>
+      </c>
+      <c r="E2537">
+        <v>3586</v>
+      </c>
+      <c r="F2537">
+        <v>0</v>
+      </c>
+      <c r="G2537">
+        <v>17.658306</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2538">
+        <v>20</v>
+      </c>
+      <c r="D2538">
+        <v>351200</v>
+      </c>
+      <c r="E2538">
+        <v>3512</v>
+      </c>
+      <c r="F2538">
+        <v>0</v>
+      </c>
+      <c r="G2538">
+        <v>19.505205</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2539">
+        <v>20</v>
+      </c>
+      <c r="D2539">
+        <v>351200</v>
+      </c>
+      <c r="E2539">
+        <v>3512</v>
+      </c>
+      <c r="F2539">
+        <v>0</v>
+      </c>
+      <c r="G2539">
+        <v>21.100429000000002</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2540">
+        <v>20</v>
+      </c>
+      <c r="D2540">
+        <v>3902800</v>
+      </c>
+      <c r="E2540">
+        <v>39028</v>
+      </c>
+      <c r="F2540">
+        <v>0</v>
+      </c>
+      <c r="G2540">
+        <v>13.563092000000001</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2541">
+        <v>20</v>
+      </c>
+      <c r="D2541">
+        <v>367300</v>
+      </c>
+      <c r="E2541">
+        <v>3673</v>
+      </c>
+      <c r="F2541">
+        <v>0</v>
+      </c>
+      <c r="G2541">
+        <v>18.350763</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2542">
+        <v>20</v>
+      </c>
+      <c r="D2542">
+        <v>364800</v>
+      </c>
+      <c r="E2542">
+        <v>3648</v>
+      </c>
+      <c r="F2542">
+        <v>0</v>
+      </c>
+      <c r="G2542">
+        <v>21.526457999999998</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2543">
+        <v>20</v>
+      </c>
+      <c r="D2543">
+        <v>364800</v>
+      </c>
+      <c r="E2543">
+        <v>3648</v>
+      </c>
+      <c r="F2543">
+        <v>0</v>
+      </c>
+      <c r="G2543">
+        <v>16.45429</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2544">
+        <v>20</v>
+      </c>
+      <c r="D2544">
+        <v>3926000</v>
+      </c>
+      <c r="E2544">
+        <v>39260</v>
+      </c>
+      <c r="F2544">
+        <v>0</v>
+      </c>
+      <c r="G2544">
+        <v>17.038694</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2545">
+        <v>20</v>
+      </c>
+      <c r="D2545">
+        <v>366900</v>
+      </c>
+      <c r="E2545">
+        <v>3669</v>
+      </c>
+      <c r="F2545">
+        <v>0</v>
+      </c>
+      <c r="G2545">
+        <v>19.447125999999997</v>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2546">
+        <v>20</v>
+      </c>
+      <c r="D2546">
+        <v>346400</v>
+      </c>
+      <c r="E2546">
+        <v>3464</v>
+      </c>
+      <c r="F2546">
+        <v>0</v>
+      </c>
+      <c r="G2546">
+        <v>17.038577999999998</v>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2547">
+        <v>20</v>
+      </c>
+      <c r="D2547">
+        <v>346400</v>
+      </c>
+      <c r="E2547">
+        <v>3464</v>
+      </c>
+      <c r="F2547">
+        <v>0</v>
+      </c>
+      <c r="G2547">
+        <v>22.662544</v>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2548">
+        <v>20</v>
+      </c>
+      <c r="D2548">
+        <v>3906900</v>
+      </c>
+      <c r="E2548">
+        <v>39069</v>
+      </c>
+      <c r="F2548">
+        <v>0</v>
+      </c>
+      <c r="G2548">
+        <v>8.160828</v>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2549">
+        <v>20</v>
+      </c>
+      <c r="D2549">
+        <v>364900</v>
+      </c>
+      <c r="E2549">
+        <v>3649</v>
+      </c>
+      <c r="F2549">
+        <v>0</v>
+      </c>
+      <c r="G2549">
+        <v>17.438200000000002</v>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2550">
+        <v>20</v>
+      </c>
+      <c r="D2550">
+        <v>341300</v>
+      </c>
+      <c r="E2550">
+        <v>3413</v>
+      </c>
+      <c r="F2550">
+        <v>0</v>
+      </c>
+      <c r="G2550">
+        <v>18.894472999999998</v>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2551">
+        <v>20</v>
+      </c>
+      <c r="D2551">
+        <v>341300</v>
+      </c>
+      <c r="E2551">
+        <v>3413</v>
+      </c>
+      <c r="F2551">
+        <v>0</v>
+      </c>
+      <c r="G2551">
+        <v>16.412326</v>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2552">
+        <v>20</v>
+      </c>
+      <c r="D2552">
+        <v>3904200</v>
+      </c>
+      <c r="E2552">
+        <v>39042</v>
+      </c>
+      <c r="F2552">
+        <v>0</v>
+      </c>
+      <c r="G2552">
+        <v>8.948718</v>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2553">
+        <v>20</v>
+      </c>
+      <c r="D2553">
+        <v>360700</v>
+      </c>
+      <c r="E2553">
+        <v>3607</v>
+      </c>
+      <c r="F2553">
+        <v>0</v>
+      </c>
+      <c r="G2553">
+        <v>20.093565</v>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2554">
+        <v>20</v>
+      </c>
+      <c r="D2554">
+        <v>358100</v>
+      </c>
+      <c r="E2554">
+        <v>3581</v>
+      </c>
+      <c r="F2554">
+        <v>0</v>
+      </c>
+      <c r="G2554">
+        <v>19.606211</v>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2555">
+        <v>20</v>
+      </c>
+      <c r="D2555">
+        <v>358100</v>
+      </c>
+      <c r="E2555">
+        <v>3581</v>
+      </c>
+      <c r="F2555">
+        <v>0</v>
+      </c>
+      <c r="G2555">
+        <v>16.243800999999998</v>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2556">
+        <v>20</v>
+      </c>
+      <c r="D2556">
+        <v>3906900</v>
+      </c>
+      <c r="E2556">
+        <v>39069</v>
+      </c>
+      <c r="F2556">
+        <v>0</v>
+      </c>
+      <c r="G2556">
+        <v>11.683978</v>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2557">
+        <v>20</v>
+      </c>
+      <c r="D2557">
+        <v>368600</v>
+      </c>
+      <c r="E2557">
+        <v>3686</v>
+      </c>
+      <c r="F2557">
+        <v>0</v>
+      </c>
+      <c r="G2557">
+        <v>17.874542</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2558">
+        <v>20</v>
+      </c>
+      <c r="D2558">
+        <v>354400</v>
+      </c>
+      <c r="E2558">
+        <v>3544</v>
+      </c>
+      <c r="F2558">
+        <v>0</v>
+      </c>
+      <c r="G2558">
+        <v>17.727979</v>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2559">
+        <v>20</v>
+      </c>
+      <c r="D2559">
+        <v>354400</v>
+      </c>
+      <c r="E2559">
+        <v>3544</v>
+      </c>
+      <c r="F2559">
+        <v>0</v>
+      </c>
+      <c r="G2559">
+        <v>16.042873999999998</v>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2560">
+        <v>20</v>
+      </c>
+      <c r="D2560">
+        <v>3925400</v>
+      </c>
+      <c r="E2560">
+        <v>39254</v>
+      </c>
+      <c r="F2560">
+        <v>0</v>
+      </c>
+      <c r="G2560">
+        <v>8.593827</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2561">
+        <v>20</v>
+      </c>
+      <c r="D2561">
+        <v>363300</v>
+      </c>
+      <c r="E2561">
+        <v>3633</v>
+      </c>
+      <c r="F2561">
+        <v>0</v>
+      </c>
+      <c r="G2561">
+        <v>17.893591</v>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2562">
+        <v>20</v>
+      </c>
+      <c r="D2562">
+        <v>359100</v>
+      </c>
+      <c r="E2562">
+        <v>3591</v>
+      </c>
+      <c r="F2562">
+        <v>0</v>
+      </c>
+      <c r="G2562">
+        <v>16.756873</v>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2563" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2563">
+        <v>20</v>
+      </c>
+      <c r="D2563">
+        <v>359100</v>
+      </c>
+      <c r="E2563">
+        <v>3591</v>
+      </c>
+      <c r="F2563">
+        <v>0</v>
+      </c>
+      <c r="G2563">
+        <v>17.530993000000002</v>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2564">
+        <v>20</v>
+      </c>
+      <c r="D2564">
+        <v>3923600</v>
+      </c>
+      <c r="E2564">
+        <v>39236</v>
+      </c>
+      <c r="F2564">
+        <v>0</v>
+      </c>
+      <c r="G2564">
+        <v>8.270319</v>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2565">
+        <v>20</v>
+      </c>
+      <c r="D2565">
+        <v>366200</v>
+      </c>
+      <c r="E2565">
+        <v>3662</v>
+      </c>
+      <c r="F2565">
+        <v>0</v>
+      </c>
+      <c r="G2565">
+        <v>20.53918</v>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2566">
+        <v>20</v>
+      </c>
+      <c r="D2566">
+        <v>358700</v>
+      </c>
+      <c r="E2566">
+        <v>3587</v>
+      </c>
+      <c r="F2566">
+        <v>0</v>
+      </c>
+      <c r="G2566">
+        <v>19.441671</v>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2567">
+        <v>20</v>
+      </c>
+      <c r="D2567">
+        <v>358700</v>
+      </c>
+      <c r="E2567">
+        <v>3587</v>
+      </c>
+      <c r="F2567">
+        <v>0</v>
+      </c>
+      <c r="G2567">
+        <v>16.625847</v>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2568">
+        <v>20</v>
+      </c>
+      <c r="D2568">
+        <v>3916300</v>
+      </c>
+      <c r="E2568">
+        <v>39163</v>
+      </c>
+      <c r="F2568">
+        <v>0</v>
+      </c>
+      <c r="G2568">
+        <v>9.383883</v>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2569">
+        <v>20</v>
+      </c>
+      <c r="D2569">
+        <v>365900</v>
+      </c>
+      <c r="E2569">
+        <v>3659</v>
+      </c>
+      <c r="F2569">
+        <v>0</v>
+      </c>
+      <c r="G2569">
+        <v>18.109942</v>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2570">
+        <v>20</v>
+      </c>
+      <c r="D2570">
+        <v>342300</v>
+      </c>
+      <c r="E2570">
+        <v>3423</v>
+      </c>
+      <c r="F2570">
+        <v>0</v>
+      </c>
+      <c r="G2570">
+        <v>19.364845</v>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2571">
+        <v>20</v>
+      </c>
+      <c r="D2571">
+        <v>342300</v>
+      </c>
+      <c r="E2571">
+        <v>3423</v>
+      </c>
+      <c r="F2571">
+        <v>0</v>
+      </c>
+      <c r="G2571">
+        <v>18.964278</v>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2572">
+        <v>20</v>
+      </c>
+      <c r="D2572">
+        <v>3921900</v>
+      </c>
+      <c r="E2572">
+        <v>39219</v>
+      </c>
+      <c r="F2572">
+        <v>0</v>
+      </c>
+      <c r="G2572">
+        <v>9.94202</v>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2573">
+        <v>20</v>
+      </c>
+      <c r="D2573">
+        <v>363200</v>
+      </c>
+      <c r="E2573">
+        <v>3632</v>
+      </c>
+      <c r="F2573">
+        <v>0</v>
+      </c>
+      <c r="G2573">
+        <v>18.774194</v>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2574">
+        <v>20</v>
+      </c>
+      <c r="D2574">
+        <v>358000</v>
+      </c>
+      <c r="E2574">
+        <v>3580</v>
+      </c>
+      <c r="F2574">
+        <v>0</v>
+      </c>
+      <c r="G2574">
+        <v>17.160612</v>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2575">
+        <v>20</v>
+      </c>
+      <c r="D2575">
+        <v>358000</v>
+      </c>
+      <c r="E2575">
+        <v>3580</v>
+      </c>
+      <c r="F2575">
+        <v>0</v>
+      </c>
+      <c r="G2575">
+        <v>16.055518000000003</v>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2576">
+        <v>20</v>
+      </c>
+      <c r="D2576">
+        <v>3914400</v>
+      </c>
+      <c r="E2576">
+        <v>39144</v>
+      </c>
+      <c r="F2576">
+        <v>0</v>
+      </c>
+      <c r="G2576">
+        <v>11.60985</v>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2577">
+        <v>20</v>
+      </c>
+      <c r="D2577">
+        <v>362100</v>
+      </c>
+      <c r="E2577">
+        <v>3621</v>
+      </c>
+      <c r="F2577">
+        <v>0</v>
+      </c>
+      <c r="G2577">
+        <v>18.128888</v>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2578">
+        <v>20</v>
+      </c>
+      <c r="D2578">
+        <v>347400</v>
+      </c>
+      <c r="E2578">
+        <v>3474</v>
+      </c>
+      <c r="F2578">
+        <v>0</v>
+      </c>
+      <c r="G2578">
+        <v>18.231336000000002</v>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2579" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2579">
+        <v>20</v>
+      </c>
+      <c r="D2579">
+        <v>347400</v>
+      </c>
+      <c r="E2579">
+        <v>3474</v>
+      </c>
+      <c r="F2579">
+        <v>0</v>
+      </c>
+      <c r="G2579">
+        <v>20.084974</v>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2580">
+        <v>20</v>
+      </c>
+      <c r="D2580">
+        <v>3916200</v>
+      </c>
+      <c r="E2580">
+        <v>39162</v>
+      </c>
+      <c r="F2580">
+        <v>0</v>
+      </c>
+      <c r="G2580">
+        <v>8.622441</v>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2581" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2581">
+        <v>20</v>
+      </c>
+      <c r="D2581">
+        <v>358400</v>
+      </c>
+      <c r="E2581">
+        <v>3584</v>
+      </c>
+      <c r="F2581">
+        <v>0</v>
+      </c>
+      <c r="G2581">
+        <v>17.382179</v>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2582" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2582">
+        <v>20</v>
+      </c>
+      <c r="D2582">
+        <v>358000</v>
+      </c>
+      <c r="E2582">
+        <v>3580</v>
+      </c>
+      <c r="F2582">
+        <v>0</v>
+      </c>
+      <c r="G2582">
+        <v>17.925766</v>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2583" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2583">
+        <v>20</v>
+      </c>
+      <c r="D2583">
+        <v>358000</v>
+      </c>
+      <c r="E2583">
+        <v>3580</v>
+      </c>
+      <c r="F2583">
+        <v>0</v>
+      </c>
+      <c r="G2583">
+        <v>20.464105</v>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2584">
+        <v>20</v>
+      </c>
+      <c r="D2584">
+        <v>3920400</v>
+      </c>
+      <c r="E2584">
+        <v>39204</v>
+      </c>
+      <c r="F2584">
+        <v>0</v>
+      </c>
+      <c r="G2584">
+        <v>9.449536</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2585" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2585">
+        <v>20</v>
+      </c>
+      <c r="D2585">
+        <v>373700</v>
+      </c>
+      <c r="E2585">
+        <v>3737</v>
+      </c>
+      <c r="F2585">
+        <v>0</v>
+      </c>
+      <c r="G2585">
+        <v>19.336773</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2586">
+        <v>20</v>
+      </c>
+      <c r="D2586">
+        <v>358200</v>
+      </c>
+      <c r="E2586">
+        <v>3582</v>
+      </c>
+      <c r="F2586">
+        <v>0</v>
+      </c>
+      <c r="G2586">
+        <v>18.447288</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2587" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2587">
+        <v>20</v>
+      </c>
+      <c r="D2587">
+        <v>358200</v>
+      </c>
+      <c r="E2587">
+        <v>3582</v>
+      </c>
+      <c r="F2587">
+        <v>0</v>
+      </c>
+      <c r="G2587">
+        <v>17.554969</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2588" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2588">
+        <v>20</v>
+      </c>
+      <c r="D2588">
+        <v>3906600</v>
+      </c>
+      <c r="E2588">
+        <v>39066</v>
+      </c>
+      <c r="F2588">
+        <v>0</v>
+      </c>
+      <c r="G2588">
+        <v>10.123381</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2589" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2589">
+        <v>20</v>
+      </c>
+      <c r="D2589">
+        <v>364800</v>
+      </c>
+      <c r="E2589">
+        <v>3648</v>
+      </c>
+      <c r="F2589">
+        <v>0</v>
+      </c>
+      <c r="G2589">
+        <v>26.106082999999998</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2590" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2590">
+        <v>20</v>
+      </c>
+      <c r="D2590">
+        <v>347600</v>
+      </c>
+      <c r="E2590">
+        <v>3476</v>
+      </c>
+      <c r="F2590">
+        <v>0</v>
+      </c>
+      <c r="G2590">
+        <v>17.175893000000002</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2591" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2591">
+        <v>20</v>
+      </c>
+      <c r="D2591">
+        <v>347600</v>
+      </c>
+      <c r="E2591">
+        <v>3476</v>
+      </c>
+      <c r="F2591">
+        <v>0</v>
+      </c>
+      <c r="G2591">
+        <v>18.659281</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2592" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2592">
+        <v>20</v>
+      </c>
+      <c r="D2592">
+        <v>3916600</v>
+      </c>
+      <c r="E2592">
+        <v>39166</v>
+      </c>
+      <c r="F2592">
+        <v>0</v>
+      </c>
+      <c r="G2592">
+        <v>8.190078999999999</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2593" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2593">
+        <v>20</v>
+      </c>
+      <c r="D2593">
+        <v>362200</v>
+      </c>
+      <c r="E2593">
+        <v>3622</v>
+      </c>
+      <c r="F2593">
+        <v>0</v>
+      </c>
+      <c r="G2593">
+        <v>18.018929</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2594">
+        <v>20</v>
+      </c>
+      <c r="D2594">
+        <v>362700</v>
+      </c>
+      <c r="E2594">
+        <v>3627</v>
+      </c>
+      <c r="F2594">
+        <v>0</v>
+      </c>
+      <c r="G2594">
+        <v>18.440955</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2595" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2595">
+        <v>20</v>
+      </c>
+      <c r="D2595">
+        <v>362700</v>
+      </c>
+      <c r="E2595">
+        <v>3627</v>
+      </c>
+      <c r="F2595">
+        <v>0</v>
+      </c>
+      <c r="G2595">
+        <v>17.450116</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2596" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2596">
+        <v>20</v>
+      </c>
+      <c r="D2596">
+        <v>3906800</v>
+      </c>
+      <c r="E2596">
+        <v>39068</v>
+      </c>
+      <c r="F2596">
+        <v>0</v>
+      </c>
+      <c r="G2596">
+        <v>8.830767999999999</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2597" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2597">
+        <v>20</v>
+      </c>
+      <c r="D2597">
+        <v>368300</v>
+      </c>
+      <c r="E2597">
+        <v>3683</v>
+      </c>
+      <c r="F2597">
+        <v>0</v>
+      </c>
+      <c r="G2597">
+        <v>17.693627</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2598" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2598">
+        <v>20</v>
+      </c>
+      <c r="D2598">
+        <v>351900</v>
+      </c>
+      <c r="E2598">
+        <v>3519</v>
+      </c>
+      <c r="F2598">
+        <v>0</v>
+      </c>
+      <c r="G2598">
+        <v>21.87657</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2599" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2599">
+        <v>20</v>
+      </c>
+      <c r="D2599">
+        <v>351900</v>
+      </c>
+      <c r="E2599">
+        <v>3519</v>
+      </c>
+      <c r="F2599">
+        <v>0</v>
+      </c>
+      <c r="G2599">
+        <v>19.227949000000002</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2600" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2600">
+        <v>20</v>
+      </c>
+      <c r="D2600">
+        <v>3898700</v>
+      </c>
+      <c r="E2600">
+        <v>38987</v>
+      </c>
+      <c r="F2600">
+        <v>0</v>
+      </c>
+      <c r="G2600">
+        <v>7.996433000000001</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2601" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2601">
+        <v>20</v>
+      </c>
+      <c r="D2601">
+        <v>363600</v>
+      </c>
+      <c r="E2601">
+        <v>3636</v>
+      </c>
+      <c r="F2601">
+        <v>0</v>
+      </c>
+      <c r="G2601">
+        <v>17.977322</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2602" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2602">
+        <v>20</v>
+      </c>
+      <c r="D2602">
+        <v>368900</v>
+      </c>
+      <c r="E2602">
+        <v>3689</v>
+      </c>
+      <c r="F2602">
+        <v>0</v>
+      </c>
+      <c r="G2602">
+        <v>17.364656999999998</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2603" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2603">
+        <v>20</v>
+      </c>
+      <c r="D2603">
+        <v>368900</v>
+      </c>
+      <c r="E2603">
+        <v>3689</v>
+      </c>
+      <c r="F2603">
+        <v>0</v>
+      </c>
+      <c r="G2603">
+        <v>16.628635</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2604">
+        <v>20</v>
+      </c>
+      <c r="D2604">
+        <v>3908300</v>
+      </c>
+      <c r="E2604">
+        <v>39083</v>
+      </c>
+      <c r="F2604">
+        <v>0</v>
+      </c>
+      <c r="G2604">
+        <v>8.379366</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2605" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2605">
+        <v>20</v>
+      </c>
+      <c r="D2605">
+        <v>368100</v>
+      </c>
+      <c r="E2605">
+        <v>3681</v>
+      </c>
+      <c r="F2605">
+        <v>0</v>
+      </c>
+      <c r="G2605">
+        <v>18.703920999999998</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2606">
+        <v>20</v>
+      </c>
+      <c r="D2606">
+        <v>348500</v>
+      </c>
+      <c r="E2606">
+        <v>3485</v>
+      </c>
+      <c r="F2606">
+        <v>0</v>
+      </c>
+      <c r="G2606">
+        <v>18.114517</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2607" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2607">
+        <v>20</v>
+      </c>
+      <c r="D2607">
+        <v>348500</v>
+      </c>
+      <c r="E2607">
+        <v>3485</v>
+      </c>
+      <c r="F2607">
+        <v>0</v>
+      </c>
+      <c r="G2607">
+        <v>16.859215</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2608" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2608">
+        <v>20</v>
+      </c>
+      <c r="D2608">
+        <v>3917200</v>
+      </c>
+      <c r="E2608">
+        <v>39172</v>
+      </c>
+      <c r="F2608">
+        <v>0</v>
+      </c>
+      <c r="G2608">
+        <v>8.493171</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2609" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2609">
+        <v>20</v>
+      </c>
+      <c r="D2609">
+        <v>368700</v>
+      </c>
+      <c r="E2609">
+        <v>3687</v>
+      </c>
+      <c r="F2609">
+        <v>0</v>
+      </c>
+      <c r="G2609">
+        <v>18.123136000000002</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2610" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2610">
+        <v>20</v>
+      </c>
+      <c r="D2610">
+        <v>352900</v>
+      </c>
+      <c r="E2610">
+        <v>3529</v>
+      </c>
+      <c r="F2610">
+        <v>0</v>
+      </c>
+      <c r="G2610">
+        <v>18.042724</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2611" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2611">
+        <v>20</v>
+      </c>
+      <c r="D2611">
+        <v>352900</v>
+      </c>
+      <c r="E2611">
+        <v>3529</v>
+      </c>
+      <c r="F2611">
+        <v>0</v>
+      </c>
+      <c r="G2611">
+        <v>17.617336</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2612" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2612">
+        <v>20</v>
+      </c>
+      <c r="D2612">
+        <v>3915700</v>
+      </c>
+      <c r="E2612">
+        <v>39157</v>
+      </c>
+      <c r="F2612">
+        <v>0</v>
+      </c>
+      <c r="G2612">
+        <v>9.840036</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2613" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2613">
+        <v>20</v>
+      </c>
+      <c r="D2613">
+        <v>365100</v>
+      </c>
+      <c r="E2613">
+        <v>3651</v>
+      </c>
+      <c r="F2613">
+        <v>0</v>
+      </c>
+      <c r="G2613">
+        <v>17.50676</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2614" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2614">
+        <v>20</v>
+      </c>
+      <c r="D2614">
+        <v>359000</v>
+      </c>
+      <c r="E2614">
+        <v>3590</v>
+      </c>
+      <c r="F2614">
+        <v>0</v>
+      </c>
+      <c r="G2614">
+        <v>18.401398</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2615" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2615">
+        <v>20</v>
+      </c>
+      <c r="D2615">
+        <v>359000</v>
+      </c>
+      <c r="E2615">
+        <v>3590</v>
+      </c>
+      <c r="F2615">
+        <v>0</v>
+      </c>
+      <c r="G2615">
+        <v>16.086266</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2616" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2616">
+        <v>20</v>
+      </c>
+      <c r="D2616">
+        <v>3919700</v>
+      </c>
+      <c r="E2616">
+        <v>39197</v>
+      </c>
+      <c r="F2616">
+        <v>0</v>
+      </c>
+      <c r="G2616">
+        <v>8.142564</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2617" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2617">
+        <v>20</v>
+      </c>
+      <c r="D2617">
+        <v>373900</v>
+      </c>
+      <c r="E2617">
+        <v>3739</v>
+      </c>
+      <c r="F2617">
+        <v>0</v>
+      </c>
+      <c r="G2617">
+        <v>18.931333000000002</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2618" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2618">
+        <v>20</v>
+      </c>
+      <c r="D2618">
+        <v>357100</v>
+      </c>
+      <c r="E2618">
+        <v>3571</v>
+      </c>
+      <c r="F2618">
+        <v>0</v>
+      </c>
+      <c r="G2618">
+        <v>18.832137</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2619" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2619">
+        <v>20</v>
+      </c>
+      <c r="D2619">
+        <v>357100</v>
+      </c>
+      <c r="E2619">
+        <v>3571</v>
+      </c>
+      <c r="F2619">
+        <v>0</v>
+      </c>
+      <c r="G2619">
+        <v>16.960442</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2620" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2620">
+        <v>20</v>
+      </c>
+      <c r="D2620">
+        <v>3909500</v>
+      </c>
+      <c r="E2620">
+        <v>39095</v>
+      </c>
+      <c r="F2620">
+        <v>0</v>
+      </c>
+      <c r="G2620">
+        <v>19.929801</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2621" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2621">
+        <v>20</v>
+      </c>
+      <c r="D2621">
+        <v>361200</v>
+      </c>
+      <c r="E2621">
+        <v>3612</v>
+      </c>
+      <c r="F2621">
+        <v>0</v>
+      </c>
+      <c r="G2621">
+        <v>20.904564</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2622" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2622">
+        <v>20</v>
+      </c>
+      <c r="D2622">
+        <v>353000</v>
+      </c>
+      <c r="E2622">
+        <v>3530</v>
+      </c>
+      <c r="F2622">
+        <v>0</v>
+      </c>
+      <c r="G2622">
+        <v>18.595052000000003</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2623" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2623">
+        <v>20</v>
+      </c>
+      <c r="D2623">
+        <v>353000</v>
+      </c>
+      <c r="E2623">
+        <v>3530</v>
+      </c>
+      <c r="F2623">
+        <v>0</v>
+      </c>
+      <c r="G2623">
+        <v>19.410372</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2624" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2624">
+        <v>20</v>
+      </c>
+      <c r="D2624">
+        <v>3914900</v>
+      </c>
+      <c r="E2624">
+        <v>39149</v>
+      </c>
+      <c r="F2624">
+        <v>0</v>
+      </c>
+      <c r="G2624">
+        <v>8.590153999999998</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2625" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2625">
+        <v>20</v>
+      </c>
+      <c r="D2625">
+        <v>372600</v>
+      </c>
+      <c r="E2625">
+        <v>3726</v>
+      </c>
+      <c r="F2625">
+        <v>0</v>
+      </c>
+      <c r="G2625">
+        <v>18.996266000000002</v>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2626" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2626">
+        <v>20</v>
+      </c>
+      <c r="D2626">
+        <v>358200</v>
+      </c>
+      <c r="E2626">
+        <v>3582</v>
+      </c>
+      <c r="F2626">
+        <v>0</v>
+      </c>
+      <c r="G2626">
+        <v>17.602658</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2627" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2627">
+        <v>20</v>
+      </c>
+      <c r="D2627">
+        <v>358200</v>
+      </c>
+      <c r="E2627">
+        <v>3582</v>
+      </c>
+      <c r="F2627">
+        <v>0</v>
+      </c>
+      <c r="G2627">
+        <v>19.022561</v>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2628" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2628">
+        <v>20</v>
+      </c>
+      <c r="D2628">
+        <v>3913800</v>
+      </c>
+      <c r="E2628">
+        <v>39138</v>
+      </c>
+      <c r="F2628">
+        <v>0</v>
+      </c>
+      <c r="G2628">
+        <v>8.285597000000001</v>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2629" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2629">
+        <v>20</v>
+      </c>
+      <c r="D2629">
+        <v>357700</v>
+      </c>
+      <c r="E2629">
+        <v>3577</v>
+      </c>
+      <c r="F2629">
+        <v>0</v>
+      </c>
+      <c r="G2629">
+        <v>17.359047999999998</v>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2630" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2630">
+        <v>20</v>
+      </c>
+      <c r="D2630">
+        <v>359300</v>
+      </c>
+      <c r="E2630">
+        <v>3593</v>
+      </c>
+      <c r="F2630">
+        <v>0</v>
+      </c>
+      <c r="G2630">
+        <v>17.509158</v>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2631" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2631">
+        <v>20</v>
+      </c>
+      <c r="D2631">
+        <v>359300</v>
+      </c>
+      <c r="E2631">
+        <v>3593</v>
+      </c>
+      <c r="F2631">
+        <v>0</v>
+      </c>
+      <c r="G2631">
+        <v>16.858588</v>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2632" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2632">
+        <v>20</v>
+      </c>
+      <c r="D2632">
+        <v>3930300</v>
+      </c>
+      <c r="E2632">
+        <v>39303</v>
+      </c>
+      <c r="F2632">
+        <v>0</v>
+      </c>
+      <c r="G2632">
+        <v>8.626764999999999</v>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2633" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2633">
+        <v>20</v>
+      </c>
+      <c r="D2633">
+        <v>366400</v>
+      </c>
+      <c r="E2633">
+        <v>3664</v>
+      </c>
+      <c r="F2633">
+        <v>0</v>
+      </c>
+      <c r="G2633">
+        <v>17.704661</v>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2634" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2634">
+        <v>20</v>
+      </c>
+      <c r="D2634">
+        <v>353500</v>
+      </c>
+      <c r="E2634">
+        <v>3535</v>
+      </c>
+      <c r="F2634">
+        <v>0</v>
+      </c>
+      <c r="G2634">
+        <v>18.23089</v>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2635" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2635">
+        <v>20</v>
+      </c>
+      <c r="D2635">
+        <v>353500</v>
+      </c>
+      <c r="E2635">
+        <v>3535</v>
+      </c>
+      <c r="F2635">
+        <v>0</v>
+      </c>
+      <c r="G2635">
+        <v>17.079921000000002</v>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2636" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2636">
+        <v>20</v>
+      </c>
+      <c r="D2636">
+        <v>3926700</v>
+      </c>
+      <c r="E2636">
+        <v>39267</v>
+      </c>
+      <c r="F2636">
+        <v>0</v>
+      </c>
+      <c r="G2636">
+        <v>8.051055</v>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2637" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2637">
+        <v>20</v>
+      </c>
+      <c r="D2637">
+        <v>362800</v>
+      </c>
+      <c r="E2637">
+        <v>3628</v>
+      </c>
+      <c r="F2637">
+        <v>0</v>
+      </c>
+      <c r="G2637">
+        <v>18.893399000000002</v>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2638" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2638">
+        <v>20</v>
+      </c>
+      <c r="D2638">
+        <v>348300</v>
+      </c>
+      <c r="E2638">
+        <v>3483</v>
+      </c>
+      <c r="F2638">
+        <v>0</v>
+      </c>
+      <c r="G2638">
+        <v>17.117442</v>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2639" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2639">
+        <v>20</v>
+      </c>
+      <c r="D2639">
+        <v>348300</v>
+      </c>
+      <c r="E2639">
+        <v>3483</v>
+      </c>
+      <c r="F2639">
+        <v>0</v>
+      </c>
+      <c r="G2639">
+        <v>19.324952999999997</v>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2640" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2640">
+        <v>20</v>
+      </c>
+      <c r="D2640">
+        <v>3920400</v>
+      </c>
+      <c r="E2640">
+        <v>39204</v>
+      </c>
+      <c r="F2640">
+        <v>0</v>
+      </c>
+      <c r="G2640">
+        <v>8.502923000000001</v>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2641" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2641">
+        <v>20</v>
+      </c>
+      <c r="D2641">
+        <v>362600</v>
+      </c>
+      <c r="E2641">
+        <v>3626</v>
+      </c>
+      <c r="F2641">
+        <v>0</v>
+      </c>
+      <c r="G2641">
+        <v>17.517521000000002</v>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2642" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2642">
+        <v>20</v>
+      </c>
+      <c r="D2642">
+        <v>358300</v>
+      </c>
+      <c r="E2642">
+        <v>3583</v>
+      </c>
+      <c r="F2642">
+        <v>0</v>
+      </c>
+      <c r="G2642">
+        <v>20.109801</v>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2643" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2643">
+        <v>20</v>
+      </c>
+      <c r="D2643">
+        <v>358300</v>
+      </c>
+      <c r="E2643">
+        <v>3583</v>
+      </c>
+      <c r="F2643">
+        <v>0</v>
+      </c>
+      <c r="G2643">
+        <v>23.608692</v>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2644">
+        <v>20</v>
+      </c>
+      <c r="D2644">
+        <v>3914000</v>
+      </c>
+      <c r="E2644">
+        <v>39140</v>
+      </c>
+      <c r="F2644">
+        <v>0</v>
+      </c>
+      <c r="G2644">
+        <v>10.518873999999999</v>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2645">
+        <v>20</v>
+      </c>
+      <c r="D2645">
+        <v>361200</v>
+      </c>
+      <c r="E2645">
+        <v>3612</v>
+      </c>
+      <c r="F2645">
+        <v>0</v>
+      </c>
+      <c r="G2645">
+        <v>20.958596</v>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2646">
+        <v>20</v>
+      </c>
+      <c r="D2646">
+        <v>363900</v>
+      </c>
+      <c r="E2646">
+        <v>3639</v>
+      </c>
+      <c r="F2646">
+        <v>0</v>
+      </c>
+      <c r="G2646">
+        <v>23.094815</v>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2647">
+        <v>20</v>
+      </c>
+      <c r="D2647">
+        <v>363900</v>
+      </c>
+      <c r="E2647">
+        <v>3639</v>
+      </c>
+      <c r="F2647">
+        <v>0</v>
+      </c>
+      <c r="G2647">
+        <v>18.790727</v>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2648">
+        <v>20</v>
+      </c>
+      <c r="D2648">
+        <v>3920700</v>
+      </c>
+      <c r="E2648">
+        <v>39207</v>
+      </c>
+      <c r="F2648">
+        <v>0</v>
+      </c>
+      <c r="G2648">
+        <v>10.366762</v>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2649">
+        <v>20</v>
+      </c>
+      <c r="D2649">
+        <v>369200</v>
+      </c>
+      <c r="E2649">
+        <v>3692</v>
+      </c>
+      <c r="F2649">
+        <v>0</v>
+      </c>
+      <c r="G2649">
+        <v>22.564985</v>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2650" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2650">
+        <v>20</v>
+      </c>
+      <c r="D2650">
+        <v>358300</v>
+      </c>
+      <c r="E2650">
+        <v>3583</v>
+      </c>
+      <c r="F2650">
+        <v>0</v>
+      </c>
+      <c r="G2650">
+        <v>18.515483999999997</v>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2651">
+        <v>20</v>
+      </c>
+      <c r="D2651">
+        <v>358300</v>
+      </c>
+      <c r="E2651">
+        <v>3583</v>
+      </c>
+      <c r="F2651">
+        <v>0</v>
+      </c>
+      <c r="G2651">
+        <v>17.35135</v>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2652">
+        <v>20</v>
+      </c>
+      <c r="D2652">
+        <v>3915400</v>
+      </c>
+      <c r="E2652">
+        <v>39154</v>
+      </c>
+      <c r="F2652">
+        <v>0</v>
+      </c>
+      <c r="G2652">
+        <v>8.498828</v>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2653" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2653">
+        <v>20</v>
+      </c>
+      <c r="D2653">
+        <v>362600</v>
+      </c>
+      <c r="E2653">
+        <v>3626</v>
+      </c>
+      <c r="F2653">
+        <v>0</v>
+      </c>
+      <c r="G2653">
+        <v>17.474719999999998</v>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2654" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2654">
+        <v>20</v>
+      </c>
+      <c r="D2654">
+        <v>358600</v>
+      </c>
+      <c r="E2654">
+        <v>3586</v>
+      </c>
+      <c r="F2654">
+        <v>0</v>
+      </c>
+      <c r="G2654">
+        <v>18.725323</v>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2655" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2655">
+        <v>20</v>
+      </c>
+      <c r="D2655">
+        <v>358600</v>
+      </c>
+      <c r="E2655">
+        <v>3586</v>
+      </c>
+      <c r="F2655">
+        <v>0</v>
+      </c>
+      <c r="G2655">
+        <v>19.485782</v>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2656" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2656">
+        <v>20</v>
+      </c>
+      <c r="D2656">
+        <v>3925200</v>
+      </c>
+      <c r="E2656">
+        <v>39252</v>
+      </c>
+      <c r="F2656">
+        <v>0</v>
+      </c>
+      <c r="G2656">
+        <v>10.717666000000001</v>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2657" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2657">
+        <v>20</v>
+      </c>
+      <c r="D2657">
+        <v>366200</v>
+      </c>
+      <c r="E2657">
+        <v>3662</v>
+      </c>
+      <c r="F2657">
+        <v>0</v>
+      </c>
+      <c r="G2657">
+        <v>17.959282</v>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2658" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2658">
+        <v>20</v>
+      </c>
+      <c r="D2658">
+        <v>353000</v>
+      </c>
+      <c r="E2658">
+        <v>3530</v>
+      </c>
+      <c r="F2658">
+        <v>0</v>
+      </c>
+      <c r="G2658">
+        <v>19.135554</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2659" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2659">
+        <v>20</v>
+      </c>
+      <c r="D2659">
+        <v>353000</v>
+      </c>
+      <c r="E2659">
+        <v>3530</v>
+      </c>
+      <c r="F2659">
+        <v>0</v>
+      </c>
+      <c r="G2659">
+        <v>19.424017</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2660" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2660">
+        <v>20</v>
+      </c>
+      <c r="D2660">
+        <v>3919400</v>
+      </c>
+      <c r="E2660">
+        <v>39194</v>
+      </c>
+      <c r="F2660">
+        <v>0</v>
+      </c>
+      <c r="G2660">
+        <v>10.658183</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2661" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2661">
+        <v>20</v>
+      </c>
+      <c r="D2661">
+        <v>358800</v>
+      </c>
+      <c r="E2661">
+        <v>3588</v>
+      </c>
+      <c r="F2661">
+        <v>0</v>
+      </c>
+      <c r="G2661">
+        <v>18.222431</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2662" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2662">
+        <v>20</v>
+      </c>
+      <c r="D2662">
+        <v>357900</v>
+      </c>
+      <c r="E2662">
+        <v>3579</v>
+      </c>
+      <c r="F2662">
+        <v>0</v>
+      </c>
+      <c r="G2662">
+        <v>18.901676</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2663" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2663">
+        <v>20</v>
+      </c>
+      <c r="D2663">
+        <v>357900</v>
+      </c>
+      <c r="E2663">
+        <v>3579</v>
+      </c>
+      <c r="F2663">
+        <v>0</v>
+      </c>
+      <c r="G2663">
+        <v>17.029136</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2664" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2664">
+        <v>20</v>
+      </c>
+      <c r="D2664">
+        <v>3917400</v>
+      </c>
+      <c r="E2664">
+        <v>39174</v>
+      </c>
+      <c r="F2664">
+        <v>0</v>
+      </c>
+      <c r="G2664">
+        <v>8.386294000000001</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2665" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2665">
+        <v>20</v>
+      </c>
+      <c r="D2665">
+        <v>364500</v>
+      </c>
+      <c r="E2665">
+        <v>3645</v>
+      </c>
+      <c r="F2665">
+        <v>0</v>
+      </c>
+      <c r="G2665">
+        <v>18.639272</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2666" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2666">
+        <v>20</v>
+      </c>
+      <c r="D2666">
+        <v>352300</v>
+      </c>
+      <c r="E2666">
+        <v>3523</v>
+      </c>
+      <c r="F2666">
+        <v>0</v>
+      </c>
+      <c r="G2666">
+        <v>16.858840999999998</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2667" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2667">
+        <v>20</v>
+      </c>
+      <c r="D2667">
+        <v>352300</v>
+      </c>
+      <c r="E2667">
+        <v>3523</v>
+      </c>
+      <c r="F2667">
+        <v>0</v>
+      </c>
+      <c r="G2667">
+        <v>16.405578000000002</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2668" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2668">
+        <v>20</v>
+      </c>
+      <c r="D2668">
+        <v>3913300</v>
+      </c>
+      <c r="E2668">
+        <v>39133</v>
+      </c>
+      <c r="F2668">
+        <v>0</v>
+      </c>
+      <c r="G2668">
+        <v>9.319751</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2669" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2669">
+        <v>20</v>
+      </c>
+      <c r="D2669">
+        <v>350000</v>
+      </c>
+      <c r="E2669">
+        <v>3500</v>
+      </c>
+      <c r="F2669">
+        <v>0</v>
+      </c>
+      <c r="G2669">
+        <v>20.727211999999998</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2670" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2670">
+        <v>20</v>
+      </c>
+      <c r="D2670">
+        <v>351900</v>
+      </c>
+      <c r="E2670">
+        <v>3519</v>
+      </c>
+      <c r="F2670">
+        <v>0</v>
+      </c>
+      <c r="G2670">
+        <v>19.152632999999998</v>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2671" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2671">
+        <v>20</v>
+      </c>
+      <c r="D2671">
+        <v>351900</v>
+      </c>
+      <c r="E2671">
+        <v>3519</v>
+      </c>
+      <c r="F2671">
+        <v>0</v>
+      </c>
+      <c r="G2671">
+        <v>17.394852999999998</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2672" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2672">
+        <v>20</v>
+      </c>
+      <c r="D2672">
+        <v>3909400</v>
+      </c>
+      <c r="E2672">
+        <v>39094</v>
+      </c>
+      <c r="F2672">
+        <v>0</v>
+      </c>
+      <c r="G2672">
+        <v>10.982995</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2673" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2673">
+        <v>20</v>
+      </c>
+      <c r="D2673">
+        <v>368600</v>
+      </c>
+      <c r="E2673">
+        <v>3686</v>
+      </c>
+      <c r="F2673">
+        <v>0</v>
+      </c>
+      <c r="G2673">
+        <v>18.504468</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2674" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2674">
+        <v>20</v>
+      </c>
+      <c r="D2674">
+        <v>358100</v>
+      </c>
+      <c r="E2674">
+        <v>3581</v>
+      </c>
+      <c r="F2674">
+        <v>0</v>
+      </c>
+      <c r="G2674">
+        <v>18.192681</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2675" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2675">
+        <v>20</v>
+      </c>
+      <c r="D2675">
+        <v>358100</v>
+      </c>
+      <c r="E2675">
+        <v>3581</v>
+      </c>
+      <c r="F2675">
+        <v>0</v>
+      </c>
+      <c r="G2675">
+        <v>16.187598</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2676" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2676">
+        <v>20</v>
+      </c>
+      <c r="D2676">
+        <v>3921000</v>
+      </c>
+      <c r="E2676">
+        <v>39210</v>
+      </c>
+      <c r="F2676">
+        <v>0</v>
+      </c>
+      <c r="G2676">
+        <v>10.03622</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2677" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2677">
+        <v>20</v>
+      </c>
+      <c r="D2677">
+        <v>369700</v>
+      </c>
+      <c r="E2677">
+        <v>3697</v>
+      </c>
+      <c r="F2677">
+        <v>0</v>
+      </c>
+      <c r="G2677">
+        <v>18.83365</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2678" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2678">
+        <v>20</v>
+      </c>
+      <c r="D2678">
+        <v>342800</v>
+      </c>
+      <c r="E2678">
+        <v>3428</v>
+      </c>
+      <c r="F2678">
+        <v>0</v>
+      </c>
+      <c r="G2678">
+        <v>18.790142</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2679" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2679">
+        <v>20</v>
+      </c>
+      <c r="D2679">
+        <v>342800</v>
+      </c>
+      <c r="E2679">
+        <v>3428</v>
+      </c>
+      <c r="F2679">
+        <v>0</v>
+      </c>
+      <c r="G2679">
+        <v>16.961695</v>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2680" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2680">
+        <v>20</v>
+      </c>
+      <c r="D2680">
+        <v>3923400</v>
+      </c>
+      <c r="E2680">
+        <v>39234</v>
+      </c>
+      <c r="F2680">
+        <v>0</v>
+      </c>
+      <c r="G2680">
+        <v>8.309992000000001</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2681" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2681">
+        <v>20</v>
+      </c>
+      <c r="D2681">
+        <v>365800</v>
+      </c>
+      <c r="E2681">
+        <v>3658</v>
+      </c>
+      <c r="F2681">
+        <v>0</v>
+      </c>
+      <c r="G2681">
+        <v>24.831882999999998</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2682" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2682">
+        <v>20</v>
+      </c>
+      <c r="D2682">
+        <v>352300</v>
+      </c>
+      <c r="E2682">
+        <v>3523</v>
+      </c>
+      <c r="F2682">
+        <v>0</v>
+      </c>
+      <c r="G2682">
+        <v>16.692917</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2683" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2683">
+        <v>20</v>
+      </c>
+      <c r="D2683">
+        <v>352300</v>
+      </c>
+      <c r="E2683">
+        <v>3523</v>
+      </c>
+      <c r="F2683">
+        <v>0</v>
+      </c>
+      <c r="G2683">
+        <v>16.139404</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2684" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2684">
+        <v>20</v>
+      </c>
+      <c r="D2684">
+        <v>3904000</v>
+      </c>
+      <c r="E2684">
+        <v>39040</v>
+      </c>
+      <c r="F2684">
+        <v>0</v>
+      </c>
+      <c r="G2684">
+        <v>10.829466</v>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2685" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2685">
+        <v>20</v>
+      </c>
+      <c r="D2685">
+        <v>364400</v>
+      </c>
+      <c r="E2685">
+        <v>3644</v>
+      </c>
+      <c r="F2685">
+        <v>0</v>
+      </c>
+      <c r="G2685">
+        <v>17.725589</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2686" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2686">
+        <v>20</v>
+      </c>
+      <c r="D2686">
+        <v>346500</v>
+      </c>
+      <c r="E2686">
+        <v>3465</v>
+      </c>
+      <c r="F2686">
+        <v>0</v>
+      </c>
+      <c r="G2686">
+        <v>17.810563000000002</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2687" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2687">
+        <v>20</v>
+      </c>
+      <c r="D2687">
+        <v>346500</v>
+      </c>
+      <c r="E2687">
+        <v>3465</v>
+      </c>
+      <c r="F2687">
+        <v>0</v>
+      </c>
+      <c r="G2687">
+        <v>22.647457</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2688" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2688">
+        <v>20</v>
+      </c>
+      <c r="D2688">
+        <v>3912800</v>
+      </c>
+      <c r="E2688">
+        <v>39128</v>
+      </c>
+      <c r="F2688">
+        <v>0</v>
+      </c>
+      <c r="G2688">
+        <v>8.830999</v>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2689" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2689">
+        <v>20</v>
+      </c>
+      <c r="D2689">
+        <v>364100</v>
+      </c>
+      <c r="E2689">
+        <v>3641</v>
+      </c>
+      <c r="F2689">
+        <v>0</v>
+      </c>
+      <c r="G2689">
+        <v>19.038167</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2690" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2690">
+        <v>20</v>
+      </c>
+      <c r="D2690">
+        <v>353900</v>
+      </c>
+      <c r="E2690">
+        <v>3539</v>
+      </c>
+      <c r="F2690">
+        <v>0</v>
+      </c>
+      <c r="G2690">
+        <v>20.001955</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2691" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2691">
+        <v>20</v>
+      </c>
+      <c r="D2691">
+        <v>353900</v>
+      </c>
+      <c r="E2691">
+        <v>3539</v>
+      </c>
+      <c r="F2691">
+        <v>0</v>
+      </c>
+      <c r="G2691">
+        <v>20.793665999999998</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2692" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2692">
+        <v>20</v>
+      </c>
+      <c r="D2692">
+        <v>3924900</v>
+      </c>
+      <c r="E2692">
+        <v>39249</v>
+      </c>
+      <c r="F2692">
+        <v>0</v>
+      </c>
+      <c r="G2692">
+        <v>8.363391</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2693">
+        <v>20</v>
+      </c>
+      <c r="D2693">
+        <v>369700</v>
+      </c>
+      <c r="E2693">
+        <v>3697</v>
+      </c>
+      <c r="F2693">
+        <v>0</v>
+      </c>
+      <c r="G2693">
+        <v>19.088701999999998</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2694" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2694">
+        <v>20</v>
+      </c>
+      <c r="D2694">
+        <v>352200</v>
+      </c>
+      <c r="E2694">
+        <v>3522</v>
+      </c>
+      <c r="F2694">
+        <v>0</v>
+      </c>
+      <c r="G2694">
+        <v>21.628349</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2695" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2695">
+        <v>20</v>
+      </c>
+      <c r="D2695">
+        <v>352200</v>
+      </c>
+      <c r="E2695">
+        <v>3522</v>
+      </c>
+      <c r="F2695">
+        <v>0</v>
+      </c>
+      <c r="G2695">
+        <v>18.740534999999998</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2696" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2696">
+        <v>20</v>
+      </c>
+      <c r="D2696">
+        <v>3906300</v>
+      </c>
+      <c r="E2696">
+        <v>39063</v>
+      </c>
+      <c r="F2696">
+        <v>0</v>
+      </c>
+      <c r="G2696">
+        <v>8.426038</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2697" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2697">
+        <v>20</v>
+      </c>
+      <c r="D2697">
+        <v>372100</v>
+      </c>
+      <c r="E2697">
+        <v>3721</v>
+      </c>
+      <c r="F2697">
+        <v>0</v>
+      </c>
+      <c r="G2697">
+        <v>18.475637</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2698" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2698">
+        <v>20</v>
+      </c>
+      <c r="D2698">
+        <v>352600</v>
+      </c>
+      <c r="E2698">
+        <v>3526</v>
+      </c>
+      <c r="F2698">
+        <v>0</v>
+      </c>
+      <c r="G2698">
+        <v>18.323069</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2699" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2699">
+        <v>20</v>
+      </c>
+      <c r="D2699">
+        <v>352600</v>
+      </c>
+      <c r="E2699">
+        <v>3526</v>
+      </c>
+      <c r="F2699">
+        <v>0</v>
+      </c>
+      <c r="G2699">
+        <v>16.398817</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2700" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2700">
+        <v>20</v>
+      </c>
+      <c r="D2700">
+        <v>3914400</v>
+      </c>
+      <c r="E2700">
+        <v>39144</v>
+      </c>
+      <c r="F2700">
+        <v>0</v>
+      </c>
+      <c r="G2700">
+        <v>10.186681</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2701" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2701">
+        <v>20</v>
+      </c>
+      <c r="D2701">
+        <v>354700</v>
+      </c>
+      <c r="E2701">
+        <v>3547</v>
+      </c>
+      <c r="F2701">
+        <v>0</v>
+      </c>
+      <c r="G2701">
+        <v>17.535127000000003</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2702" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2702">
+        <v>20</v>
+      </c>
+      <c r="D2702">
+        <v>352000</v>
+      </c>
+      <c r="E2702">
+        <v>3520</v>
+      </c>
+      <c r="F2702">
+        <v>0</v>
+      </c>
+      <c r="G2702">
+        <v>24.588988999999998</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2703" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2703">
+        <v>20</v>
+      </c>
+      <c r="D2703">
+        <v>352000</v>
+      </c>
+      <c r="E2703">
+        <v>3520</v>
+      </c>
+      <c r="F2703">
+        <v>0</v>
+      </c>
+      <c r="G2703">
+        <v>16.579601999999998</v>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2704" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2704">
+        <v>20</v>
+      </c>
+      <c r="D2704">
+        <v>3905900</v>
+      </c>
+      <c r="E2704">
+        <v>39059</v>
+      </c>
+      <c r="F2704">
+        <v>0</v>
+      </c>
+      <c r="G2704">
+        <v>23.58229</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2705" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2705">
+        <v>20</v>
+      </c>
+      <c r="D2705">
+        <v>361000</v>
+      </c>
+      <c r="E2705">
+        <v>3610</v>
+      </c>
+      <c r="F2705">
+        <v>0</v>
+      </c>
+      <c r="G2705">
+        <v>19.880996000000003</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2706" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2706">
+        <v>20</v>
+      </c>
+      <c r="D2706">
+        <v>347500</v>
+      </c>
+      <c r="E2706">
+        <v>3475</v>
+      </c>
+      <c r="F2706">
+        <v>0</v>
+      </c>
+      <c r="G2706">
+        <v>20.686155000000003</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2707" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2707">
+        <v>20</v>
+      </c>
+      <c r="D2707">
+        <v>347500</v>
+      </c>
+      <c r="E2707">
+        <v>3475</v>
+      </c>
+      <c r="F2707">
+        <v>0</v>
+      </c>
+      <c r="G2707">
+        <v>17.780124</v>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2708" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2708">
+        <v>20</v>
+      </c>
+      <c r="D2708">
+        <v>3916700</v>
+      </c>
+      <c r="E2708">
+        <v>39167</v>
+      </c>
+      <c r="F2708">
+        <v>0</v>
+      </c>
+      <c r="G2708">
+        <v>8.224063000000001</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2709" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2709">
+        <v>20</v>
+      </c>
+      <c r="D2709">
+        <v>362400</v>
+      </c>
+      <c r="E2709">
+        <v>3624</v>
+      </c>
+      <c r="F2709">
+        <v>0</v>
+      </c>
+      <c r="G2709">
+        <v>17.490739</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2710" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2710">
+        <v>20</v>
+      </c>
+      <c r="D2710">
+        <v>346500</v>
+      </c>
+      <c r="E2710">
+        <v>3465</v>
+      </c>
+      <c r="F2710">
+        <v>0</v>
+      </c>
+      <c r="G2710">
+        <v>20.062710000000003</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2711" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2711">
+        <v>20</v>
+      </c>
+      <c r="D2711">
+        <v>346500</v>
+      </c>
+      <c r="E2711">
+        <v>3465</v>
+      </c>
+      <c r="F2711">
+        <v>0</v>
+      </c>
+      <c r="G2711">
+        <v>15.959781999999999</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2712" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2712">
+        <v>20</v>
+      </c>
+      <c r="D2712">
+        <v>3912100</v>
+      </c>
+      <c r="E2712">
+        <v>39121</v>
+      </c>
+      <c r="F2712">
+        <v>0</v>
+      </c>
+      <c r="G2712">
+        <v>11.704685</v>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2713" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2713">
+        <v>20</v>
+      </c>
+      <c r="D2713">
+        <v>355300</v>
+      </c>
+      <c r="E2713">
+        <v>3553</v>
+      </c>
+      <c r="F2713">
+        <v>0</v>
+      </c>
+      <c r="G2713">
+        <v>18.713411999999998</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2714" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2714">
+        <v>20</v>
+      </c>
+      <c r="D2714">
+        <v>353500</v>
+      </c>
+      <c r="E2714">
+        <v>3535</v>
+      </c>
+      <c r="F2714">
+        <v>0</v>
+      </c>
+      <c r="G2714">
+        <v>19.976428000000002</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2715" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2715">
+        <v>20</v>
+      </c>
+      <c r="D2715">
+        <v>353500</v>
+      </c>
+      <c r="E2715">
+        <v>3535</v>
+      </c>
+      <c r="F2715">
+        <v>0</v>
+      </c>
+      <c r="G2715">
+        <v>21.458665</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2716" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2716">
+        <v>20</v>
+      </c>
+      <c r="D2716">
+        <v>3923400</v>
+      </c>
+      <c r="E2716">
+        <v>39234</v>
+      </c>
+      <c r="F2716">
+        <v>0</v>
+      </c>
+      <c r="G2716">
+        <v>16.167908</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2717" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2717">
+        <v>20</v>
+      </c>
+      <c r="D2717">
+        <v>366300</v>
+      </c>
+      <c r="E2717">
+        <v>3663</v>
+      </c>
+      <c r="F2717">
+        <v>0</v>
+      </c>
+      <c r="G2717">
+        <v>20.02602</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2718" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2718">
+        <v>20</v>
+      </c>
+      <c r="D2718">
+        <v>347800</v>
+      </c>
+      <c r="E2718">
+        <v>3478</v>
+      </c>
+      <c r="F2718">
+        <v>0</v>
+      </c>
+      <c r="G2718">
+        <v>17.711357</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2719" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2719">
+        <v>20</v>
+      </c>
+      <c r="D2719">
+        <v>347800</v>
+      </c>
+      <c r="E2719">
+        <v>3478</v>
+      </c>
+      <c r="F2719">
+        <v>0</v>
+      </c>
+      <c r="G2719">
+        <v>18.539875000000002</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2720" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2720">
+        <v>20</v>
+      </c>
+      <c r="D2720">
+        <v>3915500</v>
+      </c>
+      <c r="E2720">
+        <v>39155</v>
+      </c>
+      <c r="F2720">
+        <v>0</v>
+      </c>
+      <c r="G2720">
+        <v>8.900146</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2721" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2721">
+        <v>20</v>
+      </c>
+      <c r="D2721">
+        <v>365600</v>
+      </c>
+      <c r="E2721">
+        <v>3656</v>
+      </c>
+      <c r="F2721">
+        <v>0</v>
+      </c>
+      <c r="G2721">
+        <v>19.328861</v>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2722" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2722">
+        <v>20</v>
+      </c>
+      <c r="D2722">
+        <v>340600</v>
+      </c>
+      <c r="E2722">
+        <v>3406</v>
+      </c>
+      <c r="F2722">
+        <v>0</v>
+      </c>
+      <c r="G2722">
+        <v>17.676098</v>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2723" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2723">
+        <v>20</v>
+      </c>
+      <c r="D2723">
+        <v>340600</v>
+      </c>
+      <c r="E2723">
+        <v>3406</v>
+      </c>
+      <c r="F2723">
+        <v>0</v>
+      </c>
+      <c r="G2723">
+        <v>20.324994999999998</v>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2724" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2724">
+        <v>20</v>
+      </c>
+      <c r="D2724">
+        <v>3905400</v>
+      </c>
+      <c r="E2724">
+        <v>39054</v>
+      </c>
+      <c r="F2724">
+        <v>0</v>
+      </c>
+      <c r="G2724">
+        <v>10.725135</v>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2725" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2725">
+        <v>20</v>
+      </c>
+      <c r="D2725">
+        <v>354000</v>
+      </c>
+      <c r="E2725">
+        <v>3540</v>
+      </c>
+      <c r="F2725">
+        <v>0</v>
+      </c>
+      <c r="G2725">
+        <v>19.130070999999997</v>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2726" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2726">
+        <v>20</v>
+      </c>
+      <c r="D2726">
+        <v>352800</v>
+      </c>
+      <c r="E2726">
+        <v>3528</v>
+      </c>
+      <c r="F2726">
+        <v>0</v>
+      </c>
+      <c r="G2726">
+        <v>17.082126</v>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2727" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2727">
+        <v>20</v>
+      </c>
+      <c r="D2727">
+        <v>352800</v>
+      </c>
+      <c r="E2727">
+        <v>3528</v>
+      </c>
+      <c r="F2727">
+        <v>0</v>
+      </c>
+      <c r="G2727">
+        <v>16.831516</v>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2728" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2728">
+        <v>20</v>
+      </c>
+      <c r="D2728">
+        <v>3916700</v>
+      </c>
+      <c r="E2728">
+        <v>39167</v>
+      </c>
+      <c r="F2728">
+        <v>0</v>
+      </c>
+      <c r="G2728">
+        <v>11.142171</v>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2729" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2729">
+        <v>20</v>
+      </c>
+      <c r="D2729">
+        <v>369100</v>
+      </c>
+      <c r="E2729">
+        <v>3691</v>
+      </c>
+      <c r="F2729">
+        <v>0</v>
+      </c>
+      <c r="G2729">
+        <v>20.722399</v>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2730" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2730">
+        <v>20</v>
+      </c>
+      <c r="D2730">
+        <v>347900</v>
+      </c>
+      <c r="E2730">
+        <v>3479</v>
+      </c>
+      <c r="F2730">
+        <v>0</v>
+      </c>
+      <c r="G2730">
+        <v>19.931047</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2731">
+        <v>20</v>
+      </c>
+      <c r="D2731">
+        <v>347900</v>
+      </c>
+      <c r="E2731">
+        <v>3479</v>
+      </c>
+      <c r="F2731">
+        <v>0</v>
+      </c>
+      <c r="G2731">
+        <v>16.379307999999998</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2732" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2732">
+        <v>20</v>
+      </c>
+      <c r="D2732">
+        <v>3913500</v>
+      </c>
+      <c r="E2732">
+        <v>39135</v>
+      </c>
+      <c r="F2732">
+        <v>0</v>
+      </c>
+      <c r="G2732">
+        <v>8.04379</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2733" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2733">
+        <v>20</v>
+      </c>
+      <c r="D2733">
+        <v>354600</v>
+      </c>
+      <c r="E2733">
+        <v>3546</v>
+      </c>
+      <c r="F2733">
+        <v>0</v>
+      </c>
+      <c r="G2733">
+        <v>17.425562</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2734" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2734">
+        <v>20</v>
+      </c>
+      <c r="D2734">
+        <v>358900</v>
+      </c>
+      <c r="E2734">
+        <v>3589</v>
+      </c>
+      <c r="F2734">
+        <v>0</v>
+      </c>
+      <c r="G2734">
+        <v>18.012352999999997</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2735" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2735">
+        <v>20</v>
+      </c>
+      <c r="D2735">
+        <v>358900</v>
+      </c>
+      <c r="E2735">
+        <v>3589</v>
+      </c>
+      <c r="F2735">
+        <v>0</v>
+      </c>
+      <c r="G2735">
+        <v>17.128049</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2736">
+        <v>20</v>
+      </c>
+      <c r="D2736">
+        <v>3922600</v>
+      </c>
+      <c r="E2736">
+        <v>39226</v>
+      </c>
+      <c r="F2736">
+        <v>0</v>
+      </c>
+      <c r="G2736">
+        <v>9.476208999999999</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2737">
+        <v>20</v>
+      </c>
+      <c r="D2737">
+        <v>370400</v>
+      </c>
+      <c r="E2737">
+        <v>3704</v>
+      </c>
+      <c r="F2737">
+        <v>0</v>
+      </c>
+      <c r="G2737">
+        <v>17.270135</v>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2738" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2738">
+        <v>20</v>
+      </c>
+      <c r="D2738">
+        <v>353000</v>
+      </c>
+      <c r="E2738">
+        <v>3530</v>
+      </c>
+      <c r="F2738">
+        <v>0</v>
+      </c>
+      <c r="G2738">
+        <v>21.313061</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2739" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2739">
+        <v>20</v>
+      </c>
+      <c r="D2739">
+        <v>353000</v>
+      </c>
+      <c r="E2739">
+        <v>3530</v>
+      </c>
+      <c r="F2739">
+        <v>0</v>
+      </c>
+      <c r="G2739">
+        <v>16.764284</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2740" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2740">
+        <v>20</v>
+      </c>
+      <c r="D2740">
+        <v>3918200</v>
+      </c>
+      <c r="E2740">
+        <v>39182</v>
+      </c>
+      <c r="F2740">
+        <v>0</v>
+      </c>
+      <c r="G2740">
+        <v>8.567704</v>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2741" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2741">
+        <v>20</v>
+      </c>
+      <c r="D2741">
+        <v>358100</v>
+      </c>
+      <c r="E2741">
+        <v>3581</v>
+      </c>
+      <c r="F2741">
+        <v>0</v>
+      </c>
+      <c r="G2741">
+        <v>18.325159</v>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2742">
+        <v>20</v>
+      </c>
+      <c r="D2742">
+        <v>358300</v>
+      </c>
+      <c r="E2742">
+        <v>3583</v>
+      </c>
+      <c r="F2742">
+        <v>0</v>
+      </c>
+      <c r="G2742">
+        <v>18.819506</v>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2743">
+        <v>20</v>
+      </c>
+      <c r="D2743">
+        <v>358300</v>
+      </c>
+      <c r="E2743">
+        <v>3583</v>
+      </c>
+      <c r="F2743">
+        <v>0</v>
+      </c>
+      <c r="G2743">
+        <v>18.442459000000003</v>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2744">
+        <v>20</v>
+      </c>
+      <c r="D2744">
+        <v>3916300</v>
+      </c>
+      <c r="E2744">
+        <v>39163</v>
+      </c>
+      <c r="F2744">
+        <v>0</v>
+      </c>
+      <c r="G2744">
+        <v>10.749740000000001</v>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2745" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2745">
+        <v>20</v>
+      </c>
+      <c r="D2745">
+        <v>357800</v>
+      </c>
+      <c r="E2745">
+        <v>3578</v>
+      </c>
+      <c r="F2745">
+        <v>0</v>
+      </c>
+      <c r="G2745">
+        <v>18.6885</v>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2746" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2746">
+        <v>20</v>
+      </c>
+      <c r="D2746">
+        <v>352400</v>
+      </c>
+      <c r="E2746">
+        <v>3524</v>
+      </c>
+      <c r="F2746">
+        <v>0</v>
+      </c>
+      <c r="G2746">
+        <v>17.234593999999998</v>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2747" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2747">
+        <v>20</v>
+      </c>
+      <c r="D2747">
+        <v>352400</v>
+      </c>
+      <c r="E2747">
+        <v>3524</v>
+      </c>
+      <c r="F2747">
+        <v>0</v>
+      </c>
+      <c r="G2747">
+        <v>16.71706</v>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2748">
+        <v>20</v>
+      </c>
+      <c r="D2748">
+        <v>3911500</v>
+      </c>
+      <c r="E2748">
+        <v>39115</v>
+      </c>
+      <c r="F2748">
+        <v>0</v>
+      </c>
+      <c r="G2748">
+        <v>8.435712</v>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2749">
+        <v>20</v>
+      </c>
+      <c r="D2749">
+        <v>361700</v>
+      </c>
+      <c r="E2749">
+        <v>3617</v>
+      </c>
+      <c r="F2749">
+        <v>0</v>
+      </c>
+      <c r="G2749">
+        <v>18.980982</v>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2750">
+        <v>20</v>
+      </c>
+      <c r="D2750">
+        <v>347800</v>
+      </c>
+      <c r="E2750">
+        <v>3478</v>
+      </c>
+      <c r="F2750">
+        <v>0</v>
+      </c>
+      <c r="G2750">
+        <v>25.335685</v>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2751" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2751">
+        <v>20</v>
+      </c>
+      <c r="D2751">
+        <v>347800</v>
+      </c>
+      <c r="E2751">
+        <v>3478</v>
+      </c>
+      <c r="F2751">
+        <v>0</v>
+      </c>
+      <c r="G2751">
+        <v>16.969828</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2752" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2752">
+        <v>20</v>
+      </c>
+      <c r="D2752">
+        <v>3925600</v>
+      </c>
+      <c r="E2752">
+        <v>39256</v>
+      </c>
+      <c r="F2752">
+        <v>0</v>
+      </c>
+      <c r="G2752">
+        <v>19.191641</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2753">
+        <v>20</v>
+      </c>
+      <c r="D2753">
+        <v>365900</v>
+      </c>
+      <c r="E2753">
+        <v>3659</v>
+      </c>
+      <c r="F2753">
+        <v>0</v>
+      </c>
+      <c r="G2753">
+        <v>18.558583</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2754" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2754">
+        <v>20</v>
+      </c>
+      <c r="D2754">
+        <v>347000</v>
+      </c>
+      <c r="E2754">
+        <v>3470</v>
+      </c>
+      <c r="F2754">
+        <v>0</v>
+      </c>
+      <c r="G2754">
+        <v>18.631680000000003</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2755" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2755">
+        <v>20</v>
+      </c>
+      <c r="D2755">
+        <v>347000</v>
+      </c>
+      <c r="E2755">
+        <v>3470</v>
+      </c>
+      <c r="F2755">
+        <v>0</v>
+      </c>
+      <c r="G2755">
+        <v>20.384612999999998</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2756">
+        <v>20</v>
+      </c>
+      <c r="D2756">
+        <v>3917400</v>
+      </c>
+      <c r="E2756">
+        <v>39174</v>
+      </c>
+      <c r="F2756">
+        <v>0</v>
+      </c>
+      <c r="G2756">
+        <v>8.337124</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2757" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2757">
+        <v>20</v>
+      </c>
+      <c r="D2757">
+        <v>365200</v>
+      </c>
+      <c r="E2757">
+        <v>3652</v>
+      </c>
+      <c r="F2757">
+        <v>0</v>
+      </c>
+      <c r="G2757">
+        <v>18.241447</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2758" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2758">
+        <v>20</v>
+      </c>
+      <c r="D2758">
+        <v>354100</v>
+      </c>
+      <c r="E2758">
+        <v>3541</v>
+      </c>
+      <c r="F2758">
+        <v>0</v>
+      </c>
+      <c r="G2758">
+        <v>22.796349</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2759" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2759">
+        <v>20</v>
+      </c>
+      <c r="D2759">
+        <v>354100</v>
+      </c>
+      <c r="E2759">
+        <v>3541</v>
+      </c>
+      <c r="F2759">
+        <v>0</v>
+      </c>
+      <c r="G2759">
+        <v>20.087182</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2760" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2760">
+        <v>20</v>
+      </c>
+      <c r="D2760">
+        <v>3923900</v>
+      </c>
+      <c r="E2760">
+        <v>39239</v>
+      </c>
+      <c r="F2760">
+        <v>0</v>
+      </c>
+      <c r="G2760">
+        <v>12.786122</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2761" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2761">
+        <v>20</v>
+      </c>
+      <c r="D2761">
+        <v>370100</v>
+      </c>
+      <c r="E2761">
+        <v>3701</v>
+      </c>
+      <c r="F2761">
+        <v>0</v>
+      </c>
+      <c r="G2761">
+        <v>18.124558999999998</v>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2762" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2762">
+        <v>20</v>
+      </c>
+      <c r="D2762">
+        <v>356900</v>
+      </c>
+      <c r="E2762">
+        <v>3569</v>
+      </c>
+      <c r="F2762">
+        <v>0</v>
+      </c>
+      <c r="G2762">
+        <v>21.49701</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2763" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2763">
+        <v>20</v>
+      </c>
+      <c r="D2763">
+        <v>356900</v>
+      </c>
+      <c r="E2763">
+        <v>3569</v>
+      </c>
+      <c r="F2763">
+        <v>0</v>
+      </c>
+      <c r="G2763">
+        <v>17.234537</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2764" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2764">
+        <v>20</v>
+      </c>
+      <c r="D2764">
+        <v>3903600</v>
+      </c>
+      <c r="E2764">
+        <v>39036</v>
+      </c>
+      <c r="F2764">
+        <v>0</v>
+      </c>
+      <c r="G2764">
+        <v>11.199427</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2765">
+        <v>20</v>
+      </c>
+      <c r="D2765">
+        <v>364600</v>
+      </c>
+      <c r="E2765">
+        <v>3646</v>
+      </c>
+      <c r="F2765">
+        <v>0</v>
+      </c>
+      <c r="G2765">
+        <v>17.844929999999998</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2766">
+        <v>20</v>
+      </c>
+      <c r="D2766">
+        <v>347200</v>
+      </c>
+      <c r="E2766">
+        <v>3472</v>
+      </c>
+      <c r="F2766">
+        <v>0</v>
+      </c>
+      <c r="G2766">
+        <v>20.099220000000003</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2767">
+        <v>20</v>
+      </c>
+      <c r="D2767">
+        <v>347200</v>
+      </c>
+      <c r="E2767">
+        <v>3472</v>
+      </c>
+      <c r="F2767">
+        <v>0</v>
+      </c>
+      <c r="G2767">
+        <v>16.165274</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2768" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2768">
+        <v>20</v>
+      </c>
+      <c r="D2768">
+        <v>3915900</v>
+      </c>
+      <c r="E2768">
+        <v>39159</v>
+      </c>
+      <c r="F2768">
+        <v>0</v>
+      </c>
+      <c r="G2768">
+        <v>8.402899</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2769" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2769">
+        <v>20</v>
+      </c>
+      <c r="D2769">
+        <v>358800</v>
+      </c>
+      <c r="E2769">
+        <v>3588</v>
+      </c>
+      <c r="F2769">
+        <v>0</v>
+      </c>
+      <c r="G2769">
+        <v>22.55534</v>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2770" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2770">
+        <v>20</v>
+      </c>
+      <c r="D2770">
+        <v>352900</v>
+      </c>
+      <c r="E2770">
+        <v>3529</v>
+      </c>
+      <c r="F2770">
+        <v>0</v>
+      </c>
+      <c r="G2770">
+        <v>16.817741</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2771" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2771">
+        <v>20</v>
+      </c>
+      <c r="D2771">
+        <v>352900</v>
+      </c>
+      <c r="E2771">
+        <v>3529</v>
+      </c>
+      <c r="F2771">
+        <v>0</v>
+      </c>
+      <c r="G2771">
+        <v>15.946502</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2772" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2772">
+        <v>20</v>
+      </c>
+      <c r="D2772">
+        <v>3919000</v>
+      </c>
+      <c r="E2772">
+        <v>39190</v>
+      </c>
+      <c r="F2772">
+        <v>0</v>
+      </c>
+      <c r="G2772">
+        <v>9.430658</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2773" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2773">
+        <v>20</v>
+      </c>
+      <c r="D2773">
+        <v>358000</v>
+      </c>
+      <c r="E2773">
+        <v>3580</v>
+      </c>
+      <c r="F2773">
+        <v>0</v>
+      </c>
+      <c r="G2773">
+        <v>18.215284</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2774" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2774">
+        <v>20</v>
+      </c>
+      <c r="D2774">
+        <v>358100</v>
+      </c>
+      <c r="E2774">
+        <v>3581</v>
+      </c>
+      <c r="F2774">
+        <v>0</v>
+      </c>
+      <c r="G2774">
+        <v>20.156339</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2775" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2775">
+        <v>20</v>
+      </c>
+      <c r="D2775">
+        <v>358100</v>
+      </c>
+      <c r="E2775">
+        <v>3581</v>
+      </c>
+      <c r="F2775">
+        <v>0</v>
+      </c>
+      <c r="G2775">
+        <v>38.600075999999994</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2776" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2776">
+        <v>20</v>
+      </c>
+      <c r="D2776">
+        <v>3904500</v>
+      </c>
+      <c r="E2776">
+        <v>39045</v>
+      </c>
+      <c r="F2776">
+        <v>0</v>
+      </c>
+      <c r="G2776">
+        <v>13.267527</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2777" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2777">
+        <v>20</v>
+      </c>
+      <c r="D2777">
+        <v>368600</v>
+      </c>
+      <c r="E2777">
+        <v>3686</v>
+      </c>
+      <c r="F2777">
+        <v>0</v>
+      </c>
+      <c r="G2777">
+        <v>19.823983</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2778" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2778">
+        <v>20</v>
+      </c>
+      <c r="D2778">
+        <v>363900</v>
+      </c>
+      <c r="E2778">
+        <v>3639</v>
+      </c>
+      <c r="F2778">
+        <v>0</v>
+      </c>
+      <c r="G2778">
+        <v>19.419605999999998</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2779" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2779">
+        <v>20</v>
+      </c>
+      <c r="D2779">
+        <v>363900</v>
+      </c>
+      <c r="E2779">
+        <v>3639</v>
+      </c>
+      <c r="F2779">
+        <v>0</v>
+      </c>
+      <c r="G2779">
+        <v>16.159543</v>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2780" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2780">
+        <v>20</v>
+      </c>
+      <c r="D2780">
+        <v>3916600</v>
+      </c>
+      <c r="E2780">
+        <v>39166</v>
+      </c>
+      <c r="F2780">
+        <v>0</v>
+      </c>
+      <c r="G2780">
+        <v>12.067881000000002</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2781" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2781">
+        <v>20</v>
+      </c>
+      <c r="D2781">
+        <v>365200</v>
+      </c>
+      <c r="E2781">
+        <v>3652</v>
+      </c>
+      <c r="F2781">
+        <v>0</v>
+      </c>
+      <c r="G2781">
+        <v>21.327559</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2782" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2782">
+        <v>20</v>
+      </c>
+      <c r="D2782">
+        <v>353100</v>
+      </c>
+      <c r="E2782">
+        <v>3531</v>
+      </c>
+      <c r="F2782">
+        <v>0</v>
+      </c>
+      <c r="G2782">
+        <v>17.388218000000002</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2783" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2783">
+        <v>20</v>
+      </c>
+      <c r="D2783">
+        <v>353100</v>
+      </c>
+      <c r="E2783">
+        <v>3531</v>
+      </c>
+      <c r="F2783">
+        <v>0</v>
+      </c>
+      <c r="G2783">
+        <v>16.76987</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2784" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2784">
+        <v>20</v>
+      </c>
+      <c r="D2784">
+        <v>3917700</v>
+      </c>
+      <c r="E2784">
+        <v>39177</v>
+      </c>
+      <c r="F2784">
+        <v>0</v>
+      </c>
+      <c r="G2784">
+        <v>8.404598</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2785" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2785">
+        <v>20</v>
+      </c>
+      <c r="D2785">
+        <v>357900</v>
+      </c>
+      <c r="E2785">
+        <v>3579</v>
+      </c>
+      <c r="F2785">
+        <v>0</v>
+      </c>
+      <c r="G2785">
+        <v>17.859553000000002</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2786" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2786">
+        <v>20</v>
+      </c>
+      <c r="D2786">
+        <v>358100</v>
+      </c>
+      <c r="E2786">
+        <v>3581</v>
+      </c>
+      <c r="F2786">
+        <v>0</v>
+      </c>
+      <c r="G2786">
+        <v>18.943252</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2787" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2787">
+        <v>20</v>
+      </c>
+      <c r="D2787">
+        <v>358100</v>
+      </c>
+      <c r="E2787">
+        <v>3581</v>
+      </c>
+      <c r="F2787">
+        <v>0</v>
+      </c>
+      <c r="G2787">
+        <v>17.153508000000002</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2788" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2788">
+        <v>20</v>
+      </c>
+      <c r="D2788">
+        <v>3910400</v>
+      </c>
+      <c r="E2788">
+        <v>39104</v>
+      </c>
+      <c r="F2788">
+        <v>0</v>
+      </c>
+      <c r="G2788">
+        <v>18.766558</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2789" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2789">
+        <v>20</v>
+      </c>
+      <c r="D2789">
+        <v>360800</v>
+      </c>
+      <c r="E2789">
+        <v>3608</v>
+      </c>
+      <c r="F2789">
+        <v>0</v>
+      </c>
+      <c r="G2789">
+        <v>18.321257</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2790" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2790">
+        <v>20</v>
+      </c>
+      <c r="D2790">
+        <v>375200</v>
+      </c>
+      <c r="E2790">
+        <v>3752</v>
+      </c>
+      <c r="F2790">
+        <v>0</v>
+      </c>
+      <c r="G2790">
+        <v>22.212649000000003</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2791" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2791">
+        <v>20</v>
+      </c>
+      <c r="D2791">
+        <v>375200</v>
+      </c>
+      <c r="E2791">
+        <v>3752</v>
+      </c>
+      <c r="F2791">
+        <v>0</v>
+      </c>
+      <c r="G2791">
+        <v>16.630796999999998</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2792" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2792">
+        <v>20</v>
+      </c>
+      <c r="D2792">
+        <v>3923600</v>
+      </c>
+      <c r="E2792">
+        <v>39236</v>
+      </c>
+      <c r="F2792">
+        <v>0</v>
+      </c>
+      <c r="G2792">
+        <v>8.914216000000001</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2793" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2793">
+        <v>20</v>
+      </c>
+      <c r="D2793">
+        <v>372400</v>
+      </c>
+      <c r="E2793">
+        <v>3724</v>
+      </c>
+      <c r="F2793">
+        <v>0</v>
+      </c>
+      <c r="G2793">
+        <v>18.330472</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2794" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2794">
+        <v>20</v>
+      </c>
+      <c r="D2794">
+        <v>358700</v>
+      </c>
+      <c r="E2794">
+        <v>3587</v>
+      </c>
+      <c r="F2794">
+        <v>0</v>
+      </c>
+      <c r="G2794">
+        <v>19.781762</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2795" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2795">
+        <v>20</v>
+      </c>
+      <c r="D2795">
+        <v>358700</v>
+      </c>
+      <c r="E2795">
+        <v>3587</v>
+      </c>
+      <c r="F2795">
+        <v>0</v>
+      </c>
+      <c r="G2795">
+        <v>16.880631</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2796" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2796">
+        <v>20</v>
+      </c>
+      <c r="D2796">
+        <v>3922100</v>
+      </c>
+      <c r="E2796">
+        <v>39221</v>
+      </c>
+      <c r="F2796">
+        <v>0</v>
+      </c>
+      <c r="G2796">
+        <v>10.505118000000001</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2797" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2797">
+        <v>20</v>
+      </c>
+      <c r="D2797">
+        <v>358400</v>
+      </c>
+      <c r="E2797">
+        <v>3584</v>
+      </c>
+      <c r="F2797">
+        <v>0</v>
+      </c>
+      <c r="G2797">
+        <v>18.33101</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2798" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2798">
+        <v>20</v>
+      </c>
+      <c r="D2798">
+        <v>342600</v>
+      </c>
+      <c r="E2798">
+        <v>3426</v>
+      </c>
+      <c r="F2798">
+        <v>0</v>
+      </c>
+      <c r="G2798">
+        <v>18.931623000000002</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2799" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2799">
+        <v>20</v>
+      </c>
+      <c r="D2799">
+        <v>342600</v>
+      </c>
+      <c r="E2799">
+        <v>3426</v>
+      </c>
+      <c r="F2799">
+        <v>0</v>
+      </c>
+      <c r="G2799">
+        <v>19.285262</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2800" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2800">
+        <v>20</v>
+      </c>
+      <c r="D2800">
+        <v>3928700</v>
+      </c>
+      <c r="E2800">
+        <v>39287</v>
+      </c>
+      <c r="F2800">
+        <v>0</v>
+      </c>
+      <c r="G2800">
+        <v>8.377628</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2801" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2801">
+        <v>20</v>
+      </c>
+      <c r="D2801">
+        <v>373500</v>
+      </c>
+      <c r="E2801">
+        <v>3735</v>
+      </c>
+      <c r="F2801">
+        <v>0</v>
+      </c>
+      <c r="G2801">
+        <v>20.54826</v>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2802" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2802">
+        <v>20</v>
+      </c>
+      <c r="D2802">
+        <v>362600</v>
+      </c>
+      <c r="E2802">
+        <v>3626</v>
+      </c>
+      <c r="F2802">
+        <v>0</v>
+      </c>
+      <c r="G2802">
+        <v>16.597318</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2803" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2803">
+        <v>20</v>
+      </c>
+      <c r="D2803">
+        <v>362600</v>
+      </c>
+      <c r="E2803">
+        <v>3626</v>
+      </c>
+      <c r="F2803">
+        <v>0</v>
+      </c>
+      <c r="G2803">
+        <v>17.690838</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2804" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2804">
+        <v>20</v>
+      </c>
+      <c r="D2804">
+        <v>3908100</v>
+      </c>
+      <c r="E2804">
+        <v>39081</v>
+      </c>
+      <c r="F2804">
+        <v>0</v>
+      </c>
+      <c r="G2804">
+        <v>8.458184000000001</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2805" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2805">
+        <v>20</v>
+      </c>
+      <c r="D2805">
+        <v>365000</v>
+      </c>
+      <c r="E2805">
+        <v>3650</v>
+      </c>
+      <c r="F2805">
+        <v>0</v>
+      </c>
+      <c r="G2805">
+        <v>18.914351999999997</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2806" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2806">
+        <v>20</v>
+      </c>
+      <c r="D2806">
+        <v>346100</v>
+      </c>
+      <c r="E2806">
+        <v>3461</v>
+      </c>
+      <c r="F2806">
+        <v>0</v>
+      </c>
+      <c r="G2806">
+        <v>19.286173</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2807" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2807">
+        <v>20</v>
+      </c>
+      <c r="D2807">
+        <v>346100</v>
+      </c>
+      <c r="E2807">
+        <v>3461</v>
+      </c>
+      <c r="F2807">
+        <v>0</v>
+      </c>
+      <c r="G2807">
+        <v>16.912297</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2808" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2808">
+        <v>20</v>
+      </c>
+      <c r="D2808">
+        <v>3909200</v>
+      </c>
+      <c r="E2808">
+        <v>39092</v>
+      </c>
+      <c r="F2808">
+        <v>0</v>
+      </c>
+      <c r="G2808">
+        <v>12.511981</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2809" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2809">
+        <v>20</v>
+      </c>
+      <c r="D2809">
+        <v>358100</v>
+      </c>
+      <c r="E2809">
+        <v>3581</v>
+      </c>
+      <c r="F2809">
+        <v>0</v>
+      </c>
+      <c r="G2809">
+        <v>22.012324</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2810" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2810">
+        <v>20</v>
+      </c>
+      <c r="D2810">
+        <v>359400</v>
+      </c>
+      <c r="E2810">
+        <v>3594</v>
+      </c>
+      <c r="F2810">
+        <v>0</v>
+      </c>
+      <c r="G2810">
+        <v>17.640784</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2811" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2811">
+        <v>20</v>
+      </c>
+      <c r="D2811">
+        <v>359400</v>
+      </c>
+      <c r="E2811">
+        <v>3594</v>
+      </c>
+      <c r="F2811">
+        <v>0</v>
+      </c>
+      <c r="G2811">
+        <v>16.434267</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2812" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2812">
+        <v>20</v>
+      </c>
+      <c r="D2812">
+        <v>3925500</v>
+      </c>
+      <c r="E2812">
+        <v>39255</v>
+      </c>
+      <c r="F2812">
+        <v>0</v>
+      </c>
+      <c r="G2812">
+        <v>9.661383</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2813" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2813">
+        <v>20</v>
+      </c>
+      <c r="D2813">
+        <v>362400</v>
+      </c>
+      <c r="E2813">
+        <v>3624</v>
+      </c>
+      <c r="F2813">
+        <v>0</v>
+      </c>
+      <c r="G2813">
+        <v>18.171678</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/can2tsn_history.xlsx
+++ b/can2tsn_history.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -871,6 +871,123 @@
   <si>
     <t>2025-05-11 05:38:50</t>
   </si>
+  <si>
+    <t>2025-05-11 06:31:19</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:38:17</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:38:36</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:39:09</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:39:25</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:44:17</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:47:00</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:48:35</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:49:08</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:51:08</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:52:35</t>
+  </si>
+  <si>
+    <t>2025-05-11 06:52:57</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:12:26</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:12:35</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:12:55</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:13:22</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:14:44</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:15:23</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:16:37</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:20:36</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:21:16</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:21:22</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:21:25</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:23:30</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:23:44</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:33:33</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:36:56</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:40:52</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:42:16</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:56:13</t>
+  </si>
+  <si>
+    <t>2025-05-11 07:58:21</t>
+  </si>
+  <si>
+    <t>2025-05-11 08:06:43</t>
+  </si>
+  <si>
+    <t>2025-05-11 08:07:20</t>
+  </si>
+  <si>
+    <t>2025-05-11 08:11:51</t>
+  </si>
+  <si>
+    <t>2025-05-11 08:13:57</t>
+  </si>
+  <si>
+    <t>2025-05-11 08:14:17</t>
+  </si>
+  <si>
+    <t>2025-05-11 08:14:21</t>
+  </si>
+  <si>
+    <t>2025-05-11 08:14:23</t>
+  </si>
+  <si>
+    <t>2025-05-11 08:15:18</t>
+  </si>
 </sst>
 </file>
 
@@ -65888,6 +66005,3594 @@
         <v>18.171678</v>
       </c>
     </row>
+    <row r="2814">
+      <c r="A2814" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2814" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2814">
+        <v>20</v>
+      </c>
+      <c r="D2814">
+        <v>346800</v>
+      </c>
+      <c r="E2814">
+        <v>3468</v>
+      </c>
+      <c r="F2814">
+        <v>0</v>
+      </c>
+      <c r="G2814">
+        <v>18.965312</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2815" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2815">
+        <v>20</v>
+      </c>
+      <c r="D2815">
+        <v>346800</v>
+      </c>
+      <c r="E2815">
+        <v>3468</v>
+      </c>
+      <c r="F2815">
+        <v>0</v>
+      </c>
+      <c r="G2815">
+        <v>17.453001999999998</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2816" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2816">
+        <v>20</v>
+      </c>
+      <c r="D2816">
+        <v>3905300</v>
+      </c>
+      <c r="E2816">
+        <v>39053</v>
+      </c>
+      <c r="F2816">
+        <v>0</v>
+      </c>
+      <c r="G2816">
+        <v>18.311268</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2817" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2817">
+        <v>20</v>
+      </c>
+      <c r="D2817">
+        <v>356900</v>
+      </c>
+      <c r="E2817">
+        <v>3569</v>
+      </c>
+      <c r="F2817">
+        <v>0</v>
+      </c>
+      <c r="G2817">
+        <v>20.532782</v>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2818" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2818">
+        <v>20</v>
+      </c>
+      <c r="D2818">
+        <v>363100</v>
+      </c>
+      <c r="E2818">
+        <v>3631</v>
+      </c>
+      <c r="F2818">
+        <v>0</v>
+      </c>
+      <c r="G2818">
+        <v>18.254334</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2819" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2819">
+        <v>20</v>
+      </c>
+      <c r="D2819">
+        <v>363100</v>
+      </c>
+      <c r="E2819">
+        <v>3631</v>
+      </c>
+      <c r="F2819">
+        <v>0</v>
+      </c>
+      <c r="G2819">
+        <v>16.934189999999997</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2820" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2820">
+        <v>20</v>
+      </c>
+      <c r="D2820">
+        <v>3917500</v>
+      </c>
+      <c r="E2820">
+        <v>39175</v>
+      </c>
+      <c r="F2820">
+        <v>0</v>
+      </c>
+      <c r="G2820">
+        <v>8.584989</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2821" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2821">
+        <v>20</v>
+      </c>
+      <c r="D2821">
+        <v>369300</v>
+      </c>
+      <c r="E2821">
+        <v>3693</v>
+      </c>
+      <c r="F2821">
+        <v>0</v>
+      </c>
+      <c r="G2821">
+        <v>21.327561</v>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2822" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2822">
+        <v>20</v>
+      </c>
+      <c r="D2822">
+        <v>352400</v>
+      </c>
+      <c r="E2822">
+        <v>3524</v>
+      </c>
+      <c r="F2822">
+        <v>0</v>
+      </c>
+      <c r="G2822">
+        <v>17.780465</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2823" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2823">
+        <v>20</v>
+      </c>
+      <c r="D2823">
+        <v>352400</v>
+      </c>
+      <c r="E2823">
+        <v>3524</v>
+      </c>
+      <c r="F2823">
+        <v>0</v>
+      </c>
+      <c r="G2823">
+        <v>19.874228000000002</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2824" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2824">
+        <v>20</v>
+      </c>
+      <c r="D2824">
+        <v>3908800</v>
+      </c>
+      <c r="E2824">
+        <v>39088</v>
+      </c>
+      <c r="F2824">
+        <v>0</v>
+      </c>
+      <c r="G2824">
+        <v>12.171286</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2825" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2825">
+        <v>20</v>
+      </c>
+      <c r="D2825">
+        <v>361400</v>
+      </c>
+      <c r="E2825">
+        <v>3614</v>
+      </c>
+      <c r="F2825">
+        <v>0</v>
+      </c>
+      <c r="G2825">
+        <v>20.014051000000002</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2826" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2826">
+        <v>20</v>
+      </c>
+      <c r="D2826">
+        <v>352300</v>
+      </c>
+      <c r="E2826">
+        <v>3523</v>
+      </c>
+      <c r="F2826">
+        <v>0</v>
+      </c>
+      <c r="G2826">
+        <v>20.163038</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2827" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2827">
+        <v>20</v>
+      </c>
+      <c r="D2827">
+        <v>352300</v>
+      </c>
+      <c r="E2827">
+        <v>3523</v>
+      </c>
+      <c r="F2827">
+        <v>0</v>
+      </c>
+      <c r="G2827">
+        <v>16.440339</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2828" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2828">
+        <v>20</v>
+      </c>
+      <c r="D2828">
+        <v>3910200</v>
+      </c>
+      <c r="E2828">
+        <v>39102</v>
+      </c>
+      <c r="F2828">
+        <v>0</v>
+      </c>
+      <c r="G2828">
+        <v>8.330850000000002</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2829" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2829">
+        <v>20</v>
+      </c>
+      <c r="D2829">
+        <v>364500</v>
+      </c>
+      <c r="E2829">
+        <v>3645</v>
+      </c>
+      <c r="F2829">
+        <v>0</v>
+      </c>
+      <c r="G2829">
+        <v>19.027993</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2830" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2830">
+        <v>20</v>
+      </c>
+      <c r="D2830">
+        <v>364200</v>
+      </c>
+      <c r="E2830">
+        <v>3642</v>
+      </c>
+      <c r="F2830">
+        <v>0</v>
+      </c>
+      <c r="G2830">
+        <v>18.969896</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2831" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2831">
+        <v>20</v>
+      </c>
+      <c r="D2831">
+        <v>364200</v>
+      </c>
+      <c r="E2831">
+        <v>3642</v>
+      </c>
+      <c r="F2831">
+        <v>0</v>
+      </c>
+      <c r="G2831">
+        <v>18.439393</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2832" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2832">
+        <v>20</v>
+      </c>
+      <c r="D2832">
+        <v>3917800</v>
+      </c>
+      <c r="E2832">
+        <v>39178</v>
+      </c>
+      <c r="F2832">
+        <v>0</v>
+      </c>
+      <c r="G2832">
+        <v>11.352602999999998</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2833" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2833">
+        <v>20</v>
+      </c>
+      <c r="D2833">
+        <v>362100</v>
+      </c>
+      <c r="E2833">
+        <v>3621</v>
+      </c>
+      <c r="F2833">
+        <v>0</v>
+      </c>
+      <c r="G2833">
+        <v>17.805805</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2834" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2834">
+        <v>20</v>
+      </c>
+      <c r="D2834">
+        <v>357600</v>
+      </c>
+      <c r="E2834">
+        <v>3576</v>
+      </c>
+      <c r="F2834">
+        <v>0</v>
+      </c>
+      <c r="G2834">
+        <v>18.387379999999997</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2835" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2835">
+        <v>20</v>
+      </c>
+      <c r="D2835">
+        <v>357600</v>
+      </c>
+      <c r="E2835">
+        <v>3576</v>
+      </c>
+      <c r="F2835">
+        <v>0</v>
+      </c>
+      <c r="G2835">
+        <v>16.522721</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2836" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2836">
+        <v>20</v>
+      </c>
+      <c r="D2836">
+        <v>3906800</v>
+      </c>
+      <c r="E2836">
+        <v>39068</v>
+      </c>
+      <c r="F2836">
+        <v>0</v>
+      </c>
+      <c r="G2836">
+        <v>12.155584000000001</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2837" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2837">
+        <v>20</v>
+      </c>
+      <c r="D2837">
+        <v>368200</v>
+      </c>
+      <c r="E2837">
+        <v>3682</v>
+      </c>
+      <c r="F2837">
+        <v>0</v>
+      </c>
+      <c r="G2837">
+        <v>20.151510000000002</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2838" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2838">
+        <v>20</v>
+      </c>
+      <c r="D2838">
+        <v>352100</v>
+      </c>
+      <c r="E2838">
+        <v>3521</v>
+      </c>
+      <c r="F2838">
+        <v>0</v>
+      </c>
+      <c r="G2838">
+        <v>21.155886</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2839" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2839">
+        <v>20</v>
+      </c>
+      <c r="D2839">
+        <v>352100</v>
+      </c>
+      <c r="E2839">
+        <v>3521</v>
+      </c>
+      <c r="F2839">
+        <v>0</v>
+      </c>
+      <c r="G2839">
+        <v>16.845586</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2840" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2840">
+        <v>20</v>
+      </c>
+      <c r="D2840">
+        <v>3907000</v>
+      </c>
+      <c r="E2840">
+        <v>39070</v>
+      </c>
+      <c r="F2840">
+        <v>0</v>
+      </c>
+      <c r="G2840">
+        <v>8.598158999999999</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2841" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2841">
+        <v>20</v>
+      </c>
+      <c r="D2841">
+        <v>372200</v>
+      </c>
+      <c r="E2841">
+        <v>3722</v>
+      </c>
+      <c r="F2841">
+        <v>0</v>
+      </c>
+      <c r="G2841">
+        <v>19.550016</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2842" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2842">
+        <v>20</v>
+      </c>
+      <c r="D2842">
+        <v>358200</v>
+      </c>
+      <c r="E2842">
+        <v>3582</v>
+      </c>
+      <c r="F2842">
+        <v>0</v>
+      </c>
+      <c r="G2842">
+        <v>21.559387</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2843" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2843">
+        <v>20</v>
+      </c>
+      <c r="D2843">
+        <v>358200</v>
+      </c>
+      <c r="E2843">
+        <v>3582</v>
+      </c>
+      <c r="F2843">
+        <v>0</v>
+      </c>
+      <c r="G2843">
+        <v>19.582035</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2844" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2844">
+        <v>20</v>
+      </c>
+      <c r="D2844">
+        <v>3916200</v>
+      </c>
+      <c r="E2844">
+        <v>39162</v>
+      </c>
+      <c r="F2844">
+        <v>0</v>
+      </c>
+      <c r="G2844">
+        <v>9.093699</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2845" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2845">
+        <v>20</v>
+      </c>
+      <c r="D2845">
+        <v>361700</v>
+      </c>
+      <c r="E2845">
+        <v>3617</v>
+      </c>
+      <c r="F2845">
+        <v>0</v>
+      </c>
+      <c r="G2845">
+        <v>21.780216000000003</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2846" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2846">
+        <v>20</v>
+      </c>
+      <c r="D2846">
+        <v>357900</v>
+      </c>
+      <c r="E2846">
+        <v>3579</v>
+      </c>
+      <c r="F2846">
+        <v>0</v>
+      </c>
+      <c r="G2846">
+        <v>20.604142999999997</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2847" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2847">
+        <v>20</v>
+      </c>
+      <c r="D2847">
+        <v>357900</v>
+      </c>
+      <c r="E2847">
+        <v>3579</v>
+      </c>
+      <c r="F2847">
+        <v>0</v>
+      </c>
+      <c r="G2847">
+        <v>17.327263</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2848" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2848">
+        <v>20</v>
+      </c>
+      <c r="D2848">
+        <v>3915700</v>
+      </c>
+      <c r="E2848">
+        <v>39157</v>
+      </c>
+      <c r="F2848">
+        <v>0</v>
+      </c>
+      <c r="G2848">
+        <v>11.984242</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2849" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2849">
+        <v>20</v>
+      </c>
+      <c r="D2849">
+        <v>372600</v>
+      </c>
+      <c r="E2849">
+        <v>3726</v>
+      </c>
+      <c r="F2849">
+        <v>0</v>
+      </c>
+      <c r="G2849">
+        <v>18.696124</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2850" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2850">
+        <v>20</v>
+      </c>
+      <c r="D2850">
+        <v>357300</v>
+      </c>
+      <c r="E2850">
+        <v>3573</v>
+      </c>
+      <c r="F2850">
+        <v>0</v>
+      </c>
+      <c r="G2850">
+        <v>17.719856999999998</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2851" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2851">
+        <v>20</v>
+      </c>
+      <c r="D2851">
+        <v>357300</v>
+      </c>
+      <c r="E2851">
+        <v>3573</v>
+      </c>
+      <c r="F2851">
+        <v>0</v>
+      </c>
+      <c r="G2851">
+        <v>18.221004</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2852" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2852">
+        <v>20</v>
+      </c>
+      <c r="D2852">
+        <v>3899700</v>
+      </c>
+      <c r="E2852">
+        <v>38997</v>
+      </c>
+      <c r="F2852">
+        <v>0</v>
+      </c>
+      <c r="G2852">
+        <v>8.882826</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2853" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2853">
+        <v>20</v>
+      </c>
+      <c r="D2853">
+        <v>368300</v>
+      </c>
+      <c r="E2853">
+        <v>3683</v>
+      </c>
+      <c r="F2853">
+        <v>0</v>
+      </c>
+      <c r="G2853">
+        <v>20.934531</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2854" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2854">
+        <v>20</v>
+      </c>
+      <c r="D2854">
+        <v>352400</v>
+      </c>
+      <c r="E2854">
+        <v>3524</v>
+      </c>
+      <c r="F2854">
+        <v>0</v>
+      </c>
+      <c r="G2854">
+        <v>18.601533</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2855" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2855">
+        <v>20</v>
+      </c>
+      <c r="D2855">
+        <v>352400</v>
+      </c>
+      <c r="E2855">
+        <v>3524</v>
+      </c>
+      <c r="F2855">
+        <v>0</v>
+      </c>
+      <c r="G2855">
+        <v>16.781308000000003</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2856" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2856">
+        <v>20</v>
+      </c>
+      <c r="D2856">
+        <v>3920500</v>
+      </c>
+      <c r="E2856">
+        <v>39205</v>
+      </c>
+      <c r="F2856">
+        <v>0</v>
+      </c>
+      <c r="G2856">
+        <v>8.122712</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2857" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2857">
+        <v>20</v>
+      </c>
+      <c r="D2857">
+        <v>368800</v>
+      </c>
+      <c r="E2857">
+        <v>3688</v>
+      </c>
+      <c r="F2857">
+        <v>0</v>
+      </c>
+      <c r="G2857">
+        <v>18.869466000000003</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2858" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2858">
+        <v>20</v>
+      </c>
+      <c r="D2858">
+        <v>346300</v>
+      </c>
+      <c r="E2858">
+        <v>3463</v>
+      </c>
+      <c r="F2858">
+        <v>0</v>
+      </c>
+      <c r="G2858">
+        <v>19.051085</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2859" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2859">
+        <v>20</v>
+      </c>
+      <c r="D2859">
+        <v>346300</v>
+      </c>
+      <c r="E2859">
+        <v>3463</v>
+      </c>
+      <c r="F2859">
+        <v>0</v>
+      </c>
+      <c r="G2859">
+        <v>18.873984</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2860" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2860">
+        <v>20</v>
+      </c>
+      <c r="D2860">
+        <v>3902800</v>
+      </c>
+      <c r="E2860">
+        <v>39028</v>
+      </c>
+      <c r="F2860">
+        <v>0</v>
+      </c>
+      <c r="G2860">
+        <v>10.361136</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2861" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2861">
+        <v>20</v>
+      </c>
+      <c r="D2861">
+        <v>363800</v>
+      </c>
+      <c r="E2861">
+        <v>3638</v>
+      </c>
+      <c r="F2861">
+        <v>0</v>
+      </c>
+      <c r="G2861">
+        <v>19.055853000000003</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2862" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2862">
+        <v>20</v>
+      </c>
+      <c r="D2862">
+        <v>357300</v>
+      </c>
+      <c r="E2862">
+        <v>3573</v>
+      </c>
+      <c r="F2862">
+        <v>0</v>
+      </c>
+      <c r="G2862">
+        <v>21.317619999999998</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2863" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2863">
+        <v>20</v>
+      </c>
+      <c r="D2863">
+        <v>357300</v>
+      </c>
+      <c r="E2863">
+        <v>3573</v>
+      </c>
+      <c r="F2863">
+        <v>0</v>
+      </c>
+      <c r="G2863">
+        <v>21.895094</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2864" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2864">
+        <v>20</v>
+      </c>
+      <c r="D2864">
+        <v>3900800</v>
+      </c>
+      <c r="E2864">
+        <v>39008</v>
+      </c>
+      <c r="F2864">
+        <v>0</v>
+      </c>
+      <c r="G2864">
+        <v>11.166926</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2865" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2865">
+        <v>20</v>
+      </c>
+      <c r="D2865">
+        <v>368200</v>
+      </c>
+      <c r="E2865">
+        <v>3682</v>
+      </c>
+      <c r="F2865">
+        <v>0</v>
+      </c>
+      <c r="G2865">
+        <v>24.12317</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2866" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2866">
+        <v>20</v>
+      </c>
+      <c r="D2866">
+        <v>352400</v>
+      </c>
+      <c r="E2866">
+        <v>3524</v>
+      </c>
+      <c r="F2866">
+        <v>0</v>
+      </c>
+      <c r="G2866">
+        <v>26.774317</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2867" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2867">
+        <v>20</v>
+      </c>
+      <c r="D2867">
+        <v>352400</v>
+      </c>
+      <c r="E2867">
+        <v>3524</v>
+      </c>
+      <c r="F2867">
+        <v>0</v>
+      </c>
+      <c r="G2867">
+        <v>32.730347</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2868" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2868">
+        <v>20</v>
+      </c>
+      <c r="D2868">
+        <v>3911600</v>
+      </c>
+      <c r="E2868">
+        <v>39116</v>
+      </c>
+      <c r="F2868">
+        <v>0</v>
+      </c>
+      <c r="G2868">
+        <v>24.118297000000002</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2869" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2869">
+        <v>20</v>
+      </c>
+      <c r="D2869">
+        <v>357700</v>
+      </c>
+      <c r="E2869">
+        <v>3577</v>
+      </c>
+      <c r="F2869">
+        <v>0</v>
+      </c>
+      <c r="G2869">
+        <v>32.202371</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2870" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2870">
+        <v>20</v>
+      </c>
+      <c r="D2870">
+        <v>364000</v>
+      </c>
+      <c r="E2870">
+        <v>3640</v>
+      </c>
+      <c r="F2870">
+        <v>0</v>
+      </c>
+      <c r="G2870">
+        <v>19.421599</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2871" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2871">
+        <v>20</v>
+      </c>
+      <c r="D2871">
+        <v>364000</v>
+      </c>
+      <c r="E2871">
+        <v>3640</v>
+      </c>
+      <c r="F2871">
+        <v>0</v>
+      </c>
+      <c r="G2871">
+        <v>19.336745</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2872" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2872">
+        <v>20</v>
+      </c>
+      <c r="D2872">
+        <v>3928300</v>
+      </c>
+      <c r="E2872">
+        <v>39283</v>
+      </c>
+      <c r="F2872">
+        <v>0</v>
+      </c>
+      <c r="G2872">
+        <v>10.393714</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2873" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2873">
+        <v>20</v>
+      </c>
+      <c r="D2873">
+        <v>371000</v>
+      </c>
+      <c r="E2873">
+        <v>3710</v>
+      </c>
+      <c r="F2873">
+        <v>0</v>
+      </c>
+      <c r="G2873">
+        <v>21.746693</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2874" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2874">
+        <v>20</v>
+      </c>
+      <c r="D2874">
+        <v>374400</v>
+      </c>
+      <c r="E2874">
+        <v>3744</v>
+      </c>
+      <c r="F2874">
+        <v>0</v>
+      </c>
+      <c r="G2874">
+        <v>19.876686</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2875" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2875">
+        <v>20</v>
+      </c>
+      <c r="D2875">
+        <v>374400</v>
+      </c>
+      <c r="E2875">
+        <v>3744</v>
+      </c>
+      <c r="F2875">
+        <v>0</v>
+      </c>
+      <c r="G2875">
+        <v>17.952178</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2876" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2876">
+        <v>20</v>
+      </c>
+      <c r="D2876">
+        <v>3915500</v>
+      </c>
+      <c r="E2876">
+        <v>39155</v>
+      </c>
+      <c r="F2876">
+        <v>0</v>
+      </c>
+      <c r="G2876">
+        <v>8.566542</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2877">
+        <v>20</v>
+      </c>
+      <c r="D2877">
+        <v>365300</v>
+      </c>
+      <c r="E2877">
+        <v>3653</v>
+      </c>
+      <c r="F2877">
+        <v>0</v>
+      </c>
+      <c r="G2877">
+        <v>19.106823</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2878" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2878">
+        <v>20</v>
+      </c>
+      <c r="D2878">
+        <v>353600</v>
+      </c>
+      <c r="E2878">
+        <v>3536</v>
+      </c>
+      <c r="F2878">
+        <v>0</v>
+      </c>
+      <c r="G2878">
+        <v>17.783068</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2879" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2879">
+        <v>20</v>
+      </c>
+      <c r="D2879">
+        <v>353600</v>
+      </c>
+      <c r="E2879">
+        <v>3536</v>
+      </c>
+      <c r="F2879">
+        <v>0</v>
+      </c>
+      <c r="G2879">
+        <v>16.979815</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2880" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2880">
+        <v>20</v>
+      </c>
+      <c r="D2880">
+        <v>3925700</v>
+      </c>
+      <c r="E2880">
+        <v>39257</v>
+      </c>
+      <c r="F2880">
+        <v>0</v>
+      </c>
+      <c r="G2880">
+        <v>8.666662</v>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2881" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2881">
+        <v>20</v>
+      </c>
+      <c r="D2881">
+        <v>365600</v>
+      </c>
+      <c r="E2881">
+        <v>3656</v>
+      </c>
+      <c r="F2881">
+        <v>0</v>
+      </c>
+      <c r="G2881">
+        <v>18.941917999999998</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2882" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2882">
+        <v>20</v>
+      </c>
+      <c r="D2882">
+        <v>362800</v>
+      </c>
+      <c r="E2882">
+        <v>3628</v>
+      </c>
+      <c r="F2882">
+        <v>0</v>
+      </c>
+      <c r="G2882">
+        <v>22.73034</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2883" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2883">
+        <v>20</v>
+      </c>
+      <c r="D2883">
+        <v>362800</v>
+      </c>
+      <c r="E2883">
+        <v>3628</v>
+      </c>
+      <c r="F2883">
+        <v>0</v>
+      </c>
+      <c r="G2883">
+        <v>25.248703000000003</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2884" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2884">
+        <v>20</v>
+      </c>
+      <c r="D2884">
+        <v>3901400</v>
+      </c>
+      <c r="E2884">
+        <v>39014</v>
+      </c>
+      <c r="F2884">
+        <v>0</v>
+      </c>
+      <c r="G2884">
+        <v>17.81547</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2885" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2885">
+        <v>20</v>
+      </c>
+      <c r="D2885">
+        <v>364400</v>
+      </c>
+      <c r="E2885">
+        <v>3644</v>
+      </c>
+      <c r="F2885">
+        <v>0</v>
+      </c>
+      <c r="G2885">
+        <v>27.207101</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2886" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2886">
+        <v>20</v>
+      </c>
+      <c r="D2886">
+        <v>346900</v>
+      </c>
+      <c r="E2886">
+        <v>3469</v>
+      </c>
+      <c r="F2886">
+        <v>0</v>
+      </c>
+      <c r="G2886">
+        <v>17.365616</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2887" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2887">
+        <v>20</v>
+      </c>
+      <c r="D2887">
+        <v>346900</v>
+      </c>
+      <c r="E2887">
+        <v>3469</v>
+      </c>
+      <c r="F2887">
+        <v>0</v>
+      </c>
+      <c r="G2887">
+        <v>16.263531</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2888" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2888">
+        <v>20</v>
+      </c>
+      <c r="D2888">
+        <v>3910400</v>
+      </c>
+      <c r="E2888">
+        <v>39104</v>
+      </c>
+      <c r="F2888">
+        <v>0</v>
+      </c>
+      <c r="G2888">
+        <v>9.815235</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2889" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2889">
+        <v>20</v>
+      </c>
+      <c r="D2889">
+        <v>361700</v>
+      </c>
+      <c r="E2889">
+        <v>3617</v>
+      </c>
+      <c r="F2889">
+        <v>0</v>
+      </c>
+      <c r="G2889">
+        <v>18.105798</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2890" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2890">
+        <v>20</v>
+      </c>
+      <c r="D2890">
+        <v>364500</v>
+      </c>
+      <c r="E2890">
+        <v>3645</v>
+      </c>
+      <c r="F2890">
+        <v>0</v>
+      </c>
+      <c r="G2890">
+        <v>19.005428000000002</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2891">
+        <v>20</v>
+      </c>
+      <c r="D2891">
+        <v>364500</v>
+      </c>
+      <c r="E2891">
+        <v>3645</v>
+      </c>
+      <c r="F2891">
+        <v>0</v>
+      </c>
+      <c r="G2891">
+        <v>18.037738</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2892">
+        <v>20</v>
+      </c>
+      <c r="D2892">
+        <v>3916700</v>
+      </c>
+      <c r="E2892">
+        <v>39167</v>
+      </c>
+      <c r="F2892">
+        <v>0</v>
+      </c>
+      <c r="G2892">
+        <v>11.102509</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2893">
+        <v>20</v>
+      </c>
+      <c r="D2893">
+        <v>369000</v>
+      </c>
+      <c r="E2893">
+        <v>3690</v>
+      </c>
+      <c r="F2893">
+        <v>0</v>
+      </c>
+      <c r="G2893">
+        <v>17.971767</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2894">
+        <v>20</v>
+      </c>
+      <c r="D2894">
+        <v>340400</v>
+      </c>
+      <c r="E2894">
+        <v>3404</v>
+      </c>
+      <c r="F2894">
+        <v>0</v>
+      </c>
+      <c r="G2894">
+        <v>18.801853</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2895">
+        <v>20</v>
+      </c>
+      <c r="D2895">
+        <v>340400</v>
+      </c>
+      <c r="E2895">
+        <v>3404</v>
+      </c>
+      <c r="F2895">
+        <v>0</v>
+      </c>
+      <c r="G2895">
+        <v>18.533012000000003</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2896">
+        <v>20</v>
+      </c>
+      <c r="D2896">
+        <v>3895200</v>
+      </c>
+      <c r="E2896">
+        <v>38952</v>
+      </c>
+      <c r="F2896">
+        <v>0</v>
+      </c>
+      <c r="G2896">
+        <v>9.584446</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2897">
+        <v>20</v>
+      </c>
+      <c r="D2897">
+        <v>364100</v>
+      </c>
+      <c r="E2897">
+        <v>3641</v>
+      </c>
+      <c r="F2897">
+        <v>0</v>
+      </c>
+      <c r="G2897">
+        <v>19.580461</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2898">
+        <v>20</v>
+      </c>
+      <c r="D2898">
+        <v>353300</v>
+      </c>
+      <c r="E2898">
+        <v>3533</v>
+      </c>
+      <c r="F2898">
+        <v>0</v>
+      </c>
+      <c r="G2898">
+        <v>20.036669</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2899">
+        <v>20</v>
+      </c>
+      <c r="D2899">
+        <v>353300</v>
+      </c>
+      <c r="E2899">
+        <v>3533</v>
+      </c>
+      <c r="F2899">
+        <v>0</v>
+      </c>
+      <c r="G2899">
+        <v>18.505296</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2900">
+        <v>20</v>
+      </c>
+      <c r="D2900">
+        <v>3925300</v>
+      </c>
+      <c r="E2900">
+        <v>39253</v>
+      </c>
+      <c r="F2900">
+        <v>0</v>
+      </c>
+      <c r="G2900">
+        <v>9.959673</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2901">
+        <v>20</v>
+      </c>
+      <c r="D2901">
+        <v>369600</v>
+      </c>
+      <c r="E2901">
+        <v>3696</v>
+      </c>
+      <c r="F2901">
+        <v>0</v>
+      </c>
+      <c r="G2901">
+        <v>19.2406</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2902">
+        <v>20</v>
+      </c>
+      <c r="D2902">
+        <v>342300</v>
+      </c>
+      <c r="E2902">
+        <v>3423</v>
+      </c>
+      <c r="F2902">
+        <v>0</v>
+      </c>
+      <c r="G2902">
+        <v>18.556257</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2903">
+        <v>20</v>
+      </c>
+      <c r="D2903">
+        <v>342300</v>
+      </c>
+      <c r="E2903">
+        <v>3423</v>
+      </c>
+      <c r="F2903">
+        <v>0</v>
+      </c>
+      <c r="G2903">
+        <v>17.728187</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2904">
+        <v>20</v>
+      </c>
+      <c r="D2904">
+        <v>3911100</v>
+      </c>
+      <c r="E2904">
+        <v>39111</v>
+      </c>
+      <c r="F2904">
+        <v>0</v>
+      </c>
+      <c r="G2904">
+        <v>8.984024</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2905">
+        <v>20</v>
+      </c>
+      <c r="D2905">
+        <v>361200</v>
+      </c>
+      <c r="E2905">
+        <v>3612</v>
+      </c>
+      <c r="F2905">
+        <v>0</v>
+      </c>
+      <c r="G2905">
+        <v>21.652254</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2906">
+        <v>20</v>
+      </c>
+      <c r="D2906">
+        <v>342500</v>
+      </c>
+      <c r="E2906">
+        <v>3425</v>
+      </c>
+      <c r="F2906">
+        <v>0</v>
+      </c>
+      <c r="G2906">
+        <v>22.453311</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2907">
+        <v>20</v>
+      </c>
+      <c r="D2907">
+        <v>342500</v>
+      </c>
+      <c r="E2907">
+        <v>3425</v>
+      </c>
+      <c r="F2907">
+        <v>0</v>
+      </c>
+      <c r="G2907">
+        <v>45.848193</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2908">
+        <v>20</v>
+      </c>
+      <c r="D2908">
+        <v>3916100</v>
+      </c>
+      <c r="E2908">
+        <v>39161</v>
+      </c>
+      <c r="F2908">
+        <v>0</v>
+      </c>
+      <c r="G2908">
+        <v>10.060711999999999</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2909">
+        <v>20</v>
+      </c>
+      <c r="D2909">
+        <v>372200</v>
+      </c>
+      <c r="E2909">
+        <v>3722</v>
+      </c>
+      <c r="F2909">
+        <v>0</v>
+      </c>
+      <c r="G2909">
+        <v>22.967036999999998</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2910">
+        <v>20</v>
+      </c>
+      <c r="D2910">
+        <v>357700</v>
+      </c>
+      <c r="E2910">
+        <v>3577</v>
+      </c>
+      <c r="F2910">
+        <v>0</v>
+      </c>
+      <c r="G2910">
+        <v>18.736251</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2911">
+        <v>20</v>
+      </c>
+      <c r="D2911">
+        <v>357700</v>
+      </c>
+      <c r="E2911">
+        <v>3577</v>
+      </c>
+      <c r="F2911">
+        <v>0</v>
+      </c>
+      <c r="G2911">
+        <v>22.904885999999998</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2912">
+        <v>20</v>
+      </c>
+      <c r="D2912">
+        <v>3911600</v>
+      </c>
+      <c r="E2912">
+        <v>39116</v>
+      </c>
+      <c r="F2912">
+        <v>0</v>
+      </c>
+      <c r="G2912">
+        <v>9.484292</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2913" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2913">
+        <v>20</v>
+      </c>
+      <c r="D2913">
+        <v>372200</v>
+      </c>
+      <c r="E2913">
+        <v>3722</v>
+      </c>
+      <c r="F2913">
+        <v>0</v>
+      </c>
+      <c r="G2913">
+        <v>20.275828</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2914" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2914">
+        <v>20</v>
+      </c>
+      <c r="D2914">
+        <v>348000</v>
+      </c>
+      <c r="E2914">
+        <v>3480</v>
+      </c>
+      <c r="F2914">
+        <v>0</v>
+      </c>
+      <c r="G2914">
+        <v>18.778276</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2915" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2915">
+        <v>20</v>
+      </c>
+      <c r="D2915">
+        <v>348000</v>
+      </c>
+      <c r="E2915">
+        <v>3480</v>
+      </c>
+      <c r="F2915">
+        <v>0</v>
+      </c>
+      <c r="G2915">
+        <v>20.124738999999998</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2916">
+        <v>20</v>
+      </c>
+      <c r="D2916">
+        <v>3921400</v>
+      </c>
+      <c r="E2916">
+        <v>39214</v>
+      </c>
+      <c r="F2916">
+        <v>0</v>
+      </c>
+      <c r="G2916">
+        <v>15.581373000000001</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2917">
+        <v>20</v>
+      </c>
+      <c r="D2917">
+        <v>369500</v>
+      </c>
+      <c r="E2917">
+        <v>3695</v>
+      </c>
+      <c r="F2917">
+        <v>0</v>
+      </c>
+      <c r="G2917">
+        <v>19.853709000000002</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2918">
+        <v>20</v>
+      </c>
+      <c r="D2918">
+        <v>368700</v>
+      </c>
+      <c r="E2918">
+        <v>3687</v>
+      </c>
+      <c r="F2918">
+        <v>0</v>
+      </c>
+      <c r="G2918">
+        <v>20.410435</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2919">
+        <v>20</v>
+      </c>
+      <c r="D2919">
+        <v>368700</v>
+      </c>
+      <c r="E2919">
+        <v>3687</v>
+      </c>
+      <c r="F2919">
+        <v>0</v>
+      </c>
+      <c r="G2919">
+        <v>19.451059</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2920">
+        <v>20</v>
+      </c>
+      <c r="D2920">
+        <v>3909300</v>
+      </c>
+      <c r="E2920">
+        <v>39093</v>
+      </c>
+      <c r="F2920">
+        <v>0</v>
+      </c>
+      <c r="G2920">
+        <v>9.597989</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2921">
+        <v>20</v>
+      </c>
+      <c r="D2921">
+        <v>368700</v>
+      </c>
+      <c r="E2921">
+        <v>3687</v>
+      </c>
+      <c r="F2921">
+        <v>0</v>
+      </c>
+      <c r="G2921">
+        <v>22.610549</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2922">
+        <v>20</v>
+      </c>
+      <c r="D2922">
+        <v>352500</v>
+      </c>
+      <c r="E2922">
+        <v>3525</v>
+      </c>
+      <c r="F2922">
+        <v>0</v>
+      </c>
+      <c r="G2922">
+        <v>20.720068</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2923">
+        <v>20</v>
+      </c>
+      <c r="D2923">
+        <v>352500</v>
+      </c>
+      <c r="E2923">
+        <v>3525</v>
+      </c>
+      <c r="F2923">
+        <v>0</v>
+      </c>
+      <c r="G2923">
+        <v>17.411502</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2924">
+        <v>20</v>
+      </c>
+      <c r="D2924">
+        <v>3904500</v>
+      </c>
+      <c r="E2924">
+        <v>39045</v>
+      </c>
+      <c r="F2924">
+        <v>0</v>
+      </c>
+      <c r="G2924">
+        <v>12.341078999999999</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2925">
+        <v>20</v>
+      </c>
+      <c r="D2925">
+        <v>368200</v>
+      </c>
+      <c r="E2925">
+        <v>3682</v>
+      </c>
+      <c r="F2925">
+        <v>0</v>
+      </c>
+      <c r="G2925">
+        <v>19.178089999999997</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2926">
+        <v>20</v>
+      </c>
+      <c r="D2926">
+        <v>363700</v>
+      </c>
+      <c r="E2926">
+        <v>3637</v>
+      </c>
+      <c r="F2926">
+        <v>0</v>
+      </c>
+      <c r="G2926">
+        <v>25.043148000000002</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2927">
+        <v>20</v>
+      </c>
+      <c r="D2927">
+        <v>363700</v>
+      </c>
+      <c r="E2927">
+        <v>3637</v>
+      </c>
+      <c r="F2927">
+        <v>0</v>
+      </c>
+      <c r="G2927">
+        <v>19.714512</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2928">
+        <v>20</v>
+      </c>
+      <c r="D2928">
+        <v>3914700</v>
+      </c>
+      <c r="E2928">
+        <v>39147</v>
+      </c>
+      <c r="F2928">
+        <v>0</v>
+      </c>
+      <c r="G2928">
+        <v>9.965478</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2929">
+        <v>20</v>
+      </c>
+      <c r="D2929">
+        <v>368900</v>
+      </c>
+      <c r="E2929">
+        <v>3689</v>
+      </c>
+      <c r="F2929">
+        <v>0</v>
+      </c>
+      <c r="G2929">
+        <v>19.008878</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2930">
+        <v>20</v>
+      </c>
+      <c r="D2930">
+        <v>341300</v>
+      </c>
+      <c r="E2930">
+        <v>3413</v>
+      </c>
+      <c r="F2930">
+        <v>0</v>
+      </c>
+      <c r="G2930">
+        <v>17.439316</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2931">
+        <v>20</v>
+      </c>
+      <c r="D2931">
+        <v>341300</v>
+      </c>
+      <c r="E2931">
+        <v>3413</v>
+      </c>
+      <c r="F2931">
+        <v>0</v>
+      </c>
+      <c r="G2931">
+        <v>16.729707</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2932">
+        <v>20</v>
+      </c>
+      <c r="D2932">
+        <v>3911900</v>
+      </c>
+      <c r="E2932">
+        <v>39119</v>
+      </c>
+      <c r="F2932">
+        <v>0</v>
+      </c>
+      <c r="G2932">
+        <v>10.792428999999998</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2933">
+        <v>20</v>
+      </c>
+      <c r="D2933">
+        <v>353900</v>
+      </c>
+      <c r="E2933">
+        <v>3539</v>
+      </c>
+      <c r="F2933">
+        <v>0</v>
+      </c>
+      <c r="G2933">
+        <v>19.340566</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2934">
+        <v>20</v>
+      </c>
+      <c r="D2934">
+        <v>348000</v>
+      </c>
+      <c r="E2934">
+        <v>3480</v>
+      </c>
+      <c r="F2934">
+        <v>0</v>
+      </c>
+      <c r="G2934">
+        <v>18.28275</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2935">
+        <v>20</v>
+      </c>
+      <c r="D2935">
+        <v>348000</v>
+      </c>
+      <c r="E2935">
+        <v>3480</v>
+      </c>
+      <c r="F2935">
+        <v>0</v>
+      </c>
+      <c r="G2935">
+        <v>20.626182</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2936">
+        <v>20</v>
+      </c>
+      <c r="D2936">
+        <v>3921900</v>
+      </c>
+      <c r="E2936">
+        <v>39219</v>
+      </c>
+      <c r="F2936">
+        <v>0</v>
+      </c>
+      <c r="G2936">
+        <v>11.758894000000002</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2937">
+        <v>20</v>
+      </c>
+      <c r="D2937">
+        <v>366200</v>
+      </c>
+      <c r="E2937">
+        <v>3662</v>
+      </c>
+      <c r="F2937">
+        <v>0</v>
+      </c>
+      <c r="G2937">
+        <v>21.196251</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2938">
+        <v>20</v>
+      </c>
+      <c r="D2938">
+        <v>347400</v>
+      </c>
+      <c r="E2938">
+        <v>3474</v>
+      </c>
+      <c r="F2938">
+        <v>0</v>
+      </c>
+      <c r="G2938">
+        <v>28.779401999999997</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2939">
+        <v>20</v>
+      </c>
+      <c r="D2939">
+        <v>347400</v>
+      </c>
+      <c r="E2939">
+        <v>3474</v>
+      </c>
+      <c r="F2939">
+        <v>0</v>
+      </c>
+      <c r="G2939">
+        <v>26.725684</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2940">
+        <v>20</v>
+      </c>
+      <c r="D2940">
+        <v>3914400</v>
+      </c>
+      <c r="E2940">
+        <v>39144</v>
+      </c>
+      <c r="F2940">
+        <v>0</v>
+      </c>
+      <c r="G2940">
+        <v>20.318005</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2941">
+        <v>20</v>
+      </c>
+      <c r="D2941">
+        <v>354500</v>
+      </c>
+      <c r="E2941">
+        <v>3545</v>
+      </c>
+      <c r="F2941">
+        <v>0</v>
+      </c>
+      <c r="G2941">
+        <v>34.270928</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2942">
+        <v>20</v>
+      </c>
+      <c r="D2942">
+        <v>335500</v>
+      </c>
+      <c r="E2942">
+        <v>3355</v>
+      </c>
+      <c r="F2942">
+        <v>0</v>
+      </c>
+      <c r="G2942">
+        <v>19.319729000000002</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2943">
+        <v>20</v>
+      </c>
+      <c r="D2943">
+        <v>335500</v>
+      </c>
+      <c r="E2943">
+        <v>3355</v>
+      </c>
+      <c r="F2943">
+        <v>0</v>
+      </c>
+      <c r="G2943">
+        <v>18.109645</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2944">
+        <v>20</v>
+      </c>
+      <c r="D2944">
+        <v>3901900</v>
+      </c>
+      <c r="E2944">
+        <v>39019</v>
+      </c>
+      <c r="F2944">
+        <v>0</v>
+      </c>
+      <c r="G2944">
+        <v>10.504769000000001</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2945">
+        <v>20</v>
+      </c>
+      <c r="D2945">
+        <v>360900</v>
+      </c>
+      <c r="E2945">
+        <v>3609</v>
+      </c>
+      <c r="F2945">
+        <v>0</v>
+      </c>
+      <c r="G2945">
+        <v>18.371728</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2946">
+        <v>20</v>
+      </c>
+      <c r="D2946">
+        <v>353300</v>
+      </c>
+      <c r="E2946">
+        <v>3533</v>
+      </c>
+      <c r="F2946">
+        <v>0</v>
+      </c>
+      <c r="G2946">
+        <v>17.946933</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2947" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2947">
+        <v>20</v>
+      </c>
+      <c r="D2947">
+        <v>353300</v>
+      </c>
+      <c r="E2947">
+        <v>3533</v>
+      </c>
+      <c r="F2947">
+        <v>0</v>
+      </c>
+      <c r="G2947">
+        <v>18.582107</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2948">
+        <v>20</v>
+      </c>
+      <c r="D2948">
+        <v>3925100</v>
+      </c>
+      <c r="E2948">
+        <v>39251</v>
+      </c>
+      <c r="F2948">
+        <v>0</v>
+      </c>
+      <c r="G2948">
+        <v>8.236847000000001</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2949">
+        <v>20</v>
+      </c>
+      <c r="D2949">
+        <v>365500</v>
+      </c>
+      <c r="E2949">
+        <v>3655</v>
+      </c>
+      <c r="F2949">
+        <v>0</v>
+      </c>
+      <c r="G2949">
+        <v>17.864822999999998</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2950">
+        <v>20</v>
+      </c>
+      <c r="D2950">
+        <v>360100</v>
+      </c>
+      <c r="E2950">
+        <v>3601</v>
+      </c>
+      <c r="F2950">
+        <v>0</v>
+      </c>
+      <c r="G2950">
+        <v>18.302116</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2951" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2951">
+        <v>20</v>
+      </c>
+      <c r="D2951">
+        <v>360100</v>
+      </c>
+      <c r="E2951">
+        <v>3601</v>
+      </c>
+      <c r="F2951">
+        <v>0</v>
+      </c>
+      <c r="G2951">
+        <v>17.227560999999998</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2952">
+        <v>20</v>
+      </c>
+      <c r="D2952">
+        <v>3933700</v>
+      </c>
+      <c r="E2952">
+        <v>39337</v>
+      </c>
+      <c r="F2952">
+        <v>0</v>
+      </c>
+      <c r="G2952">
+        <v>8.511642</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2953">
+        <v>20</v>
+      </c>
+      <c r="D2953">
+        <v>363100</v>
+      </c>
+      <c r="E2953">
+        <v>3631</v>
+      </c>
+      <c r="F2953">
+        <v>0</v>
+      </c>
+      <c r="G2953">
+        <v>18.713881</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2954" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2954">
+        <v>20</v>
+      </c>
+      <c r="D2954">
+        <v>353600</v>
+      </c>
+      <c r="E2954">
+        <v>3536</v>
+      </c>
+      <c r="F2954">
+        <v>0</v>
+      </c>
+      <c r="G2954">
+        <v>19.268386</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2955">
+        <v>20</v>
+      </c>
+      <c r="D2955">
+        <v>353600</v>
+      </c>
+      <c r="E2955">
+        <v>3536</v>
+      </c>
+      <c r="F2955">
+        <v>0</v>
+      </c>
+      <c r="G2955">
+        <v>17.656589</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2956">
+        <v>20</v>
+      </c>
+      <c r="D2956">
+        <v>3921300</v>
+      </c>
+      <c r="E2956">
+        <v>39213</v>
+      </c>
+      <c r="F2956">
+        <v>0</v>
+      </c>
+      <c r="G2956">
+        <v>9.348587</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2957">
+        <v>20</v>
+      </c>
+      <c r="D2957">
+        <v>369600</v>
+      </c>
+      <c r="E2957">
+        <v>3696</v>
+      </c>
+      <c r="F2957">
+        <v>0</v>
+      </c>
+      <c r="G2957">
+        <v>18.88208</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2958">
+        <v>20</v>
+      </c>
+      <c r="D2958">
+        <v>352300</v>
+      </c>
+      <c r="E2958">
+        <v>3523</v>
+      </c>
+      <c r="F2958">
+        <v>0</v>
+      </c>
+      <c r="G2958">
+        <v>22.368994999999998</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2959">
+        <v>20</v>
+      </c>
+      <c r="D2959">
+        <v>352300</v>
+      </c>
+      <c r="E2959">
+        <v>3523</v>
+      </c>
+      <c r="F2959">
+        <v>0</v>
+      </c>
+      <c r="G2959">
+        <v>22.279131</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2960">
+        <v>20</v>
+      </c>
+      <c r="D2960">
+        <v>3911900</v>
+      </c>
+      <c r="E2960">
+        <v>39119</v>
+      </c>
+      <c r="F2960">
+        <v>0</v>
+      </c>
+      <c r="G2960">
+        <v>11.313872000000002</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2961">
+        <v>20</v>
+      </c>
+      <c r="D2961">
+        <v>364800</v>
+      </c>
+      <c r="E2961">
+        <v>3648</v>
+      </c>
+      <c r="F2961">
+        <v>0</v>
+      </c>
+      <c r="G2961">
+        <v>30.897979999999997</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2962">
+        <v>20</v>
+      </c>
+      <c r="D2962">
+        <v>358600</v>
+      </c>
+      <c r="E2962">
+        <v>3586</v>
+      </c>
+      <c r="F2962">
+        <v>0</v>
+      </c>
+      <c r="G2962">
+        <v>28.208639</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2963">
+        <v>20</v>
+      </c>
+      <c r="D2963">
+        <v>358600</v>
+      </c>
+      <c r="E2963">
+        <v>3586</v>
+      </c>
+      <c r="F2963">
+        <v>0</v>
+      </c>
+      <c r="G2963">
+        <v>26.24187</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2964">
+        <v>20</v>
+      </c>
+      <c r="D2964">
+        <v>3920300</v>
+      </c>
+      <c r="E2964">
+        <v>39203</v>
+      </c>
+      <c r="F2964">
+        <v>0</v>
+      </c>
+      <c r="G2964">
+        <v>12.856423000000001</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2965">
+        <v>20</v>
+      </c>
+      <c r="D2965">
+        <v>355200</v>
+      </c>
+      <c r="E2965">
+        <v>3552</v>
+      </c>
+      <c r="F2965">
+        <v>0</v>
+      </c>
+      <c r="G2965">
+        <v>27.387598</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2966">
+        <v>20</v>
+      </c>
+      <c r="D2966">
+        <v>347900</v>
+      </c>
+      <c r="E2966">
+        <v>3479</v>
+      </c>
+      <c r="F2966">
+        <v>0</v>
+      </c>
+      <c r="G2966">
+        <v>19.386906999999997</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2967">
+        <v>20</v>
+      </c>
+      <c r="D2967">
+        <v>347900</v>
+      </c>
+      <c r="E2967">
+        <v>3479</v>
+      </c>
+      <c r="F2967">
+        <v>0</v>
+      </c>
+      <c r="G2967">
+        <v>18.337923</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2968">
+        <v>20</v>
+      </c>
+      <c r="D2968">
+        <v>3921200</v>
+      </c>
+      <c r="E2968">
+        <v>39212</v>
+      </c>
+      <c r="F2968">
+        <v>0</v>
+      </c>
+      <c r="G2968">
+        <v>10.633818999999999</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2969">
+        <v>20</v>
+      </c>
+      <c r="D2969">
+        <v>369600</v>
+      </c>
+      <c r="E2969">
+        <v>3696</v>
+      </c>
+      <c r="F2969">
+        <v>0</v>
+      </c>
+      <c r="G2969">
+        <v>21.982827999999998</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/can2tsn_history.xlsx
+++ b/can2tsn_history.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -988,6 +988,12 @@
   <si>
     <t>2025-05-11 08:15:18</t>
   </si>
+  <si>
+    <t>2025-05-11 11:39:50</t>
+  </si>
+  <si>
+    <t>2025-05-11 18:09:59</t>
+  </si>
 </sst>
 </file>
 
@@ -69593,6 +69599,190 @@
         <v>21.982827999999998</v>
       </c>
     </row>
+    <row r="2970">
+      <c r="A2970" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2970">
+        <v>20</v>
+      </c>
+      <c r="D2970">
+        <v>368500</v>
+      </c>
+      <c r="E2970">
+        <v>3685</v>
+      </c>
+      <c r="F2970">
+        <v>0</v>
+      </c>
+      <c r="G2970">
+        <v>17.742175999999997</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2971">
+        <v>20</v>
+      </c>
+      <c r="D2971">
+        <v>368500</v>
+      </c>
+      <c r="E2971">
+        <v>3685</v>
+      </c>
+      <c r="F2971">
+        <v>0</v>
+      </c>
+      <c r="G2971">
+        <v>17.966035</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2972">
+        <v>20</v>
+      </c>
+      <c r="D2972">
+        <v>3916200</v>
+      </c>
+      <c r="E2972">
+        <v>39162</v>
+      </c>
+      <c r="F2972">
+        <v>0</v>
+      </c>
+      <c r="G2972">
+        <v>8.672862</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2973">
+        <v>20</v>
+      </c>
+      <c r="D2973">
+        <v>365500</v>
+      </c>
+      <c r="E2973">
+        <v>3655</v>
+      </c>
+      <c r="F2973">
+        <v>0</v>
+      </c>
+      <c r="G2973">
+        <v>20.576436</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2974">
+        <v>20</v>
+      </c>
+      <c r="D2974">
+        <v>341800</v>
+      </c>
+      <c r="E2974">
+        <v>3418</v>
+      </c>
+      <c r="F2974">
+        <v>0</v>
+      </c>
+      <c r="G2974">
+        <v>38.946194000000006</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2975">
+        <v>20</v>
+      </c>
+      <c r="D2975">
+        <v>341800</v>
+      </c>
+      <c r="E2975">
+        <v>3418</v>
+      </c>
+      <c r="F2975">
+        <v>0</v>
+      </c>
+      <c r="G2975">
+        <v>44.890547000000005</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2976">
+        <v>20</v>
+      </c>
+      <c r="D2976">
+        <v>3916800</v>
+      </c>
+      <c r="E2976">
+        <v>39168</v>
+      </c>
+      <c r="F2976">
+        <v>0</v>
+      </c>
+      <c r="G2976">
+        <v>17.974645000000002</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2977">
+        <v>20</v>
+      </c>
+      <c r="D2977">
+        <v>369100</v>
+      </c>
+      <c r="E2977">
+        <v>3691</v>
+      </c>
+      <c r="F2977">
+        <v>0</v>
+      </c>
+      <c r="G2977">
+        <v>30.337784</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>